--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1340.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1340.xlsx
@@ -2487,7 +2487,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -2607,7 +2607,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -2959,7 +2959,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3074,7 +3074,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3431,7 +3431,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3540,7 +3540,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -4113,7 +4113,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -4223,7 +4223,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF564"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.3843385246743417</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.01921692623371709</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.01921692623371709</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.03074708197394734</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.07075428033241446</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02075428033241445</v>
+        <v>0.09649607680250484</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0005023913425912099</v>
+        <v>0.002335845560680789</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9275,31 +9249,15 @@
         <f>A70</f>
         <v/>
       </c>
-      <c r="F65" s="170" t="n">
-        <v>0.01153015574023025</v>
-      </c>
-      <c r="G65" s="171" t="n">
-        <v>0.0001674637808637366</v>
-      </c>
+      <c r="F65" s="170" t="n"/>
+      <c r="G65" s="171" t="n"/>
       <c r="H65" s="171" t="n"/>
-      <c r="J65" s="170" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" s="171" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" s="172" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" s="170" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="171" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" s="172" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" s="170" t="n"/>
+      <c r="K65" s="171" t="n"/>
+      <c r="L65" s="172" t="n"/>
+      <c r="M65" s="170" t="n"/>
+      <c r="N65" s="171" t="n"/>
+      <c r="O65" s="172" t="n"/>
       <c r="Q65" s="151" t="inlineStr">
         <is>
           <t>&lt; 0</t>
@@ -9317,31 +9275,15 @@
           <t>ind</t>
         </is>
       </c>
-      <c r="F66" s="170" t="n">
-        <v>0.02075428033241445</v>
-      </c>
-      <c r="G66" s="171" t="n">
-        <v>0.0005023913425912099</v>
-      </c>
+      <c r="F66" s="170" t="n"/>
+      <c r="G66" s="171" t="n"/>
       <c r="H66" s="171" t="n"/>
-      <c r="J66" s="170" t="n">
-        <v>0.03000000000000001</v>
-      </c>
-      <c r="K66" s="171" t="n">
-        <v>0.0004357194767441863</v>
-      </c>
-      <c r="L66" s="172" t="n">
-        <v>0.09000000000000002</v>
-      </c>
-      <c r="M66" s="170" t="n">
-        <v>0.0004491953368496765</v>
-      </c>
-      <c r="N66" s="171" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="O66" s="172" t="n">
-        <v>0.0003997426392148496</v>
-      </c>
+      <c r="J66" s="170" t="n"/>
+      <c r="K66" s="171" t="n"/>
+      <c r="L66" s="172" t="n"/>
+      <c r="M66" s="170" t="n"/>
+      <c r="N66" s="171" t="n"/>
+      <c r="O66" s="172" t="n"/>
       <c r="Q66" s="151" t="inlineStr">
         <is>
           <t>0-0,25</t>
@@ -9357,31 +9299,15 @@
       <c r="A67" s="151" t="n">
         <v>2</v>
       </c>
-      <c r="F67" s="170" t="n">
-        <v>0.01967791376896946</v>
-      </c>
-      <c r="G67" s="171" t="n">
-        <v>0.001380786958353354</v>
-      </c>
+      <c r="F67" s="170" t="n"/>
+      <c r="G67" s="171" t="n"/>
       <c r="H67" s="171" t="n"/>
-      <c r="J67" s="170" t="n">
-        <v>0.07563016050866618</v>
-      </c>
-      <c r="K67" s="171" t="n">
-        <v>0.001514781934032292</v>
-      </c>
-      <c r="L67" s="172" t="n">
-        <v>0.2160441045478741</v>
-      </c>
-      <c r="M67" s="170" t="n">
-        <v>0.001517583221107373</v>
-      </c>
-      <c r="N67" s="171" t="n">
-        <v>0.3790564965795522</v>
-      </c>
-      <c r="O67" s="172" t="n">
-        <v>0.001448430112377091</v>
-      </c>
+      <c r="J67" s="170" t="n"/>
+      <c r="K67" s="171" t="n"/>
+      <c r="L67" s="172" t="n"/>
+      <c r="M67" s="170" t="n"/>
+      <c r="N67" s="171" t="n"/>
+      <c r="O67" s="172" t="n"/>
       <c r="Q67" s="151" t="inlineStr">
         <is>
           <t>0,25&lt;</t>
@@ -9399,31 +9325,15 @@
           <t>E0</t>
         </is>
       </c>
-      <c r="F68" s="170" t="n">
-        <v>0.02110007448905891</v>
-      </c>
-      <c r="G68" s="171" t="n">
-        <v>0.002071180437530031</v>
-      </c>
+      <c r="F68" s="170" t="n"/>
+      <c r="G68" s="171" t="n"/>
       <c r="H68" s="171" t="n"/>
-      <c r="J68" s="170" t="n">
-        <v>0.09649607680250484</v>
-      </c>
-      <c r="K68" s="171" t="n">
-        <v>0.002335845560680789</v>
-      </c>
-      <c r="L68" s="172" t="n">
-        <v>0.2566833689422459</v>
-      </c>
-      <c r="M68" s="170" t="n">
-        <v>0.002135203192142997</v>
-      </c>
-      <c r="N68" s="171" t="n">
-        <v>0.4168706610819868</v>
-      </c>
-      <c r="O68" s="172" t="n">
-        <v>0.001851566425246139</v>
-      </c>
+      <c r="J68" s="170" t="n"/>
+      <c r="K68" s="171" t="n"/>
+      <c r="L68" s="172" t="n"/>
+      <c r="M68" s="170" t="n"/>
+      <c r="N68" s="171" t="n"/>
+      <c r="O68" s="172" t="n"/>
       <c r="Q68" s="151" t="inlineStr">
         <is>
           <t>Суглинки</t>
@@ -9446,31 +9356,15 @@
           <t>devE0</t>
         </is>
       </c>
-      <c r="F69" s="170" t="n">
-        <v>0.02544553594817613</v>
-      </c>
-      <c r="G69" s="171" t="n">
-        <v>0.002761573916706708</v>
-      </c>
+      <c r="F69" s="170" t="n"/>
+      <c r="G69" s="171" t="n"/>
       <c r="H69" s="171" t="n"/>
-      <c r="J69" s="170" t="n">
-        <v>0.1025593536722636</v>
-      </c>
-      <c r="K69" s="171" t="n">
-        <v>0.003029563868064585</v>
-      </c>
-      <c r="L69" s="172" t="n">
-        <v>0.2751806896502537</v>
-      </c>
-      <c r="M69" s="170" t="n">
-        <v>0.003035166442214746</v>
-      </c>
-      <c r="N69" s="171" t="n">
-        <v>0.4505770237657302</v>
-      </c>
-      <c r="O69" s="172" t="n">
-        <v>0.002896860224754183</v>
-      </c>
+      <c r="J69" s="170" t="n"/>
+      <c r="K69" s="171" t="n"/>
+      <c r="L69" s="172" t="n"/>
+      <c r="M69" s="170" t="n"/>
+      <c r="N69" s="171" t="n"/>
+      <c r="O69" s="172" t="n"/>
       <c r="Q69" s="151" t="inlineStr">
         <is>
           <t xml:space="preserve">Пески и супеси </t>
@@ -9484,63 +9378,31 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0001674637808637366</v>
+        <v>0.0004357194767441863</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01153015574023025</v>
-      </c>
-      <c r="F70" s="170" t="n">
-        <v>0.02371640989859722</v>
-      </c>
-      <c r="G70" s="171" t="n">
-        <v>0.003451967395883385</v>
-      </c>
+        <v>0.03000000000000001</v>
+      </c>
+      <c r="F70" s="170" t="n"/>
+      <c r="G70" s="171" t="n"/>
       <c r="H70" s="171" t="n"/>
-      <c r="J70" s="170" t="n">
-        <v>0.109097562379808</v>
-      </c>
-      <c r="K70" s="171" t="n">
-        <v>0.003786954835080731</v>
-      </c>
-      <c r="L70" s="172" t="n">
-        <v>0.2958593550847708</v>
-      </c>
-      <c r="M70" s="170" t="n">
-        <v>0.003793958052768432</v>
-      </c>
-      <c r="N70" s="171" t="n">
-        <v>0.4781936628412873</v>
-      </c>
-      <c r="O70" s="172" t="n">
-        <v>0.003621075280942728</v>
-      </c>
+      <c r="J70" s="170" t="n"/>
+      <c r="K70" s="171" t="n"/>
+      <c r="L70" s="172" t="n"/>
+      <c r="M70" s="170" t="n"/>
+      <c r="N70" s="171" t="n"/>
+      <c r="O70" s="172" t="n"/>
     </row>
     <row r="71">
-      <c r="F71" s="170" t="n">
-        <v>0.02491480809259828</v>
-      </c>
-      <c r="G71" s="171" t="n">
-        <v>0.004142360875060061</v>
-      </c>
+      <c r="F71" s="170" t="n"/>
+      <c r="G71" s="171" t="n"/>
       <c r="H71" s="171" t="n"/>
-      <c r="J71" s="170" t="n">
-        <v>0.1152191265282565</v>
-      </c>
-      <c r="K71" s="171" t="n">
-        <v>0.004544345802096878</v>
-      </c>
-      <c r="L71" s="172" t="n">
-        <v>0.3087718342879522</v>
-      </c>
-      <c r="M71" s="170" t="n">
-        <v>0.004552749663322119</v>
-      </c>
-      <c r="N71" s="171" t="n">
-        <v>0.5053641507168812</v>
-      </c>
-      <c r="O71" s="172" t="n">
-        <v>0.004345290337131273</v>
-      </c>
+      <c r="J71" s="170" t="n"/>
+      <c r="K71" s="171" t="n"/>
+      <c r="L71" s="172" t="n"/>
+      <c r="M71" s="170" t="n"/>
+      <c r="N71" s="171" t="n"/>
+      <c r="O71" s="172" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="151" t="inlineStr">
@@ -9553,31 +9415,15 @@
           <t>График E</t>
         </is>
       </c>
-      <c r="F72" s="170" t="n">
-        <v>0.02504284228245544</v>
-      </c>
-      <c r="G72" s="171" t="n">
-        <v>0.004832754354236739</v>
-      </c>
+      <c r="F72" s="170" t="n"/>
+      <c r="G72" s="171" t="n"/>
       <c r="H72" s="171" t="n"/>
-      <c r="J72" s="170" t="n">
-        <v>0.1199302583609164</v>
-      </c>
-      <c r="K72" s="171" t="n">
-        <v>0.005301736769113023</v>
-      </c>
-      <c r="L72" s="172" t="n">
-        <v>0.328136485160641</v>
-      </c>
-      <c r="M72" s="170" t="n">
-        <v>0.005311541273875805</v>
-      </c>
-      <c r="N72" s="171" t="n">
-        <v>0.5367186102034232</v>
-      </c>
-      <c r="O72" s="172" t="n">
-        <v>0.00506950539331982</v>
-      </c>
+      <c r="J72" s="170" t="n"/>
+      <c r="K72" s="171" t="n"/>
+      <c r="L72" s="172" t="n"/>
+      <c r="M72" s="170" t="n"/>
+      <c r="N72" s="171" t="n"/>
+      <c r="O72" s="172" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="139" t="inlineStr">
@@ -9599,31 +9445,15 @@
         <f>B70</f>
         <v/>
       </c>
-      <c r="F73" s="170" t="n">
-        <v>0.0261026242204448</v>
-      </c>
-      <c r="G73" s="171" t="n">
-        <v>0.005523147833413415</v>
-      </c>
+      <c r="F73" s="170" t="n"/>
+      <c r="G73" s="171" t="n"/>
       <c r="H73" s="171" t="n"/>
-      <c r="J73" s="170" t="n">
-        <v>0.1270371701210954</v>
-      </c>
-      <c r="K73" s="171" t="n">
-        <v>0.00605912773612917</v>
-      </c>
-      <c r="L73" s="172" t="n">
-        <v>0.3397716656036803</v>
-      </c>
-      <c r="M73" s="170" t="n">
-        <v>0.006070332884429492</v>
-      </c>
-      <c r="N73" s="171" t="n">
-        <v>0.5530871641118246</v>
-      </c>
-      <c r="O73" s="172" t="n">
-        <v>0.005793720449508365</v>
-      </c>
+      <c r="J73" s="170" t="n"/>
+      <c r="K73" s="171" t="n"/>
+      <c r="L73" s="172" t="n"/>
+      <c r="M73" s="170" t="n"/>
+      <c r="N73" s="171" t="n"/>
+      <c r="O73" s="172" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="151" t="inlineStr">
@@ -9636,31 +9466,15 @@
           <t>Касательная</t>
         </is>
       </c>
-      <c r="F74" s="170" t="n">
-        <v>0.02809626565884247</v>
-      </c>
-      <c r="G74" s="171" t="n">
-        <v>0.006213541312590092</v>
-      </c>
+      <c r="F74" s="170" t="n"/>
+      <c r="G74" s="171" t="n"/>
       <c r="H74" s="171" t="n"/>
-      <c r="J74" s="170" t="n">
-        <v>0.1312460740521011</v>
-      </c>
-      <c r="K74" s="171" t="n">
-        <v>0.006816518703145316</v>
-      </c>
-      <c r="L74" s="172" t="n">
-        <v>0.3557957335179135</v>
-      </c>
-      <c r="M74" s="170" t="n">
-        <v>0.006829124494983178</v>
-      </c>
-      <c r="N74" s="171" t="n">
-        <v>0.5754999352529969</v>
-      </c>
-      <c r="O74" s="172" t="n">
-        <v>0.00651793550569691</v>
-      </c>
+      <c r="J74" s="170" t="n"/>
+      <c r="K74" s="171" t="n"/>
+      <c r="L74" s="172" t="n"/>
+      <c r="M74" s="170" t="n"/>
+      <c r="N74" s="171" t="n"/>
+      <c r="O74" s="172" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="151" t="n">
@@ -9680,31 +9494,15 @@
           <t>b</t>
         </is>
       </c>
-      <c r="F75" s="170" t="n">
-        <v>0.02802587834992458</v>
-      </c>
-      <c r="G75" s="171" t="n">
-        <v>0.00690393479176677</v>
-      </c>
+      <c r="F75" s="170" t="n"/>
+      <c r="G75" s="171" t="n"/>
       <c r="H75" s="171" t="n"/>
-      <c r="J75" s="170" t="n">
-        <v>0.1371631823972409</v>
-      </c>
-      <c r="K75" s="171" t="n">
-        <v>0.007573909670161463</v>
-      </c>
-      <c r="L75" s="172" t="n">
-        <v>0.3698270468041834</v>
-      </c>
-      <c r="M75" s="170" t="n">
-        <v>0.007587916105536864</v>
-      </c>
-      <c r="N75" s="171" t="n">
-        <v>0.5971870464378515</v>
-      </c>
-      <c r="O75" s="172" t="n">
-        <v>0.007242150561885456</v>
-      </c>
+      <c r="J75" s="170" t="n"/>
+      <c r="K75" s="171" t="n"/>
+      <c r="L75" s="172" t="n"/>
+      <c r="M75" s="170" t="n"/>
+      <c r="N75" s="171" t="n"/>
+      <c r="O75" s="172" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="173">
@@ -9722,31 +9520,15 @@
       <c r="D76" s="151" t="n">
         <v>0</v>
       </c>
-      <c r="F76" s="170" t="n">
-        <v>0.0328935740459672</v>
-      </c>
-      <c r="G76" s="171" t="n">
-        <v>0.007594328270943446</v>
-      </c>
+      <c r="F76" s="170" t="n"/>
+      <c r="G76" s="171" t="n"/>
       <c r="H76" s="171" t="n"/>
-      <c r="J76" s="170" t="n">
-        <v>0.1426947073998224</v>
-      </c>
-      <c r="K76" s="171" t="n">
-        <v>0.008331300637177607</v>
-      </c>
-      <c r="L76" s="172" t="n">
-        <v>0.3828839633633332</v>
-      </c>
-      <c r="M76" s="170" t="n">
-        <v>0.008346707716090552</v>
-      </c>
-      <c r="N76" s="171" t="n">
-        <v>0.6189786204772999</v>
-      </c>
-      <c r="O76" s="172" t="n">
-        <v>0.007966365618074001</v>
-      </c>
+      <c r="J76" s="170" t="n"/>
+      <c r="K76" s="171" t="n"/>
+      <c r="L76" s="172" t="n"/>
+      <c r="M76" s="170" t="n"/>
+      <c r="N76" s="171" t="n"/>
+      <c r="O76" s="172" t="n"/>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="A77" s="151" t="inlineStr">
@@ -9758,30 +9540,6 @@
         <is>
           <t>p1 и p2</t>
         </is>
-      </c>
-      <c r="F77" t="n">
-        <v>0.03070146449924648</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.008284721750120122</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.1460468613031533</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009088691604193755</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.393784841096206</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.009105499326644237</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.6362047801822536</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.008690580674262547</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9799,30 +9557,6 @@
         <f>D76</f>
         <v/>
       </c>
-      <c r="F78" t="n">
-        <v>0.03445166146203851</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.008975115229296799</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.1516258563505409</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.009846082571209901</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.4053480379036452</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.009864290937197923</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.6573956483636237</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.009414795730451092</v>
-      </c>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" s="173">
@@ -9841,60 +9575,12 @@
         <f>B89+0.2*B89</f>
         <v/>
       </c>
-      <c r="F79" t="n">
-        <v>0.03414627668661942</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.009665508708473478</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.1551379047852929</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01060347353822605</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0.4176919116864934</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.01062308254775161</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.6683813478323221</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.01013901078663964</v>
-      </c>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="A80" s="151" t="inlineStr">
         <is>
           <t>Касательная линия E50</t>
         </is>
-      </c>
-      <c r="F80" t="n">
-        <v>0.03578742192526528</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.01035590218765015</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.1590892188507169</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01136086450524219</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0.4244348203455941</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.0113818741583053</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.6894920013992598</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.01086322584282818</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9909,30 +9595,6 @@
           <t>Горизонтальная 1</t>
         </is>
       </c>
-      <c r="F81" t="n">
-        <v>0.03637720893025226</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.01104629566682683</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.1615860107901203</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01211825547225834</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.4327951217817902</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.01214066576885898</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.7043577318753486</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.01158744089901673</v>
-      </c>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="A82" s="173">
@@ -9943,30 +9605,6 @@
         <f>B79+(B86-B79)*0.8</f>
         <v/>
       </c>
-      <c r="F82" t="n">
-        <v>0.03491774945385642</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.01173668914600351</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.1650344928468107</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01287564643927449</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0.4440911738959251</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.01289945737941267</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0.7186086620714996</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.01231165595520528</v>
-      </c>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" s="151" t="inlineStr">
@@ -9974,30 +9612,6 @@
           <t>Горизонтальная линия qкр</t>
         </is>
       </c>
-      <c r="F83" t="n">
-        <v>0.03641115524835389</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.01242708262518018</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.1692408772640958</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01363303740629063</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.4486413345888418</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.01365824898996636</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.7256749147986244</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.01303587101139382</v>
-      </c>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="A84" s="151" t="inlineStr">
@@ -10009,30 +9623,6 @@
         <is>
           <t>Горизонтальная 2</t>
         </is>
-      </c>
-      <c r="F84" t="n">
-        <v>0.0348595380660208</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.01311747610435686</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.1705113762852829</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01439042837330678</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0.4571639617613831</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.01441704060052004</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.7406866128676343</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.01376008606758237</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10050,30 +9640,6 @@
         <f>D73</f>
         <v/>
       </c>
-      <c r="F85" t="n">
-        <v>0.03826500965913324</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.01380786958353354</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.1730522021536796</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01514781934032293</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.4625774133143926</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.01517583221107373</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.7467738790894412</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.01448430112377091</v>
-      </c>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" s="172">
@@ -10092,60 +9658,12 @@
         <f>D73</f>
         <v/>
       </c>
-      <c r="F86" t="n">
-        <v>0.0376296817799673</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.01449826306271021</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.1752695671125937</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01590521030733907</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0.4712000471487132</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.01593462382162742</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0.7590668362749555</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0.01520851617995946</v>
-      </c>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="A87" s="151" t="inlineStr">
         <is>
           <t>Вертикальная линия q</t>
         </is>
-      </c>
-      <c r="F87" t="n">
-        <v>0.03795566618079912</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.01518865654188689</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.1773696834053325</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01666260127435521</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0.4758502211651878</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.0166934154321811</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.7627956072350899</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.015932731236148</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10158,30 +9676,6 @@
       </c>
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
-      <c r="F88" t="n">
-        <v>0.03924507461390482</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.01587905002106357</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.1789587632752035</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01741999224137136</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0.48124629326466</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.01745220704273479</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.7785903147807551</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0.01665694629233655</v>
-      </c>
     </row>
     <row r="89" ht="15" customHeight="1">
       <c r="A89" s="172">
@@ -10192,4581 +9686,182 @@
         <f>B86</f>
         <v/>
       </c>
-      <c r="F89" t="n">
-        <v>0.03650001883156048</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.01656944350024024</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.1814430189655145</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01817738320838751</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0.4846066213479725</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.01821099865328847</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.7802810817228625</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0.01738116134852509</v>
-      </c>
     </row>
-    <row r="90" ht="15" customHeight="1">
-      <c r="F90" t="n">
-        <v>0.03572261058604223</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.01725983697941692</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.1835286627195729</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01893477417540365</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0.4890495633159686</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.01896979026384216</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0.7917980308723238</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0.01810537640471364</v>
-      </c>
-    </row>
-    <row r="91" ht="15" customHeight="1">
-      <c r="F91" t="n">
-        <v>0.03791496162962618</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.0179502304585936</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.1845219067806863</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0196921651424198</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0.4914934770694913</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.01972858187439585</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0.7969712850400503</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.01882959146090218</v>
-      </c>
-    </row>
-    <row r="92" ht="15" customHeight="1">
-      <c r="F92" t="n">
-        <v>0.03607918371458844</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.01864062393777028</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.1854289633921621</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02044955610943595</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0.492056720509384</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.02048737348494953</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.7939309670369534</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0.01955380651709073</v>
-      </c>
-    </row>
-    <row r="93" ht="15" customHeight="1">
-      <c r="F93" t="n">
-        <v>0.03721738859320511</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.01933101741694696</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.187256044797308</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02120694707645209</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0.4971576515364895</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.02124616509550322</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0.8004071996739448</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0.02027802157327928</v>
-      </c>
-    </row>
-    <row r="94" ht="15" customHeight="1">
-      <c r="F94" t="n">
-        <v>0.03833168801775233</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.02002141089612363</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.1878093632394316</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02196433804346824</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.4984146280516509</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.02200495670605691</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0.8015301057619355</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0.02100223662946782</v>
-      </c>
-    </row>
-    <row r="95" ht="15" customHeight="1">
-      <c r="F95" t="n">
-        <v>0.03642419374050619</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.02071180437530031</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.1874951309618403</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02272172901048439</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0.4981460079557116</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.02276374831661059</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0.8058298081118371</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0.02172645168565637</v>
-      </c>
-    </row>
-    <row r="96" ht="15" customHeight="1">
-      <c r="F96" t="n">
-        <v>0.03849701751374278</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.02140219785447698</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.1886195602078417</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02347911997750053</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0.5013701491495146</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.02352253992716428</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0.8114364295345615</v>
-      </c>
-      <c r="O96" t="n">
-        <v>0.02245066674184491</v>
-      </c>
-    </row>
-    <row r="97" ht="15" customHeight="1">
-      <c r="F97" t="n">
-        <v>0.03755227108973823</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.02209259133365366</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.1880888632207434</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02423651094451668</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.502105409533903</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.02428133153771797</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.8105800928410192</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0.02317488179803346</v>
-      </c>
-    </row>
-    <row r="98" ht="15" customHeight="1">
-      <c r="F98" t="n">
-        <v>0.03659206622076867</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.02278298481283034</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.1881092522438529</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02499390191153282</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.5008701470097199</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.02504012314827165</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.8100909208421221</v>
-      </c>
-      <c r="O98" t="n">
-        <v>0.02389909685422201</v>
-      </c>
-    </row>
-    <row r="99" ht="15" customHeight="1">
-      <c r="F99" t="n">
-        <v>0.03661851465911017</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.02347337829200702</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.1892646720498125</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02575129287854897</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0.5020757572882852</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.02579891475882534</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.8140990363487823</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0.02462331191041055</v>
-      </c>
-    </row>
-    <row r="100" ht="15" customHeight="1">
-      <c r="F100" t="n">
-        <v>0.03863372815703889</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.02416377177118369</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.187397183804522</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02650868384556512</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0.4989302427218505</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.02655770636937902</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.816723516724805</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0.0253475269665991</v>
-      </c>
-    </row>
-    <row r="101" ht="15" customHeight="1">
-      <c r="F101" t="n">
-        <v>0.0406398184668309</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.02485416525036037</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.1886276757109404</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02726607481258126</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0.4991634818541529</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.02731649797993271</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0.8163592077885846</v>
-      </c>
-      <c r="O101" t="n">
-        <v>0.02607174202278764</v>
-      </c>
-    </row>
-    <row r="102" ht="15" customHeight="1">
-      <c r="F102" t="n">
-        <v>0.04063387619488171</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.02554455872953705</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.1866832874225397</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02802346577959741</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.4998062067138443</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0.0280752895904864</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0.8146320100896152</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0.02679595707897619</v>
-      </c>
-    </row>
-    <row r="103" ht="15" customHeight="1">
-      <c r="F103" t="n">
-        <v>0.04060161475494556</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.02623495220871372</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.1855911585927922</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02878085674661356</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0.4960891493295766</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0.02883408120104008</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0.8118443910430615</v>
-      </c>
-      <c r="O103" t="n">
-        <v>0.02752017213516473</v>
-      </c>
-    </row>
-    <row r="104" ht="15" customHeight="1">
-      <c r="F104" t="n">
-        <v>0.03754394308508519</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.0269253456878904</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.1845784288751701</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.0295382477136297</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0.493843041730001</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0.02959287281159377</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0.8075988180640883</v>
-      </c>
-      <c r="O104" t="n">
-        <v>0.02824438719135328</v>
-      </c>
-    </row>
-    <row r="105" ht="15" customHeight="1">
-      <c r="F105" t="n">
-        <v>0.03646304997714421</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.02761573916706708</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.1836722379231454</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03029563868064585</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0.4920986159437696</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0.03035166442214746</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0.7995977585678609</v>
-      </c>
-      <c r="O105" t="n">
-        <v>0.02896860224754182</v>
-      </c>
-    </row>
-    <row r="106" ht="15" customHeight="1">
-      <c r="F106" t="n">
-        <v>0.03936112422296623</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.02830613264624375</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.1842997253901904</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.031053029647662</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0.4912866039995337</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0.03111045603270115</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0.8007436799695444</v>
-      </c>
-      <c r="O106" t="n">
-        <v>0.02969281730373037</v>
-      </c>
-    </row>
-    <row r="107" ht="15" customHeight="1">
-      <c r="F107" t="n">
-        <v>0.04024035461439487</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.02899652612542043</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.1816880309297773</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03181042061467814</v>
-      </c>
-      <c r="L107" t="n">
-        <v>0.4909377379259453</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0.03186924764325483</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0.7978390496843035</v>
-      </c>
-      <c r="O107" t="n">
-        <v>0.03041703235991891</v>
-      </c>
-    </row>
-    <row r="108" ht="15" customHeight="1">
-      <c r="F108" t="n">
-        <v>0.04010292994327376</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.0296869196045971</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0.181864294195378</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03256781158169429</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0.4860827497516559</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0.03262803925380851</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0.7904863351273035</v>
-      </c>
-      <c r="O108" t="n">
-        <v>0.03114124741610746</v>
-      </c>
-    </row>
-    <row r="109" ht="15" customHeight="1">
-      <c r="F109" t="n">
-        <v>0.0369510390014465</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.03037731308377378</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0.1792556548404649</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03332520254871043</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0.4848523715053172</v>
-      </c>
-      <c r="M109" t="n">
-        <v>0.03338683086436221</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0.7846880037137089</v>
-      </c>
-      <c r="O109" t="n">
-        <v>0.03186546247229601</v>
-      </c>
-    </row>
-    <row r="110" ht="15" customHeight="1">
-      <c r="F110" t="n">
-        <v>0.03778687058075672</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.03106770656295046</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.1782892525185101</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03408259351572658</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0.482077335215581</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0.03414562247491589</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.7827465228586856</v>
-      </c>
-      <c r="O110" t="n">
-        <v>0.03258967752848455</v>
-      </c>
-    </row>
-    <row r="111" ht="15" customHeight="1">
-      <c r="F111" t="n">
-        <v>0.03661261347304803</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.03175810004212714</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.1777922268829857</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03483998448274273</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0.4806883729110988</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0.03490441408546957</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.7737643599773978</v>
-      </c>
-      <c r="O111" t="n">
-        <v>0.0333138925846731</v>
-      </c>
-    </row>
-    <row r="112" ht="15" customHeight="1">
-      <c r="F112" t="n">
-        <v>0.03843045647016405</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.03244849352130381</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.176791717587364</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03559737544975888</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0.4766162166205222</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0.03566320569602326</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0.7722439824850109</v>
-      </c>
-      <c r="O112" t="n">
-        <v>0.03403810764086164</v>
-      </c>
-    </row>
-    <row r="113" ht="15" customHeight="1">
-      <c r="F113" t="n">
-        <v>0.03924258836394839</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.03313888700048049</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.176414864285117</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03635476641677502</v>
-      </c>
-      <c r="L113" t="n">
-        <v>0.4743915983725031</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0.03642199730657695</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.7658878577966897</v>
-      </c>
-      <c r="O113" t="n">
-        <v>0.03476232269705019</v>
-      </c>
-    </row>
-    <row r="114" ht="15" customHeight="1">
-      <c r="F114" t="n">
-        <v>0.03905119794624468</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.03382928047965717</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.175988806629717</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03711215738379117</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0.4766452501956929</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0.03718078891713063</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.7619984533275994</v>
-      </c>
-      <c r="O114" t="n">
-        <v>0.03548653775323873</v>
-      </c>
-    </row>
-    <row r="115" ht="15" customHeight="1">
-      <c r="F115" t="n">
-        <v>0.03785847400889651</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.03451967395883385</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.174240684274636</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03786954835080731</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0.4734079041187437</v>
-      </c>
-      <c r="M115" t="n">
-        <v>0.03793958052768433</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0.7640782364929048</v>
-      </c>
-      <c r="O115" t="n">
-        <v>0.03621075280942728</v>
-      </c>
-    </row>
-    <row r="116" ht="15" customHeight="1">
-      <c r="F116" t="n">
-        <v>0.03466660534374753</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.03521006743801052</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.1757976368733464</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03862693931782345</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0.4719102921703069</v>
-      </c>
-      <c r="M116" t="n">
-        <v>0.03869837213823801</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0.7573296747077711</v>
-      </c>
-      <c r="O116" t="n">
-        <v>0.03693496786561583</v>
-      </c>
-    </row>
-    <row r="117" ht="15" customHeight="1">
-      <c r="F117" t="n">
-        <v>0.03547778074264134</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.0359004609171872</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.1755731773019416</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.03938433028483961</v>
-      </c>
-      <c r="L117" t="n">
-        <v>0.468683146379034</v>
-      </c>
-      <c r="M117" t="n">
-        <v>0.03945716374879169</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.7578552353873633</v>
-      </c>
-      <c r="O117" t="n">
-        <v>0.03765918292180437</v>
-      </c>
-    </row>
-    <row r="118" ht="15" customHeight="1">
-      <c r="F118" t="n">
-        <v>0.03829418899742157</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.03659085439636387</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.1755821095390117</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04014172125185575</v>
-      </c>
-      <c r="L118" t="n">
-        <v>0.4687571987735769</v>
-      </c>
-      <c r="M118" t="n">
-        <v>0.04021595535934538</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.7510573859468463</v>
-      </c>
-      <c r="O118" t="n">
-        <v>0.03838339797799292</v>
-      </c>
-    </row>
-    <row r="119" ht="15" customHeight="1">
-      <c r="F119" t="n">
-        <v>0.03611801889993181</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.03728124787554055</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.1742980154186395</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.0408991122188719</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0.4643631813825874</v>
-      </c>
-      <c r="M119" t="n">
-        <v>0.04097474696989906</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.7505385938013851</v>
-      </c>
-      <c r="O119" t="n">
-        <v>0.03910761303418146</v>
-      </c>
-    </row>
-    <row r="120" ht="15" customHeight="1">
-      <c r="F120" t="n">
-        <v>0.0359514592420157</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.03797164135471723</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.1764128294271026</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04165650318588804</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0.4643318262347169</v>
-      </c>
-      <c r="M120" t="n">
-        <v>0.04173353858045276</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.7518552026136196</v>
-      </c>
-      <c r="O120" t="n">
-        <v>0.03983182809037001</v>
-      </c>
-    </row>
-    <row r="121" ht="15" customHeight="1">
-      <c r="F121" t="n">
-        <v>0.03779669881551687</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.03866203483389391</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.1754184860506785</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04241389415290418</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0.462393865358617</v>
-      </c>
-      <c r="M121" t="n">
-        <v>0.04249233019100644</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.7575301838854334</v>
-      </c>
-      <c r="O121" t="n">
-        <v>0.04055604314655856</v>
-      </c>
-    </row>
-    <row r="122" ht="15" customHeight="1">
-      <c r="F122" t="n">
-        <v>0.0376559264122789</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.03935242831307059</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.1756069197756447</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04317128511992033</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0.4650800307829397</v>
-      </c>
-      <c r="M122" t="n">
-        <v>0.04325112180156013</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0.7567311470896894</v>
-      </c>
-      <c r="O122" t="n">
-        <v>0.0412802582027471</v>
-      </c>
-    </row>
-    <row r="123" ht="15" customHeight="1">
-      <c r="F123" t="n">
-        <v>0.03353133082414543</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.04004282179224726</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.1760700650882788</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04392867608693648</v>
-      </c>
-      <c r="L123" t="n">
-        <v>0.463725973219805</v>
-      </c>
-      <c r="M123" t="n">
-        <v>0.04400991341211382</v>
-      </c>
-      <c r="N123" t="n">
-        <v>0.7586262228885852</v>
-      </c>
-      <c r="O123" t="n">
-        <v>0.04200447325893564</v>
-      </c>
-    </row>
-    <row r="124" ht="15" customHeight="1">
-      <c r="F124" t="n">
-        <v>0.03342510084296008</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.04073321527142394</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.1783998564748582</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04468606705395263</v>
-      </c>
-      <c r="L124" t="n">
-        <v>0.4651040712216011</v>
-      </c>
-      <c r="M124" t="n">
-        <v>0.0447687050226675</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0.7625835419443185</v>
-      </c>
-      <c r="O124" t="n">
-        <v>0.04272868831512419</v>
-      </c>
-    </row>
-    <row r="125" ht="15" customHeight="1">
-      <c r="F125" t="n">
-        <v>0.03333942526056645</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.04142360875060061</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.1774882284216605</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04544345802096877</v>
-      </c>
-      <c r="L125" t="n">
-        <v>0.4651000116229936</v>
-      </c>
-      <c r="M125" t="n">
-        <v>0.04552749663322118</v>
-      </c>
-      <c r="N125" t="n">
-        <v>0.7628712349190867</v>
-      </c>
-      <c r="O125" t="n">
-        <v>0.04345290337131274</v>
-      </c>
-    </row>
-    <row r="126" ht="15" customHeight="1">
-      <c r="F126" t="n">
-        <v>0.03327649286880817</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.04211400222977729</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.1800271154149631</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04620084898798492</v>
-      </c>
-      <c r="L126" t="n">
-        <v>0.4645756417388978</v>
-      </c>
-      <c r="M126" t="n">
-        <v>0.04628628824377488</v>
-      </c>
-      <c r="N126" t="n">
-        <v>0.7653574324750871</v>
-      </c>
-      <c r="O126" t="n">
-        <v>0.04417711842750129</v>
-      </c>
-    </row>
-    <row r="127" ht="15" customHeight="1">
-      <c r="F127" t="n">
-        <v>0.03723849245952884</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.04280439570895397</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.1800084519410437</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04695823995500106</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0.4696928088842289</v>
-      </c>
-      <c r="M127" t="n">
-        <v>0.04704507985432856</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0.7645102652745175</v>
-      </c>
-      <c r="O127" t="n">
-        <v>0.04490133348368983</v>
-      </c>
-    </row>
-    <row r="128" ht="15" customHeight="1">
-      <c r="F128" t="n">
-        <v>0.03522762463000786</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.04349478918813064</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.1800241724861797</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04771563092201721</v>
-      </c>
-      <c r="L128" t="n">
-        <v>0.4708133603739026</v>
-      </c>
-      <c r="M128" t="n">
-        <v>0.04780387146488224</v>
-      </c>
-      <c r="N128" t="n">
-        <v>0.7651978639795751</v>
-      </c>
-      <c r="O128" t="n">
-        <v>0.04562554853987837</v>
-      </c>
-    </row>
-    <row r="129" ht="15" customHeight="1">
-      <c r="F129" t="n">
-        <v>0.03724622764188192</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.04418518266730732</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.1812662115366486</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04847302188903336</v>
-      </c>
-      <c r="L129" t="n">
-        <v>0.4713991435228339</v>
-      </c>
-      <c r="M129" t="n">
-        <v>0.04856266307543593</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0.7748883592524574</v>
-      </c>
-      <c r="O129" t="n">
-        <v>0.04634976359606692</v>
-      </c>
-    </row>
-    <row r="130" ht="15" customHeight="1">
-      <c r="F130" t="n">
-        <v>0.03729342602369366</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.044875576146484</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.1827265035787281</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.0492304128560495</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0.4726120056459384</v>
-      </c>
-      <c r="M130" t="n">
-        <v>0.04932145468598962</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0.7722498817553616</v>
-      </c>
-      <c r="O130" t="n">
-        <v>0.04707397865225547</v>
-      </c>
-    </row>
-    <row r="131" ht="15" customHeight="1">
-      <c r="F131" t="n">
-        <v>0.03636711160014822</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.04556596962566067</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.1827969830986955</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.04998780382306565</v>
-      </c>
-      <c r="L131" t="n">
-        <v>0.4772137940581314</v>
-      </c>
-      <c r="M131" t="n">
-        <v>0.05008024629654331</v>
-      </c>
-      <c r="N131" t="n">
-        <v>0.7813505621504859</v>
-      </c>
-      <c r="O131" t="n">
-        <v>0.04779819370844401</v>
-      </c>
-    </row>
-    <row r="132" ht="15" customHeight="1">
-      <c r="F132" t="n">
-        <v>0.03546517619595062</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.04625636310483736</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.1841695845828284</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05074519479008179</v>
-      </c>
-      <c r="L132" t="n">
-        <v>0.477266356074328</v>
-      </c>
-      <c r="M132" t="n">
-        <v>0.05083903790709699</v>
-      </c>
-      <c r="N132" t="n">
-        <v>0.7792585311000273</v>
-      </c>
-      <c r="O132" t="n">
-        <v>0.04852240876463255</v>
-      </c>
-    </row>
-    <row r="133" ht="15" customHeight="1">
-      <c r="F133" t="n">
-        <v>0.03558551163580596</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.04694675658401403</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.1842362425174044</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05150258575709794</v>
-      </c>
-      <c r="L133" t="n">
-        <v>0.4801315390094441</v>
-      </c>
-      <c r="M133" t="n">
-        <v>0.05159782951765068</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0.7872419192661833</v>
-      </c>
-      <c r="O133" t="n">
-        <v>0.0492466238208211</v>
-      </c>
-    </row>
-    <row r="134" ht="15" customHeight="1">
-      <c r="F134" t="n">
-        <v>0.03772600974441931</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.04763715006319071</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.1851888913887009</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05225997672411409</v>
-      </c>
-      <c r="L134" t="n">
-        <v>0.4859711901783945</v>
-      </c>
-      <c r="M134" t="n">
-        <v>0.05235662112820436</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.7913688573111519</v>
-      </c>
-      <c r="O134" t="n">
-        <v>0.04997083887700965</v>
-      </c>
-    </row>
-    <row r="135" ht="15" customHeight="1">
-      <c r="F135" t="n">
-        <v>0.03788456234649575</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.04832754354236738</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.1865194656829955</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05301736769113023</v>
-      </c>
-      <c r="L135" t="n">
-        <v>0.4862471568960949</v>
-      </c>
-      <c r="M135" t="n">
-        <v>0.05311541273875805</v>
-      </c>
-      <c r="N135" t="n">
-        <v>0.7906074758971295</v>
-      </c>
-      <c r="O135" t="n">
-        <v>0.0506950539331982</v>
-      </c>
-    </row>
-    <row r="136" ht="15" customHeight="1">
-      <c r="F136" t="n">
-        <v>0.03505906126674034</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.04901793702154406</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.1867198998865657</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05377475865814638</v>
-      </c>
-      <c r="L136" t="n">
-        <v>0.4896212864774604</v>
-      </c>
-      <c r="M136" t="n">
-        <v>0.05387420434931174</v>
-      </c>
-      <c r="N136" t="n">
-        <v>0.8000259056863144</v>
-      </c>
-      <c r="O136" t="n">
-        <v>0.05141926898938674</v>
-      </c>
-    </row>
-    <row r="137" ht="15" customHeight="1">
-      <c r="F137" t="n">
-        <v>0.03824739832985817</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.04970833050072074</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.1876821284856889</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05453214962516253</v>
-      </c>
-      <c r="L137" t="n">
-        <v>0.4910554262374065</v>
-      </c>
-      <c r="M137" t="n">
-        <v>0.05463299595986543</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0.8000922773409038</v>
-      </c>
-      <c r="O137" t="n">
-        <v>0.05214348404557528</v>
-      </c>
-    </row>
-    <row r="138" ht="15" customHeight="1">
-      <c r="F138" t="n">
-        <v>0.03744746536055431</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.05039872397989741</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.1889980859666429</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05528954059217867</v>
-      </c>
-      <c r="L138" t="n">
-        <v>0.4971114234908487</v>
-      </c>
-      <c r="M138" t="n">
-        <v>0.05539178757041911</v>
-      </c>
-      <c r="N138" t="n">
-        <v>0.8057747215230955</v>
-      </c>
-      <c r="O138" t="n">
-        <v>0.05286769910176383</v>
-      </c>
-    </row>
-    <row r="139" ht="15" customHeight="1">
-      <c r="F139" t="n">
-        <v>0.03765715418353384</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.05108911745907409</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.188959706815705</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05604693155919482</v>
-      </c>
-      <c r="L139" t="n">
-        <v>0.4986511255527022</v>
-      </c>
-      <c r="M139" t="n">
-        <v>0.0561505791809728</v>
-      </c>
-      <c r="N139" t="n">
-        <v>0.8088413688950866</v>
-      </c>
-      <c r="O139" t="n">
-        <v>0.05359191415795237</v>
-      </c>
-    </row>
-    <row r="140" ht="15" customHeight="1">
-      <c r="F140" t="n">
-        <v>0.03687435662350182</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.05177951093825077</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.1904589255191527</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05680432252621096</v>
-      </c>
-      <c r="L140" t="n">
-        <v>0.5037363797378822</v>
-      </c>
-      <c r="M140" t="n">
-        <v>0.05690937079152648</v>
-      </c>
-      <c r="N140" t="n">
-        <v>0.8075603501190749</v>
-      </c>
-      <c r="O140" t="n">
-        <v>0.05431612921414092</v>
-      </c>
-    </row>
-    <row r="141" ht="15" customHeight="1">
-      <c r="F141" t="n">
-        <v>0.03809696450516334</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.05246990441742744</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.1897876765632636</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05756171349322712</v>
-      </c>
-      <c r="L141" t="n">
-        <v>0.5014290333613044</v>
-      </c>
-      <c r="M141" t="n">
-        <v>0.05766816240208016</v>
-      </c>
-      <c r="N141" t="n">
-        <v>0.8123997958572575</v>
-      </c>
-      <c r="O141" t="n">
-        <v>0.05504034427032947</v>
-      </c>
-    </row>
-    <row r="142" ht="15" customHeight="1">
-      <c r="F142" t="n">
-        <v>0.03932286965322346</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.05316029789660413</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.1914378944343152</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05831910446024326</v>
-      </c>
-      <c r="L142" t="n">
-        <v>0.503890933737884</v>
-      </c>
-      <c r="M142" t="n">
-        <v>0.05842695401263386</v>
-      </c>
-      <c r="N142" t="n">
-        <v>0.8155278367718322</v>
-      </c>
-      <c r="O142" t="n">
-        <v>0.05576455932651801</v>
-      </c>
-    </row>
-    <row r="143" ht="15" customHeight="1">
-      <c r="F143" t="n">
-        <v>0.03854996389238725</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.0538506913757808</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.1923015136185851</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.0590764954272594</v>
-      </c>
-      <c r="L143" t="n">
-        <v>0.5058839281825361</v>
-      </c>
-      <c r="M143" t="n">
-        <v>0.05918574562318754</v>
-      </c>
-      <c r="N143" t="n">
-        <v>0.8239126035249962</v>
-      </c>
-      <c r="O143" t="n">
-        <v>0.05648877438270655</v>
-      </c>
-    </row>
-    <row r="144" ht="15" customHeight="1">
-      <c r="F144" t="n">
-        <v>0.03977613904735981</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.05454108485495748</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.1908704686023506</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.05983388639427555</v>
-      </c>
-      <c r="L144" t="n">
-        <v>0.5110698640101765</v>
-      </c>
-      <c r="M144" t="n">
-        <v>0.05994453723374123</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0.8188222267789469</v>
-      </c>
-      <c r="O144" t="n">
-        <v>0.0572129894388951</v>
-      </c>
-    </row>
-    <row r="145" ht="15" customHeight="1">
-      <c r="F145" t="n">
-        <v>0.03899928694284621</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.05523147833413416</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.1929921536050097</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.0605912773612917</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0.5121105885357202</v>
-      </c>
-      <c r="M145" t="n">
-        <v>0.06070332884429491</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0.8251248371958824</v>
-      </c>
-      <c r="O145" t="n">
-        <v>0.05793720449508365</v>
-      </c>
-    </row>
-    <row r="146" ht="15" customHeight="1">
-      <c r="F146" t="n">
-        <v>0.0402172994035515</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.05592187181331083</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0.1923921535254547</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06134866832830785</v>
-      </c>
-      <c r="L146" t="n">
-        <v>0.5133667378844917</v>
-      </c>
-      <c r="M146" t="n">
-        <v>0.0614621204548486</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0.8231885654379996</v>
-      </c>
-      <c r="O146" t="n">
-        <v>0.05866141955127219</v>
-      </c>
-    </row>
-    <row r="147" ht="15" customHeight="1">
-      <c r="F147" t="n">
-        <v>0.03742806825418078</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.05661226529248751</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0.1921919874233346</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06210605929532399</v>
-      </c>
-      <c r="L147" t="n">
-        <v>0.5097908298593832</v>
-      </c>
-      <c r="M147" t="n">
-        <v>0.06222091206540229</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0.8260815421674965</v>
-      </c>
-      <c r="O147" t="n">
-        <v>0.05938563460746074</v>
-      </c>
-    </row>
-    <row r="148" ht="15" customHeight="1">
-      <c r="F148" t="n">
-        <v>0.0366294853194391</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.05730265877166418</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0.192691503684776</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06286345026234014</v>
-      </c>
-      <c r="L148" t="n">
-        <v>0.5105956165376024</v>
-      </c>
-      <c r="M148" t="n">
-        <v>0.06297970367595597</v>
-      </c>
-      <c r="N148" t="n">
-        <v>0.8327718980465697</v>
-      </c>
-      <c r="O148" t="n">
-        <v>0.06010984966364929</v>
-      </c>
-    </row>
-    <row r="149" ht="15" customHeight="1">
-      <c r="F149" t="n">
-        <v>0.03881944242403157</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.05799305225084086</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0.1929907028170682</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06362084122935628</v>
-      </c>
-      <c r="L149" t="n">
-        <v>0.5151879140419384</v>
-      </c>
-      <c r="M149" t="n">
-        <v>0.06373849528650967</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0.8337413221639736</v>
-      </c>
-      <c r="O149" t="n">
-        <v>0.06083406471983782</v>
-      </c>
-    </row>
-    <row r="150" ht="15" customHeight="1">
-      <c r="F150" t="n">
-        <v>0.03699583139266324</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.05868344573001753</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0.1917895853275003</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06437823219637244</v>
-      </c>
-      <c r="L150" t="n">
-        <v>0.5123673409388637</v>
-      </c>
-      <c r="M150" t="n">
-        <v>0.06449728689706336</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0.8276399151079175</v>
-      </c>
-      <c r="O150" t="n">
-        <v>0.06155827977602637</v>
-      </c>
-    </row>
-    <row r="151" ht="15" customHeight="1">
-      <c r="F151" t="n">
-        <v>0.04015654405003918</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.05937383920919421</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0.1916881517233616</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06513562316338857</v>
-      </c>
-      <c r="L151" t="n">
-        <v>0.5136335157948501</v>
-      </c>
-      <c r="M151" t="n">
-        <v>0.06525607850761703</v>
-      </c>
-      <c r="N151" t="n">
-        <v>0.8307168836315617</v>
-      </c>
-      <c r="O151" t="n">
-        <v>0.06228249483221492</v>
-      </c>
-    </row>
-    <row r="152" ht="15" customHeight="1">
-      <c r="F152" t="n">
-        <v>0.03729947222086448</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.06006423268837089</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0.1920864025119412</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06589301413040471</v>
-      </c>
-      <c r="L152" t="n">
-        <v>0.5134860571763702</v>
-      </c>
-      <c r="M152" t="n">
-        <v>0.06601487011817073</v>
-      </c>
-      <c r="N152" t="n">
-        <v>0.8274665387365729</v>
-      </c>
-      <c r="O152" t="n">
-        <v>0.06300670988840347</v>
-      </c>
-    </row>
-    <row r="153" ht="15" customHeight="1">
-      <c r="F153" t="n">
-        <v>0.0404225077298442</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.06075462616754757</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0.1926843382005284</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06665040509742086</v>
-      </c>
-      <c r="L153" t="n">
-        <v>0.5143245836498958</v>
-      </c>
-      <c r="M153" t="n">
-        <v>0.06677366172872441</v>
-      </c>
-      <c r="N153" t="n">
-        <v>0.8331900753612376</v>
-      </c>
-      <c r="O153" t="n">
-        <v>0.06373092494459201</v>
-      </c>
-    </row>
-    <row r="154" ht="15" customHeight="1">
-      <c r="F154" t="n">
-        <v>0.04150856066482891</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.06144501964672424</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0.1928819592964123</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.067407796064437</v>
-      </c>
-      <c r="L154" t="n">
-        <v>0.5168487137818996</v>
-      </c>
-      <c r="M154" t="n">
-        <v>0.06753245333927808</v>
-      </c>
-      <c r="N154" t="n">
-        <v>0.8308886884438409</v>
-      </c>
-      <c r="O154" t="n">
-        <v>0.06445514000078056</v>
-      </c>
-    </row>
-    <row r="155" ht="15" customHeight="1">
-      <c r="F155" t="n">
-        <v>0.04061711077857744</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.06213541312590092</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0.1916792663068821</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06816518703145316</v>
-      </c>
-      <c r="L155" t="n">
-        <v>0.5174580661388533</v>
-      </c>
-      <c r="M155" t="n">
-        <v>0.06829124494983178</v>
-      </c>
-      <c r="N155" t="n">
-        <v>0.8322635729226688</v>
-      </c>
-      <c r="O155" t="n">
-        <v>0.0651793550569691</v>
-      </c>
-    </row>
-    <row r="156" ht="15" customHeight="1">
-      <c r="F156" t="n">
-        <v>0.03871024045218267</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.0628258066050776</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0.1929762597392272</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.06892257799846931</v>
-      </c>
-      <c r="L156" t="n">
-        <v>0.5188522592872296</v>
-      </c>
-      <c r="M156" t="n">
-        <v>0.06905003656038547</v>
-      </c>
-      <c r="N156" t="n">
-        <v>0.8317159237360074</v>
-      </c>
-      <c r="O156" t="n">
-        <v>0.06590357011315766</v>
-      </c>
-    </row>
-    <row r="157" ht="15" customHeight="1">
-      <c r="F157" t="n">
-        <v>0.04180312613837898</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0.06351620008425428</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0.1929729401007365</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.06967996896548545</v>
-      </c>
-      <c r="L157" t="n">
-        <v>0.5183309117935004</v>
-      </c>
-      <c r="M157" t="n">
-        <v>0.06980882817093914</v>
-      </c>
-      <c r="N157" t="n">
-        <v>0.8305469358221429</v>
-      </c>
-      <c r="O157" t="n">
-        <v>0.0666277851693462</v>
-      </c>
-    </row>
-    <row r="158" ht="15" customHeight="1">
-      <c r="F158" t="n">
-        <v>0.04189564074672136</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.06420659356343095</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0.1912693078986994</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07043735993250159</v>
-      </c>
-      <c r="L158" t="n">
-        <v>0.5196936422241382</v>
-      </c>
-      <c r="M158" t="n">
-        <v>0.07056761978149284</v>
-      </c>
-      <c r="N158" t="n">
-        <v>0.8264578041193604</v>
-      </c>
-      <c r="O158" t="n">
-        <v>0.06735200022553474</v>
-      </c>
-    </row>
-    <row r="159" ht="15" customHeight="1">
-      <c r="F159" t="n">
-        <v>0.04098765718676485</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.06489698704260763</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0.1915653636404051</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07119475089951775</v>
-      </c>
-      <c r="L159" t="n">
-        <v>0.5194400691456147</v>
-      </c>
-      <c r="M159" t="n">
-        <v>0.07132641139204653</v>
-      </c>
-      <c r="N159" t="n">
-        <v>0.8301497235659463</v>
-      </c>
-      <c r="O159" t="n">
-        <v>0.06807621528172328</v>
-      </c>
-    </row>
-    <row r="160" ht="15" customHeight="1">
-      <c r="F160" t="n">
-        <v>0.03807904836806447</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.06558738052178431</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0.1915611078331427</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.0719521418665339</v>
-      </c>
-      <c r="L160" t="n">
-        <v>0.5195698111244027</v>
-      </c>
-      <c r="M160" t="n">
-        <v>0.07208520300260021</v>
-      </c>
-      <c r="N160" t="n">
-        <v>0.8303238891001858</v>
-      </c>
-      <c r="O160" t="n">
-        <v>0.06880043033791183</v>
-      </c>
-    </row>
-    <row r="161" ht="15" customHeight="1">
-      <c r="F161" t="n">
-        <v>0.03816968720017525</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.06627777400096098</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0.1925565409842014</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07270953283355004</v>
-      </c>
-      <c r="L161" t="n">
-        <v>0.516982486726974</v>
-      </c>
-      <c r="M161" t="n">
-        <v>0.0728439946131539</v>
-      </c>
-      <c r="N161" t="n">
-        <v>0.8301814956603653</v>
-      </c>
-      <c r="O161" t="n">
-        <v>0.06952464539410037</v>
-      </c>
-    </row>
-    <row r="162" ht="15" customHeight="1">
-      <c r="F162" t="n">
-        <v>0.03825944659265218</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.06696816748013766</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0.1921516636008705</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07346692380056619</v>
-      </c>
-      <c r="L162" t="n">
-        <v>0.5201777145198011</v>
-      </c>
-      <c r="M162" t="n">
-        <v>0.07360278622370758</v>
-      </c>
-      <c r="N162" t="n">
-        <v>0.8239237381847708</v>
-      </c>
-      <c r="O162" t="n">
-        <v>0.07024886045028893</v>
-      </c>
-    </row>
-    <row r="163" ht="15" customHeight="1">
-      <c r="F163" t="n">
-        <v>0.04234819945505031</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.06765856095931434</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0.1914464761904392</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07422431476758233</v>
-      </c>
-      <c r="L163" t="n">
-        <v>0.5217551130693561</v>
-      </c>
-      <c r="M163" t="n">
-        <v>0.07436157783426127</v>
-      </c>
-      <c r="N163" t="n">
-        <v>0.8268518116116876</v>
-      </c>
-      <c r="O163" t="n">
-        <v>0.07097307550647747</v>
-      </c>
-    </row>
-    <row r="164" ht="15" customHeight="1">
-      <c r="F164" t="n">
-        <v>0.04243581869692466</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.06834895443849102</v>
-      </c>
-      <c r="J164" t="n">
-        <v>0.1927409792601966</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07498170573459847</v>
-      </c>
-      <c r="L164" t="n">
-        <v>0.518514300942111</v>
-      </c>
-      <c r="M164" t="n">
-        <v>0.07512036944481496</v>
-      </c>
-      <c r="N164" t="n">
-        <v>0.824466910879402</v>
-      </c>
-      <c r="O164" t="n">
-        <v>0.07169729056266601</v>
-      </c>
-    </row>
-    <row r="165" ht="15" customHeight="1">
-      <c r="F165" t="n">
-        <v>0.04052217722783026</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.06903934791766769</v>
-      </c>
-      <c r="J165" t="n">
-        <v>0.191135173317432</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07573909670161462</v>
-      </c>
-      <c r="L165" t="n">
-        <v>0.5198548967045383</v>
-      </c>
-      <c r="M165" t="n">
-        <v>0.07587916105536865</v>
-      </c>
-      <c r="N165" t="n">
-        <v>0.8258702309261994</v>
-      </c>
-      <c r="O165" t="n">
-        <v>0.07242150561885456</v>
-      </c>
-    </row>
-    <row r="166" ht="15" customHeight="1">
-      <c r="F166" t="n">
-        <v>0.03860714795732212</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.06972974139684436</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0.1915290588694344</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07649648766863076</v>
-      </c>
-      <c r="L166" t="n">
-        <v>0.5221765189231103</v>
-      </c>
-      <c r="M166" t="n">
-        <v>0.07663795266592233</v>
-      </c>
-      <c r="N166" t="n">
-        <v>0.8277629666903663</v>
-      </c>
-      <c r="O166" t="n">
-        <v>0.0731457206750431</v>
-      </c>
-    </row>
-    <row r="167" ht="15" customHeight="1">
-      <c r="F167" t="n">
-        <v>0.03869060379495529</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.07042013487602104</v>
-      </c>
-      <c r="J167" t="n">
-        <v>0.1914226364234933</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07725387863564691</v>
-      </c>
-      <c r="L167" t="n">
-        <v>0.518478786164299</v>
-      </c>
-      <c r="M167" t="n">
-        <v>0.07739674427647601</v>
-      </c>
-      <c r="N167" t="n">
-        <v>0.8243463131101878</v>
-      </c>
-      <c r="O167" t="n">
-        <v>0.07386993573123166</v>
-      </c>
-    </row>
-    <row r="168" ht="15" customHeight="1">
-      <c r="F168" t="n">
-        <v>0.03877241765028476</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.07111052835519771</v>
-      </c>
-      <c r="J168" t="n">
-        <v>0.1921159064868977</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07801126960266307</v>
-      </c>
-      <c r="L168" t="n">
-        <v>0.5207613169945766</v>
-      </c>
-      <c r="M168" t="n">
-        <v>0.07815553588702971</v>
-      </c>
-      <c r="N168" t="n">
-        <v>0.8299214651239504</v>
-      </c>
-      <c r="O168" t="n">
-        <v>0.0745941507874202</v>
-      </c>
-    </row>
-    <row r="169" ht="15" customHeight="1">
-      <c r="F169" t="n">
-        <v>0.04085246243286556</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.07180092183437439</v>
-      </c>
-      <c r="J169" t="n">
-        <v>0.1927088695669369</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.07876866056967921</v>
-      </c>
-      <c r="L169" t="n">
-        <v>0.5191237299804153</v>
-      </c>
-      <c r="M169" t="n">
-        <v>0.07891432749758338</v>
-      </c>
-      <c r="N169" t="n">
-        <v>0.8273896176699396</v>
-      </c>
-      <c r="O169" t="n">
-        <v>0.07531836584360874</v>
-      </c>
-    </row>
-    <row r="170" ht="15" customHeight="1">
-      <c r="F170" t="n">
-        <v>0.04093061105225274</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.07249131531355107</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0.1915015261709</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.07952605153669536</v>
-      </c>
-      <c r="L170" t="n">
-        <v>0.5236656436882876</v>
-      </c>
-      <c r="M170" t="n">
-        <v>0.07967311910813707</v>
-      </c>
-      <c r="N170" t="n">
-        <v>0.8249519656864412</v>
-      </c>
-      <c r="O170" t="n">
-        <v>0.07604258089979728</v>
-      </c>
-    </row>
-    <row r="171" ht="15" customHeight="1">
-      <c r="F171" t="n">
-        <v>0.03900673641800129</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.07318170879272774</v>
-      </c>
-      <c r="J171" t="n">
-        <v>0.1928938768060763</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.0802834425037115</v>
-      </c>
-      <c r="L171" t="n">
-        <v>0.5233866766846653</v>
-      </c>
-      <c r="M171" t="n">
-        <v>0.08043191071869077</v>
-      </c>
-      <c r="N171" t="n">
-        <v>0.8253097041117412</v>
-      </c>
-      <c r="O171" t="n">
-        <v>0.07676679595598583</v>
-      </c>
-    </row>
-    <row r="172" ht="15" customHeight="1">
-      <c r="F172" t="n">
-        <v>0.03908071143966625</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0.07387210227190442</v>
-      </c>
-      <c r="J172" t="n">
-        <v>0.1910859219797549</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08104083347072764</v>
-      </c>
-      <c r="L172" t="n">
-        <v>0.5201864475360209</v>
-      </c>
-      <c r="M172" t="n">
-        <v>0.08119070232924445</v>
-      </c>
-      <c r="N172" t="n">
-        <v>0.8275640278841254</v>
-      </c>
-      <c r="O172" t="n">
-        <v>0.07749101101217437</v>
-      </c>
-    </row>
-    <row r="173" ht="15" customHeight="1">
-      <c r="F173" t="n">
-        <v>0.04215240902680265</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.07456249575108111</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0.1923776621992251</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.0817982244377438</v>
-      </c>
-      <c r="L173" t="n">
-        <v>0.5200645748088266</v>
-      </c>
-      <c r="M173" t="n">
-        <v>0.08194949393979813</v>
-      </c>
-      <c r="N173" t="n">
-        <v>0.8206078977855178</v>
-      </c>
-      <c r="O173" t="n">
-        <v>0.07821522606836293</v>
-      </c>
-    </row>
-    <row r="174" ht="15" customHeight="1">
-      <c r="F174" t="n">
-        <v>0.0392217020889655</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.07525288923025779</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0.191369097971776</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08255561540475993</v>
-      </c>
-      <c r="L174" t="n">
-        <v>0.5209206770695546</v>
-      </c>
-      <c r="M174" t="n">
-        <v>0.08270828555035183</v>
-      </c>
-      <c r="N174" t="n">
-        <v>0.8252152527231407</v>
-      </c>
-      <c r="O174" t="n">
-        <v>0.07893944112455147</v>
-      </c>
-    </row>
-    <row r="175" ht="15" customHeight="1">
-      <c r="F175" t="n">
-        <v>0.04028846353570981</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.07594328270943446</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0.1925602298046969</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08331300637177608</v>
-      </c>
-      <c r="L175" t="n">
-        <v>0.5205543728846771</v>
-      </c>
-      <c r="M175" t="n">
-        <v>0.08346707716090551</v>
-      </c>
-      <c r="N175" t="n">
-        <v>0.8263844411703081</v>
-      </c>
-      <c r="O175" t="n">
-        <v>0.07966365618074002</v>
-      </c>
-    </row>
-    <row r="176" ht="15" customHeight="1">
-      <c r="F176" t="n">
-        <v>0.03935256627659064</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.07663367618861114</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0.192451058205277</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08407039733879222</v>
-      </c>
-      <c r="L176" t="n">
-        <v>0.5239652808206661</v>
-      </c>
-      <c r="M176" t="n">
-        <v>0.0842258687714592</v>
-      </c>
-      <c r="N176" t="n">
-        <v>0.8264158831102668</v>
-      </c>
-      <c r="O176" t="n">
-        <v>0.08038787123692856</v>
-      </c>
-    </row>
-    <row r="177" ht="15" customHeight="1">
-      <c r="F177" t="n">
-        <v>0.04041388322116299</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.07732406966778782</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0.1912365702097392</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08482778830580837</v>
-      </c>
-      <c r="L177" t="n">
-        <v>0.5212530194439942</v>
-      </c>
-      <c r="M177" t="n">
-        <v>0.08498466038201288</v>
-      </c>
-      <c r="N177" t="n">
-        <v>0.818509998526264</v>
-      </c>
-      <c r="O177" t="n">
-        <v>0.08111208629311711</v>
-      </c>
-    </row>
-    <row r="178" ht="15" customHeight="1">
-      <c r="F178" t="n">
-        <v>0.04147228727898189</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.07801446314696449</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0.1923873767555306</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08558517927282452</v>
-      </c>
-      <c r="L178" t="n">
-        <v>0.5243172073211331</v>
-      </c>
-      <c r="M178" t="n">
-        <v>0.08574345199256657</v>
-      </c>
-      <c r="N178" t="n">
-        <v>0.8256672074015474</v>
-      </c>
-      <c r="O178" t="n">
-        <v>0.08183630134930565</v>
-      </c>
-    </row>
-    <row r="179" ht="15" customHeight="1">
-      <c r="F179" t="n">
-        <v>0.04352765135960238</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.07870485662614117</v>
-      </c>
-      <c r="J179" t="n">
-        <v>0.1919002446243018</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08634257023984067</v>
-      </c>
-      <c r="L179" t="n">
-        <v>0.5240574630185556</v>
-      </c>
-      <c r="M179" t="n">
-        <v>0.08650224360312025</v>
-      </c>
-      <c r="N179" t="n">
-        <v>0.8245879297193641</v>
-      </c>
-      <c r="O179" t="n">
-        <v>0.08256051640549419</v>
-      </c>
-    </row>
-    <row r="180" ht="15" customHeight="1">
-      <c r="F180" t="n">
-        <v>0.04157984837257943</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.07939525010531785</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0.1925770335153882</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08709996120685681</v>
-      </c>
-      <c r="L180" t="n">
-        <v>0.5232734051027336</v>
-      </c>
-      <c r="M180" t="n">
-        <v>0.08726103521367394</v>
-      </c>
-      <c r="N180" t="n">
-        <v>0.8206725854629611</v>
-      </c>
-      <c r="O180" t="n">
-        <v>0.08328473146168273</v>
-      </c>
-    </row>
-    <row r="181" ht="15" customHeight="1">
-      <c r="F181" t="n">
-        <v>0.04162875122746812</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.08008564358449452</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0.1905196031281254</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08785735217387296</v>
-      </c>
-      <c r="L181" t="n">
-        <v>0.5247799729698468</v>
-      </c>
-      <c r="M181" t="n">
-        <v>0.08801982682422764</v>
-      </c>
-      <c r="N181" t="n">
-        <v>0.8199215946155862</v>
-      </c>
-      <c r="O181" t="n">
-        <v>0.08400894651787129</v>
-      </c>
-    </row>
-    <row r="182" ht="15" customHeight="1">
-      <c r="F182" t="n">
-        <v>0.04067423283382345</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.0807760370636712</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0.1917298131618491</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.08861474314088912</v>
-      </c>
-      <c r="L182" t="n">
-        <v>0.5204403901565536</v>
-      </c>
-      <c r="M182" t="n">
-        <v>0.08877861843478131</v>
-      </c>
-      <c r="N182" t="n">
-        <v>0.816135377160486</v>
-      </c>
-      <c r="O182" t="n">
-        <v>0.08473316157405983</v>
-      </c>
-    </row>
-    <row r="183" ht="15" customHeight="1">
-      <c r="F183" t="n">
-        <v>0.04371616610120044</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.08146643054284788</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0.1918095233158947</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.08937213410790526</v>
-      </c>
-      <c r="L183" t="n">
-        <v>0.5209685554761909</v>
-      </c>
-      <c r="M183" t="n">
-        <v>0.089537410045335</v>
-      </c>
-      <c r="N183" t="n">
-        <v>0.8219143530809083</v>
-      </c>
-      <c r="O183" t="n">
-        <v>0.08545737663024838</v>
-      </c>
-    </row>
-    <row r="184" ht="15" customHeight="1">
-      <c r="F184" t="n">
-        <v>0.04275442393915412</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.08215682402202455</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0.1904605932895977</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.0901295250749214</v>
-      </c>
-      <c r="L184" t="n">
-        <v>0.5188809830757183</v>
-      </c>
-      <c r="M184" t="n">
-        <v>0.0902962016558887</v>
-      </c>
-      <c r="N184" t="n">
-        <v>0.8170589423601007</v>
-      </c>
-      <c r="O184" t="n">
-        <v>0.08618159168643692</v>
-      </c>
-    </row>
-    <row r="185" ht="15" customHeight="1">
-      <c r="F185" t="n">
-        <v>0.04278887925723952</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.08284721750120122</v>
-      </c>
-      <c r="J185" t="n">
-        <v>0.1899848827822938</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09088691604193755</v>
-      </c>
-      <c r="L185" t="n">
-        <v>0.5189941871020955</v>
-      </c>
-      <c r="M185" t="n">
-        <v>0.09105499326644237</v>
-      </c>
-      <c r="N185" t="n">
-        <v>0.8151695649813093</v>
-      </c>
-      <c r="O185" t="n">
-        <v>0.08690580674262548</v>
-      </c>
-    </row>
-    <row r="186" ht="15" customHeight="1">
-      <c r="F186" t="n">
-        <v>0.04081940496501163</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.0835376109803779</v>
-      </c>
-      <c r="J186" t="n">
-        <v>0.1892842514933184</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09164430700895369</v>
-      </c>
-      <c r="L186" t="n">
-        <v>0.5200246817022823</v>
-      </c>
-      <c r="M186" t="n">
-        <v>0.09181378487699605</v>
-      </c>
-      <c r="N186" t="n">
-        <v>0.8128466409277821</v>
-      </c>
-      <c r="O186" t="n">
-        <v>0.08763002179881402</v>
-      </c>
-    </row>
-    <row r="187" ht="15" customHeight="1">
-      <c r="F187" t="n">
-        <v>0.04184587397202552</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.08422800445955458</v>
-      </c>
-      <c r="J187" t="n">
-        <v>0.1895605591220072</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09240169797596984</v>
-      </c>
-      <c r="L187" t="n">
-        <v>0.5151889810232382</v>
-      </c>
-      <c r="M187" t="n">
-        <v>0.09257257648754975</v>
-      </c>
-      <c r="N187" t="n">
-        <v>0.812890590182767</v>
-      </c>
-      <c r="O187" t="n">
-        <v>0.08835423685500257</v>
-      </c>
-    </row>
-    <row r="188" ht="15" customHeight="1">
-      <c r="F188" t="n">
-        <v>0.04386815918783619</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.08491839793873125</v>
-      </c>
-      <c r="J188" t="n">
-        <v>0.1895156653676956</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09315908894298598</v>
-      </c>
-      <c r="L188" t="n">
-        <v>0.517603599211923</v>
-      </c>
-      <c r="M188" t="n">
-        <v>0.09333136809810343</v>
-      </c>
-      <c r="N188" t="n">
-        <v>0.8107018327295101</v>
-      </c>
-      <c r="O188" t="n">
-        <v>0.08907845191119111</v>
-      </c>
-    </row>
-    <row r="189" ht="15" customHeight="1">
-      <c r="F189" t="n">
-        <v>0.03988613352199866</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.08560879141790793</v>
-      </c>
-      <c r="J189" t="n">
-        <v>0.1882514299297192</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09391647991000213</v>
-      </c>
-      <c r="L189" t="n">
-        <v>0.5164850504152966</v>
-      </c>
-      <c r="M189" t="n">
-        <v>0.09409015970865711</v>
-      </c>
-      <c r="N189" t="n">
-        <v>0.8167807885512595</v>
-      </c>
-      <c r="O189" t="n">
-        <v>0.08980266696737965</v>
-      </c>
-    </row>
-    <row r="190" ht="15" customHeight="1">
-      <c r="F190" t="n">
-        <v>0.04089966988406796</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.08629918489708462</v>
-      </c>
-      <c r="J190" t="n">
-        <v>0.1880697125074137</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09467387087701827</v>
-      </c>
-      <c r="L190" t="n">
-        <v>0.5118498487803183</v>
-      </c>
-      <c r="M190" t="n">
-        <v>0.09484895131921081</v>
-      </c>
-      <c r="N190" t="n">
-        <v>0.811427877631262</v>
-      </c>
-      <c r="O190" t="n">
-        <v>0.09052688202356819</v>
-      </c>
-    </row>
-    <row r="191" ht="15" customHeight="1">
-      <c r="F191" t="n">
-        <v>0.03990864118359912</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.08698957837626128</v>
-      </c>
-      <c r="J191" t="n">
-        <v>0.1875723728001144</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09543126184403443</v>
-      </c>
-      <c r="L191" t="n">
-        <v>0.509114508453948</v>
-      </c>
-      <c r="M191" t="n">
-        <v>0.09560774292976448</v>
-      </c>
-      <c r="N191" t="n">
-        <v>0.8122435199527651</v>
-      </c>
-      <c r="O191" t="n">
-        <v>0.09125109707975675</v>
-      </c>
-    </row>
-    <row r="192" ht="15" customHeight="1">
-      <c r="F192" t="n">
-        <v>0.04091292033014715</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0.08767997185543797</v>
-      </c>
-      <c r="J192" t="n">
-        <v>0.187261270507157</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09618865281105057</v>
-      </c>
-      <c r="L192" t="n">
-        <v>0.5108955435831453</v>
-      </c>
-      <c r="M192" t="n">
-        <v>0.09636653454031818</v>
-      </c>
-      <c r="N192" t="n">
-        <v>0.8104281354990159</v>
-      </c>
-      <c r="O192" t="n">
-        <v>0.09197531213594529</v>
-      </c>
-    </row>
-    <row r="193" ht="15" customHeight="1">
-      <c r="F193" t="n">
-        <v>0.04390543992844259</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0.08837036533461465</v>
-      </c>
-      <c r="J193" t="n">
-        <v>0.187338265327877</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09694604377806672</v>
-      </c>
-      <c r="L193" t="n">
-        <v>0.5052094683148701</v>
-      </c>
-      <c r="M193" t="n">
-        <v>0.09712532615087187</v>
-      </c>
-      <c r="N193" t="n">
-        <v>0.8125821442532617</v>
-      </c>
-      <c r="O193" t="n">
-        <v>0.09269952719213384</v>
-      </c>
-    </row>
-    <row r="194" ht="15" customHeight="1">
-      <c r="F194" t="n">
-        <v>0.03985997878499642</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.08906075881379132</v>
-      </c>
-      <c r="J194" t="n">
-        <v>0.18780521696161</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.09770343474508286</v>
-      </c>
-      <c r="L194" t="n">
-        <v>0.5024727967960819</v>
-      </c>
-      <c r="M194" t="n">
-        <v>0.09788411776142554</v>
-      </c>
-      <c r="N194" t="n">
-        <v>0.8092059661987501</v>
-      </c>
-      <c r="O194" t="n">
-        <v>0.09342374224832238</v>
-      </c>
-    </row>
-    <row r="195" ht="15" customHeight="1">
-      <c r="F195" t="n">
-        <v>0.03977686753951887</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.089751152292968</v>
-      </c>
-      <c r="J195" t="n">
-        <v>0.1873639851076914</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.09846082571209901</v>
-      </c>
-      <c r="L195" t="n">
-        <v>0.5028020431737403</v>
-      </c>
-      <c r="M195" t="n">
-        <v>0.09864290937197924</v>
-      </c>
-      <c r="N195" t="n">
-        <v>0.8045000213187281</v>
-      </c>
-      <c r="O195" t="n">
-        <v>0.09414795730451093</v>
-      </c>
-    </row>
-    <row r="196" ht="15" customHeight="1">
-      <c r="F196" t="n">
-        <v>0.04265936732366155</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0.09044154577214468</v>
-      </c>
-      <c r="J196" t="n">
-        <v>0.1871164294654569</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.09921821667911516</v>
-      </c>
-      <c r="L196" t="n">
-        <v>0.5010137215948054</v>
-      </c>
-      <c r="M196" t="n">
-        <v>0.09940170098253293</v>
-      </c>
-      <c r="N196" t="n">
-        <v>0.8023647295964433</v>
-      </c>
-      <c r="O196" t="n">
-        <v>0.09487217236069947</v>
-      </c>
-    </row>
-    <row r="197" ht="15" customHeight="1">
-      <c r="F197" t="n">
-        <v>0.04151073926907602</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0.09113193925132135</v>
-      </c>
-      <c r="J197" t="n">
-        <v>0.186064409734242</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.0999756076461313</v>
-      </c>
-      <c r="L197" t="n">
-        <v>0.4971243462062366</v>
-      </c>
-      <c r="M197" t="n">
-        <v>0.1001604925930866</v>
-      </c>
-      <c r="N197" t="n">
-        <v>0.8060005110151423</v>
-      </c>
-      <c r="O197" t="n">
-        <v>0.09559638741688803</v>
-      </c>
-    </row>
-    <row r="198" ht="15" customHeight="1">
-      <c r="F198" t="n">
-        <v>0.04033424450741389</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0.09182233273049803</v>
-      </c>
-      <c r="J198" t="n">
-        <v>0.1861097856133823</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1007329986131474</v>
-      </c>
-      <c r="L198" t="n">
-        <v>0.4954504311549934</v>
-      </c>
-      <c r="M198" t="n">
-        <v>0.1009192842036403</v>
-      </c>
-      <c r="N198" t="n">
-        <v>0.8014077855580728</v>
-      </c>
-      <c r="O198" t="n">
-        <v>0.09632060247307656</v>
-      </c>
-    </row>
-    <row r="199" ht="15" customHeight="1">
-      <c r="F199" t="n">
-        <v>0.04213314417032676</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0.09251272620967471</v>
-      </c>
-      <c r="J199" t="n">
-        <v>0.1848544168022133</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1014903895801636</v>
-      </c>
-      <c r="L199" t="n">
-        <v>0.4925084905880359</v>
-      </c>
-      <c r="M199" t="n">
-        <v>0.101678075814194</v>
-      </c>
-      <c r="N199" t="n">
-        <v>0.8020869732084823</v>
-      </c>
-      <c r="O199" t="n">
-        <v>0.09704481752926511</v>
-      </c>
-    </row>
-    <row r="200" ht="15" customHeight="1">
-      <c r="F200" t="n">
-        <v>0.03991069938946624</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0.09320311968885138</v>
-      </c>
-      <c r="J200" t="n">
-        <v>0.1849001630000706</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1022477805471797</v>
-      </c>
-      <c r="L200" t="n">
-        <v>0.4950150386523238</v>
-      </c>
-      <c r="M200" t="n">
-        <v>0.1024368674247477</v>
-      </c>
-      <c r="N200" t="n">
-        <v>0.8016384939496177</v>
-      </c>
-      <c r="O200" t="n">
-        <v>0.09776903258545365</v>
-      </c>
-    </row>
-    <row r="201" ht="15" customHeight="1">
-      <c r="F201" t="n">
-        <v>0.0406701712964839</v>
-      </c>
-      <c r="G201" t="n">
-        <v>0.09389351316802806</v>
-      </c>
-      <c r="J201" t="n">
-        <v>0.1841488839062896</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1030051715141959</v>
-      </c>
-      <c r="L201" t="n">
-        <v>0.4903865894948163</v>
-      </c>
-      <c r="M201" t="n">
-        <v>0.1031956590353014</v>
-      </c>
-      <c r="N201" t="n">
-        <v>0.8017627677647263</v>
-      </c>
-      <c r="O201" t="n">
-        <v>0.0984932476416422</v>
-      </c>
-    </row>
-    <row r="202" ht="15" customHeight="1">
-      <c r="F202" t="n">
-        <v>0.03841482102303134</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0.09458390664720474</v>
-      </c>
-      <c r="J202" t="n">
-        <v>0.184502439220206</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.103762562481212</v>
-      </c>
-      <c r="L202" t="n">
-        <v>0.4895396572624736</v>
-      </c>
-      <c r="M202" t="n">
-        <v>0.103954450645855</v>
-      </c>
-      <c r="N202" t="n">
-        <v>0.8029602146370554</v>
-      </c>
-      <c r="O202" t="n">
-        <v>0.09921746269783074</v>
-      </c>
-    </row>
-    <row r="203" ht="15" customHeight="1">
-      <c r="F203" t="n">
-        <v>0.03914790970076017</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0.09527430012638141</v>
-      </c>
-      <c r="J203" t="n">
-        <v>0.1838626886411552</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1045199534482282</v>
-      </c>
-      <c r="L203" t="n">
-        <v>0.4866907561022551</v>
-      </c>
-      <c r="M203" t="n">
-        <v>0.1047132422564087</v>
-      </c>
-      <c r="N203" t="n">
-        <v>0.7971312545498526</v>
-      </c>
-      <c r="O203" t="n">
-        <v>0.0999416777540193</v>
-      </c>
-    </row>
-    <row r="204" ht="15" customHeight="1">
-      <c r="F204" t="n">
-        <v>0.03987269846132195</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0.09596469360555808</v>
-      </c>
-      <c r="J204" t="n">
-        <v>0.182631491868473</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1052773444152443</v>
-      </c>
-      <c r="L204" t="n">
-        <v>0.4861564001611206</v>
-      </c>
-      <c r="M204" t="n">
-        <v>0.1054720338669624</v>
-      </c>
-      <c r="N204" t="n">
-        <v>0.7961763074863646</v>
-      </c>
-      <c r="O204" t="n">
-        <v>0.1006658928102078</v>
-      </c>
-    </row>
-    <row r="205" ht="15" customHeight="1">
-      <c r="F205" t="n">
-        <v>0.03959244843636832</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0.09665508708473476</v>
-      </c>
-      <c r="J205" t="n">
-        <v>0.1831107086014947</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1060347353822605</v>
-      </c>
-      <c r="L205" t="n">
-        <v>0.4852531035860298</v>
-      </c>
-      <c r="M205" t="n">
-        <v>0.1062308254775161</v>
-      </c>
-      <c r="N205" t="n">
-        <v>0.7983957934298394</v>
-      </c>
-      <c r="O205" t="n">
-        <v>0.1013901078663964</v>
-      </c>
-    </row>
-    <row r="206" ht="15" customHeight="1">
-      <c r="F206" t="n">
-        <v>0.04131042075755084</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0.09734548056391144</v>
-      </c>
-      <c r="J206" t="n">
-        <v>0.1813021944153866</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1067921263492766</v>
-      </c>
-      <c r="L206" t="n">
-        <v>0.4815870910281066</v>
-      </c>
-      <c r="M206" t="n">
-        <v>0.1069896170880698</v>
-      </c>
-      <c r="N206" t="n">
-        <v>0.7921901323635234</v>
-      </c>
-      <c r="O206" t="n">
-        <v>0.1021143229225849</v>
-      </c>
-    </row>
-    <row r="207" ht="15" customHeight="1">
-      <c r="F207" t="n">
-        <v>0.03902987655652111</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0.09803587404308811</v>
-      </c>
-      <c r="J207" t="n">
-        <v>0.1808980661984733</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1075495173162928</v>
-      </c>
-      <c r="L207" t="n">
-        <v>0.4804557302456099</v>
-      </c>
-      <c r="M207" t="n">
-        <v>0.1077484086986235</v>
-      </c>
-      <c r="N207" t="n">
-        <v>0.7913597442706648</v>
-      </c>
-      <c r="O207" t="n">
-        <v>0.1028385379787735</v>
-      </c>
-    </row>
-    <row r="208" ht="15" customHeight="1">
-      <c r="F208" t="n">
-        <v>0.04075407696493075</v>
-      </c>
-      <c r="G208" t="n">
-        <v>0.09872626752226479</v>
-      </c>
-      <c r="J208" t="n">
-        <v>0.1809899595629605</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1083069082833089</v>
-      </c>
-      <c r="L208" t="n">
-        <v>0.4792286599490095</v>
-      </c>
-      <c r="M208" t="n">
-        <v>0.1085072003091772</v>
-      </c>
-      <c r="N208" t="n">
-        <v>0.7902050491345101</v>
-      </c>
-      <c r="O208" t="n">
-        <v>0.103562753034962</v>
-      </c>
-    </row>
-    <row r="209" ht="15" customHeight="1">
-      <c r="F209" t="n">
-        <v>0.03948628311443132</v>
-      </c>
-      <c r="G209" t="n">
-        <v>0.09941666100144148</v>
-      </c>
-      <c r="J209" t="n">
-        <v>0.1807778718391132</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1090642992503251</v>
-      </c>
-      <c r="L209" t="n">
-        <v>0.4803060444726012</v>
-      </c>
-      <c r="M209" t="n">
-        <v>0.1092659919197309</v>
-      </c>
-      <c r="N209" t="n">
-        <v>0.7890264669383069</v>
-      </c>
-      <c r="O209" t="n">
-        <v>0.1042869680911506</v>
-      </c>
-    </row>
-    <row r="210" ht="15" customHeight="1">
-      <c r="F210" t="n">
-        <v>0.03722975613667445</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0.1001070544806181</v>
-      </c>
-      <c r="J210" t="n">
-        <v>0.1799618003571958</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1098216902173412</v>
-      </c>
-      <c r="L210" t="n">
-        <v>0.4780880481506808</v>
-      </c>
-      <c r="M210" t="n">
-        <v>0.1100247835302845</v>
-      </c>
-      <c r="N210" t="n">
-        <v>0.7901244176653024</v>
-      </c>
-      <c r="O210" t="n">
-        <v>0.1050111831473391</v>
-      </c>
-    </row>
-    <row r="211" ht="15" customHeight="1">
-      <c r="F211" t="n">
-        <v>0.03998775716331171</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0.1007974479597948</v>
-      </c>
-      <c r="J211" t="n">
-        <v>0.1791417424474732</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1105790811843573</v>
-      </c>
-      <c r="L211" t="n">
-        <v>0.4748748353175444</v>
-      </c>
-      <c r="M211" t="n">
-        <v>0.1107835751408382</v>
-      </c>
-      <c r="N211" t="n">
-        <v>0.7849993212987443</v>
-      </c>
-      <c r="O211" t="n">
-        <v>0.1057353982035277</v>
-      </c>
-    </row>
-    <row r="212" ht="15" customHeight="1">
-      <c r="F212" t="n">
-        <v>0.03576354732599471</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0.1014878414389715</v>
-      </c>
-      <c r="J212" t="n">
-        <v>0.17971769544021</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1113364721513735</v>
-      </c>
-      <c r="L212" t="n">
-        <v>0.4721665703074879</v>
-      </c>
-      <c r="M212" t="n">
-        <v>0.1115423667513919</v>
-      </c>
-      <c r="N212" t="n">
-        <v>0.7863515978218794</v>
-      </c>
-      <c r="O212" t="n">
-        <v>0.1064596132597162</v>
-      </c>
-    </row>
-    <row r="213" ht="15" customHeight="1">
-      <c r="F213" t="n">
-        <v>0.03556038775637503</v>
-      </c>
-      <c r="G213" t="n">
-        <v>0.1021782349181482</v>
-      </c>
-      <c r="J213" t="n">
-        <v>0.1793896566656709</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1120938631183896</v>
-      </c>
-      <c r="L213" t="n">
-        <v>0.4710634174548071</v>
-      </c>
-      <c r="M213" t="n">
-        <v>0.1123011583619456</v>
-      </c>
-      <c r="N213" t="n">
-        <v>0.7850521835835502</v>
-      </c>
-      <c r="O213" t="n">
-        <v>0.1071838283159047</v>
-      </c>
-    </row>
-    <row r="214" ht="15" customHeight="1">
-      <c r="F214" t="n">
-        <v>0.03638153958610427</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0.1028686283973249</v>
-      </c>
-      <c r="J214" t="n">
-        <v>0.1784576234541208</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1128512540854058</v>
-      </c>
-      <c r="L214" t="n">
-        <v>0.4708655410937979</v>
-      </c>
-      <c r="M214" t="n">
-        <v>0.1130599499724993</v>
-      </c>
-      <c r="N214" t="n">
-        <v>0.7819403819437893</v>
-      </c>
-      <c r="O214" t="n">
-        <v>0.1079080433720933</v>
-      </c>
-    </row>
-    <row r="215" ht="15" customHeight="1">
-      <c r="F215" t="n">
-        <v>0.03823026394683403</v>
-      </c>
-      <c r="G215" t="n">
-        <v>0.1035590218765015</v>
-      </c>
-      <c r="J215" t="n">
-        <v>0.178221593135824</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1136086450524219</v>
-      </c>
-      <c r="L215" t="n">
-        <v>0.4714731055587562</v>
-      </c>
-      <c r="M215" t="n">
-        <v>0.113818741583053</v>
-      </c>
-      <c r="N215" t="n">
-        <v>0.7764157826001059</v>
-      </c>
-      <c r="O215" t="n">
-        <v>0.1086322584282818</v>
-      </c>
-    </row>
-    <row r="216" ht="15" customHeight="1">
-      <c r="F216" t="n">
-        <v>0.0381098219702159</v>
-      </c>
-      <c r="G216" t="n">
-        <v>0.1042494153556782</v>
-      </c>
-      <c r="J216" t="n">
-        <v>0.1778815630410456</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1143660360194381</v>
-      </c>
-      <c r="L216" t="n">
-        <v>0.4712862751839779</v>
-      </c>
-      <c r="M216" t="n">
-        <v>0.1145775331936067</v>
-      </c>
-      <c r="N216" t="n">
-        <v>0.7765799281185004</v>
-      </c>
-      <c r="O216" t="n">
-        <v>0.1093564734844704</v>
-      </c>
-    </row>
-    <row r="217" ht="15" customHeight="1">
-      <c r="F217" t="n">
-        <v>0.03902347478790147</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0.1049398088348549</v>
-      </c>
-      <c r="J217" t="n">
-        <v>0.1781375305000501</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1151234269864542</v>
-      </c>
-      <c r="L217" t="n">
-        <v>0.467305214303759</v>
-      </c>
-      <c r="M217" t="n">
-        <v>0.1153363248041603</v>
-      </c>
-      <c r="N217" t="n">
-        <v>0.7785343610649749</v>
-      </c>
-      <c r="O217" t="n">
-        <v>0.1100806885406589</v>
-      </c>
-    </row>
-    <row r="218" ht="15" customHeight="1">
-      <c r="F218" t="n">
-        <v>0.03797448353154236</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0.1056302023140316</v>
-      </c>
-      <c r="J218" t="n">
-        <v>0.1760894928431023</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1158808179534704</v>
-      </c>
-      <c r="L218" t="n">
-        <v>0.4655300872523954</v>
-      </c>
-      <c r="M218" t="n">
-        <v>0.116095116414714</v>
-      </c>
-      <c r="N218" t="n">
-        <v>0.7742806240055293</v>
-      </c>
-      <c r="O218" t="n">
-        <v>0.1108049035968475</v>
-      </c>
-    </row>
-    <row r="219" ht="15" customHeight="1">
-      <c r="F219" t="n">
-        <v>0.0369641635406746</v>
-      </c>
-      <c r="G219" t="n">
-        <v>0.1063205957932083</v>
-      </c>
-      <c r="J219" t="n">
-        <v>0.1761374474004668</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1166382089204865</v>
-      </c>
-      <c r="L219" t="n">
-        <v>0.464961058364183</v>
-      </c>
-      <c r="M219" t="n">
-        <v>0.1168539080252677</v>
-      </c>
-      <c r="N219" t="n">
-        <v>0.7701202595061662</v>
-      </c>
-      <c r="O219" t="n">
-        <v>0.111529118653036</v>
-      </c>
-    </row>
-    <row r="220" ht="15" customHeight="1">
-      <c r="F220" t="n">
-        <v>0.03496422592711507</v>
-      </c>
-      <c r="G220" t="n">
-        <v>0.1070109892723849</v>
-      </c>
-      <c r="J220" t="n">
-        <v>0.1751813915024084</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1173955998875027</v>
-      </c>
-      <c r="L220" t="n">
-        <v>0.4622982919734174</v>
-      </c>
-      <c r="M220" t="n">
-        <v>0.1176126996358214</v>
-      </c>
-      <c r="N220" t="n">
-        <v>0.7693548101328855</v>
-      </c>
-      <c r="O220" t="n">
-        <v>0.1122533337092246</v>
-      </c>
-    </row>
-    <row r="221" ht="15" customHeight="1">
-      <c r="F221" t="n">
-        <v>0.03896451252454715</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0.1077013827515616</v>
-      </c>
-      <c r="J221" t="n">
-        <v>0.1763213224791917</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1181529908545188</v>
-      </c>
-      <c r="L221" t="n">
-        <v>0.4643419524143951</v>
-      </c>
-      <c r="M221" t="n">
-        <v>0.1183714912463751</v>
-      </c>
-      <c r="N221" t="n">
-        <v>0.7695858184516897</v>
-      </c>
-      <c r="O221" t="n">
-        <v>0.1129775487654131</v>
-      </c>
-    </row>
-    <row r="222" ht="15" customHeight="1">
-      <c r="F222" t="n">
-        <v>0.03496519578852936</v>
-      </c>
-      <c r="G222" t="n">
-        <v>0.1083917762307383</v>
-      </c>
-      <c r="J222" t="n">
-        <v>0.1755572376610815</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1189103818215349</v>
-      </c>
-      <c r="L222" t="n">
-        <v>0.4631922040214115</v>
-      </c>
-      <c r="M222" t="n">
-        <v>0.1191302828569288</v>
-      </c>
-      <c r="N222" t="n">
-        <v>0.765114827028579</v>
-      </c>
-      <c r="O222" t="n">
-        <v>0.1137017638216017</v>
-      </c>
-    </row>
-    <row r="223" ht="15" customHeight="1">
-      <c r="F223" t="n">
-        <v>0.03596644817462016</v>
-      </c>
-      <c r="G223" t="n">
-        <v>0.109082169709915</v>
-      </c>
-      <c r="J223" t="n">
-        <v>0.1746891343783424</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1196677727885511</v>
-      </c>
-      <c r="L223" t="n">
-        <v>0.4609492111287627</v>
-      </c>
-      <c r="M223" t="n">
-        <v>0.1198890744674825</v>
-      </c>
-      <c r="N223" t="n">
-        <v>0.7593433784295556</v>
-      </c>
-      <c r="O223" t="n">
-        <v>0.1144259788777902</v>
-      </c>
-    </row>
-    <row r="224" ht="15" customHeight="1">
-      <c r="F224" t="n">
-        <v>0.0359684421383781</v>
-      </c>
-      <c r="G224" t="n">
-        <v>0.1097725631890916</v>
-      </c>
-      <c r="J224" t="n">
-        <v>0.1740170099612392</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1204251637555672</v>
-      </c>
-      <c r="L224" t="n">
-        <v>0.4584131380707446</v>
-      </c>
-      <c r="M224" t="n">
-        <v>0.1206478660780361</v>
-      </c>
-      <c r="N224" t="n">
-        <v>0.7548730152206198</v>
-      </c>
-      <c r="O224" t="n">
-        <v>0.1151501939339788</v>
-      </c>
-    </row>
-    <row r="225" ht="15" customHeight="1">
-      <c r="F225" t="n">
-        <v>0.03597135013536165</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0.1104629566682683</v>
-      </c>
-      <c r="J225" t="n">
-        <v>0.1727408617400366</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1211825547225834</v>
-      </c>
-      <c r="L225" t="n">
-        <v>0.455784149181653</v>
-      </c>
-      <c r="M225" t="n">
-        <v>0.1214066576885898</v>
-      </c>
-      <c r="N225" t="n">
-        <v>0.7553052799677733</v>
-      </c>
-      <c r="O225" t="n">
-        <v>0.1158744089901673</v>
-      </c>
-    </row>
-    <row r="226" ht="15" customHeight="1">
-      <c r="F226" t="n">
-        <v>0.03697534462112932</v>
-      </c>
-      <c r="G226" t="n">
-        <v>0.111153350147445</v>
-      </c>
-      <c r="J226" t="n">
-        <v>0.1728606870449992</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1219399456895996</v>
-      </c>
-      <c r="L226" t="n">
-        <v>0.4566624087957838</v>
-      </c>
-      <c r="M226" t="n">
-        <v>0.1221654492991435</v>
-      </c>
-      <c r="N226" t="n">
-        <v>0.7498417152370173</v>
-      </c>
-      <c r="O226" t="n">
-        <v>0.1165986240463558</v>
-      </c>
-    </row>
-    <row r="227" ht="15" customHeight="1">
-      <c r="F227" t="n">
-        <v>0.03798059805123961</v>
-      </c>
-      <c r="G227" t="n">
-        <v>0.1118437436266217</v>
-      </c>
-      <c r="J227" t="n">
-        <v>0.1732764832063918</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1226973366566157</v>
-      </c>
-      <c r="L227" t="n">
-        <v>0.4580480812474331</v>
-      </c>
-      <c r="M227" t="n">
-        <v>0.1229242409096972</v>
-      </c>
-      <c r="N227" t="n">
-        <v>0.7459838635943529</v>
-      </c>
-      <c r="O227" t="n">
-        <v>0.1173228391025444</v>
-      </c>
-    </row>
-    <row r="228" ht="15" customHeight="1">
-      <c r="F228" t="n">
-        <v>0.03598728288125103</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0.1125341371057983</v>
-      </c>
-      <c r="J228" t="n">
-        <v>0.1724882475544791</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1234547276236318</v>
-      </c>
-      <c r="L228" t="n">
-        <v>0.4519413308708967</v>
-      </c>
-      <c r="M228" t="n">
-        <v>0.1236830325202509</v>
-      </c>
-      <c r="N228" t="n">
-        <v>0.7479332676057813</v>
-      </c>
-      <c r="O228" t="n">
-        <v>0.1180470541587329</v>
-      </c>
-    </row>
-    <row r="229" ht="15" customHeight="1">
-      <c r="F229" t="n">
-        <v>0.03499557156672206</v>
-      </c>
-      <c r="G229" t="n">
-        <v>0.113224530584975</v>
-      </c>
-      <c r="J229" t="n">
-        <v>0.1712959774195257</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.124212118590648</v>
-      </c>
-      <c r="L229" t="n">
-        <v>0.4537423220004705</v>
-      </c>
-      <c r="M229" t="n">
-        <v>0.1244418241308046</v>
-      </c>
-      <c r="N229" t="n">
-        <v>0.7439914698373041</v>
-      </c>
-      <c r="O229" t="n">
-        <v>0.1187712692149215</v>
-      </c>
-    </row>
-    <row r="230" ht="15" customHeight="1">
-      <c r="F230" t="n">
-        <v>0.03600563656321121</v>
-      </c>
-      <c r="G230" t="n">
-        <v>0.1139149240641517</v>
-      </c>
-      <c r="J230" t="n">
-        <v>0.1714996701317964</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1249695095576641</v>
-      </c>
-      <c r="L230" t="n">
-        <v>0.4508512189704503</v>
-      </c>
-      <c r="M230" t="n">
-        <v>0.1252006157413582</v>
-      </c>
-      <c r="N230" t="n">
-        <v>0.735660012854922</v>
-      </c>
-      <c r="O230" t="n">
-        <v>0.11949548427111</v>
-      </c>
-    </row>
-    <row r="231" ht="15" customHeight="1">
-      <c r="F231" t="n">
-        <v>0.03501765032627699</v>
-      </c>
-      <c r="G231" t="n">
-        <v>0.1146053175433284</v>
-      </c>
-      <c r="J231" t="n">
-        <v>0.170999323021556</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1257269005246803</v>
-      </c>
-      <c r="L231" t="n">
-        <v>0.4525681861151322</v>
-      </c>
-      <c r="M231" t="n">
-        <v>0.1259594073519119</v>
-      </c>
-      <c r="N231" t="n">
-        <v>0.7346404392246365</v>
-      </c>
-      <c r="O231" t="n">
-        <v>0.1202196993272986</v>
-      </c>
-    </row>
-    <row r="232" ht="15" customHeight="1">
-      <c r="F232" t="n">
-        <v>0.03703178531147787</v>
-      </c>
-      <c r="G232" t="n">
-        <v>0.115295711022505</v>
-      </c>
-      <c r="J232" t="n">
-        <v>0.1707949334190689</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1264842914916964</v>
-      </c>
-      <c r="L232" t="n">
-        <v>0.4473933877688119</v>
-      </c>
-      <c r="M232" t="n">
-        <v>0.1267181989624656</v>
-      </c>
-      <c r="N232" t="n">
-        <v>0.7303342915124489</v>
-      </c>
-      <c r="O232" t="n">
-        <v>0.1209439143834871</v>
-      </c>
-    </row>
-    <row r="233" ht="15" customHeight="1">
-      <c r="F233" t="n">
-        <v>0.0350482139743724</v>
-      </c>
-      <c r="G233" t="n">
-        <v>0.1159861045016817</v>
-      </c>
-      <c r="J233" t="n">
-        <v>0.1696864986546001</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1272416824587126</v>
-      </c>
-      <c r="L233" t="n">
-        <v>0.4474269882657853</v>
-      </c>
-      <c r="M233" t="n">
-        <v>0.1274769905730193</v>
-      </c>
-      <c r="N233" t="n">
-        <v>0.7273431122843603</v>
-      </c>
-      <c r="O233" t="n">
-        <v>0.1216681294396756</v>
-      </c>
-    </row>
-    <row r="234" ht="15" customHeight="1">
-      <c r="F234" t="n">
-        <v>0.03806710877051903</v>
-      </c>
-      <c r="G234" t="n">
-        <v>0.1166764979808584</v>
-      </c>
-      <c r="J234" t="n">
-        <v>0.1693740160584141</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1279990734257287</v>
-      </c>
-      <c r="L234" t="n">
-        <v>0.4477691519403487</v>
-      </c>
-      <c r="M234" t="n">
-        <v>0.128235782183573</v>
-      </c>
-      <c r="N234" t="n">
-        <v>0.724468444106372</v>
-      </c>
-      <c r="O234" t="n">
-        <v>0.1223923444958642</v>
-      </c>
-    </row>
-    <row r="235" ht="15" customHeight="1">
-      <c r="F235" t="n">
-        <v>0.03708864215547628</v>
-      </c>
-      <c r="G235" t="n">
-        <v>0.1173668914600351</v>
-      </c>
-      <c r="J235" t="n">
-        <v>0.1677574829607757</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1287564643927449</v>
-      </c>
-      <c r="L235" t="n">
-        <v>0.4474200431267976</v>
-      </c>
-      <c r="M235" t="n">
-        <v>0.1289945737941267</v>
-      </c>
-      <c r="N235" t="n">
-        <v>0.725711829544485</v>
-      </c>
-      <c r="O235" t="n">
-        <v>0.1231165595520527</v>
-      </c>
-    </row>
-    <row r="236" ht="15" customHeight="1">
-      <c r="F236" t="n">
-        <v>0.03711298658480265</v>
-      </c>
-      <c r="G236" t="n">
-        <v>0.1180572849392117</v>
-      </c>
-      <c r="J236" t="n">
-        <v>0.1683368966919496</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.129513855359761</v>
-      </c>
-      <c r="L236" t="n">
-        <v>0.445679826159428</v>
-      </c>
-      <c r="M236" t="n">
-        <v>0.1297533654046804</v>
-      </c>
-      <c r="N236" t="n">
-        <v>0.7199748111647006</v>
-      </c>
-      <c r="O236" t="n">
-        <v>0.1238407746082413</v>
-      </c>
-    </row>
-    <row r="237" ht="15" customHeight="1">
-      <c r="F237" t="n">
-        <v>0.03914031451405665</v>
-      </c>
-      <c r="G237" t="n">
-        <v>0.1187476784183884</v>
-      </c>
-      <c r="J237" t="n">
-        <v>0.1676122545822005</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1302712463267771</v>
-      </c>
-      <c r="L237" t="n">
-        <v>0.4450486653725358</v>
-      </c>
-      <c r="M237" t="n">
-        <v>0.1305121570152341</v>
-      </c>
-      <c r="N237" t="n">
-        <v>0.7179589315330204</v>
-      </c>
-      <c r="O237" t="n">
-        <v>0.1245649896644298</v>
-      </c>
-    </row>
-    <row r="238" ht="15" customHeight="1">
-      <c r="F238" t="n">
-        <v>0.03517079839879678</v>
-      </c>
-      <c r="G238" t="n">
-        <v>0.1194380718975651</v>
-      </c>
-      <c r="J238" t="n">
-        <v>0.1668835539617932</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1310286372937933</v>
-      </c>
-      <c r="L238" t="n">
-        <v>0.4452267251004169</v>
-      </c>
-      <c r="M238" t="n">
-        <v>0.1312709486257878</v>
-      </c>
-      <c r="N238" t="n">
-        <v>0.710065733215445</v>
-      </c>
-      <c r="O238" t="n">
-        <v>0.1252892047206184</v>
-      </c>
-    </row>
-    <row r="239" ht="15" customHeight="1">
-      <c r="F239" t="n">
-        <v>0.03620461069458152</v>
-      </c>
-      <c r="G239" t="n">
-        <v>0.1201284653767418</v>
-      </c>
-      <c r="J239" t="n">
-        <v>0.1655507921609921</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1317860282608094</v>
-      </c>
-      <c r="L239" t="n">
-        <v>0.4412141696773673</v>
-      </c>
-      <c r="M239" t="n">
-        <v>0.1320297402363415</v>
-      </c>
-      <c r="N239" t="n">
-        <v>0.7048967587779762</v>
-      </c>
-      <c r="O239" t="n">
-        <v>0.1260134197768069</v>
-      </c>
-    </row>
-    <row r="240" ht="15" customHeight="1">
-      <c r="F240" t="n">
-        <v>0.03724192385696938</v>
-      </c>
-      <c r="G240" t="n">
-        <v>0.1208188588559185</v>
-      </c>
-      <c r="J240" t="n">
-        <v>0.1654139665100622</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1325434192278256</v>
-      </c>
-      <c r="L240" t="n">
-        <v>0.4409111634376828</v>
-      </c>
-      <c r="M240" t="n">
-        <v>0.1327885318468951</v>
-      </c>
-      <c r="N240" t="n">
-        <v>0.705253550786615</v>
-      </c>
-      <c r="O240" t="n">
-        <v>0.1267376348329955</v>
-      </c>
-    </row>
-    <row r="241" ht="15" customHeight="1">
-      <c r="F241" t="n">
-        <v>0.03828291034151887</v>
-      </c>
-      <c r="G241" t="n">
-        <v>0.1215092523350951</v>
-      </c>
-      <c r="J241" t="n">
-        <v>0.1645730743392681</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1333008101948417</v>
-      </c>
-      <c r="L241" t="n">
-        <v>0.4391178707156593</v>
-      </c>
-      <c r="M241" t="n">
-        <v>0.1335473234574488</v>
-      </c>
-      <c r="N241" t="n">
-        <v>0.6977376518073624</v>
-      </c>
-      <c r="O241" t="n">
-        <v>0.127461849889184</v>
-      </c>
-    </row>
-    <row r="242" ht="15" customHeight="1">
-      <c r="F242" t="n">
-        <v>0.03632774260378849</v>
-      </c>
-      <c r="G242" t="n">
-        <v>0.1221996458142718</v>
-      </c>
-      <c r="J242" t="n">
-        <v>0.1651281129788745</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1340582011618579</v>
-      </c>
-      <c r="L242" t="n">
-        <v>0.4390344558455928</v>
-      </c>
-      <c r="M242" t="n">
-        <v>0.1343061150680025</v>
-      </c>
-      <c r="N242" t="n">
-        <v>0.6912506044062199</v>
-      </c>
-      <c r="O242" t="n">
-        <v>0.1281860649453726</v>
-      </c>
-    </row>
-    <row r="243" ht="15" customHeight="1">
-      <c r="F243" t="n">
-        <v>0.03637659309933672</v>
-      </c>
-      <c r="G243" t="n">
-        <v>0.1228900392934485</v>
-      </c>
-      <c r="J243" t="n">
-        <v>0.1647790797591461</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.134815592128874</v>
-      </c>
-      <c r="L243" t="n">
-        <v>0.4388610831617791</v>
-      </c>
-      <c r="M243" t="n">
-        <v>0.1350649066785562</v>
-      </c>
-      <c r="N243" t="n">
-        <v>0.6898939511491887</v>
-      </c>
-      <c r="O243" t="n">
-        <v>0.1289102800015611</v>
-      </c>
-    </row>
-    <row r="244" ht="15" customHeight="1">
-      <c r="F244" t="n">
-        <v>0.03942963428372208</v>
-      </c>
-      <c r="G244" t="n">
-        <v>0.1235804327726252</v>
-      </c>
-      <c r="J244" t="n">
-        <v>0.1633259720103475</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1355729830958902</v>
-      </c>
-      <c r="L244" t="n">
-        <v>0.434497916998514</v>
-      </c>
-      <c r="M244" t="n">
-        <v>0.1358236982891099</v>
-      </c>
-      <c r="N244" t="n">
-        <v>0.6849692346022699</v>
-      </c>
-      <c r="O244" t="n">
-        <v>0.1296344950577497</v>
-      </c>
-    </row>
-    <row r="245" ht="15" customHeight="1">
-      <c r="F245" t="n">
-        <v>0.03548703861250307</v>
-      </c>
-      <c r="G245" t="n">
-        <v>0.1242708262518018</v>
-      </c>
-      <c r="J245" t="n">
-        <v>0.1631687870627437</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1363303740629063</v>
-      </c>
-      <c r="L245" t="n">
-        <v>0.4368451216900938</v>
-      </c>
-      <c r="M245" t="n">
-        <v>0.1365824898996636</v>
-      </c>
-      <c r="N245" t="n">
-        <v>0.6787779973314648</v>
-      </c>
-      <c r="O245" t="n">
-        <v>0.1303587101139382</v>
-      </c>
-    </row>
-    <row r="246" ht="15" customHeight="1">
-      <c r="F246" t="n">
-        <v>0.03554897854123819</v>
-      </c>
-      <c r="G246" t="n">
-        <v>0.1249612197309785</v>
-      </c>
-      <c r="J246" t="n">
-        <v>0.1635075222465991</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1370877650299225</v>
-      </c>
-      <c r="L246" t="n">
-        <v>0.4344028615708141</v>
-      </c>
-      <c r="M246" t="n">
-        <v>0.1373412815102172</v>
-      </c>
-      <c r="N246" t="n">
-        <v>0.6749217819027749</v>
-      </c>
-      <c r="O246" t="n">
-        <v>0.1310829251701268</v>
-      </c>
-    </row>
-    <row r="247" ht="15" customHeight="1">
-      <c r="F247" t="n">
-        <v>0.03561562652548592</v>
-      </c>
-      <c r="G247" t="n">
-        <v>0.1256516132101552</v>
-      </c>
-      <c r="J247" t="n">
-        <v>0.1614421748921785</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1378451559969386</v>
-      </c>
-      <c r="L247" t="n">
-        <v>0.4347713009749707</v>
-      </c>
-      <c r="M247" t="n">
-        <v>0.1381000731207709</v>
-      </c>
-      <c r="N247" t="n">
-        <v>0.6730021308822008</v>
-      </c>
-      <c r="O247" t="n">
-        <v>0.1318071402263153</v>
-      </c>
-    </row>
-    <row r="248" ht="15" customHeight="1">
-      <c r="F248" t="n">
-        <v>0.03968715502080478</v>
-      </c>
-      <c r="G248" t="n">
-        <v>0.1263420066893318</v>
-      </c>
-      <c r="J248" t="n">
-        <v>0.1608727423297467</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1386025469639548</v>
-      </c>
-      <c r="L248" t="n">
-        <v>0.4330506042368599</v>
-      </c>
-      <c r="M248" t="n">
-        <v>0.1388588647313246</v>
-      </c>
-      <c r="N248" t="n">
-        <v>0.6636205868357442</v>
-      </c>
-      <c r="O248" t="n">
-        <v>0.1325313552825038</v>
-      </c>
-    </row>
-    <row r="249" ht="15" customHeight="1">
-      <c r="F249" t="n">
-        <v>0.03776373648275326</v>
-      </c>
-      <c r="G249" t="n">
-        <v>0.1270324001685086</v>
-      </c>
-      <c r="J249" t="n">
-        <v>0.1614992218895682</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1393599379309709</v>
-      </c>
-      <c r="L249" t="n">
-        <v>0.4303409356907774</v>
-      </c>
-      <c r="M249" t="n">
-        <v>0.1396176563418783</v>
-      </c>
-      <c r="N249" t="n">
-        <v>0.6619786923294063</v>
-      </c>
-      <c r="O249" t="n">
-        <v>0.1332555703386924</v>
-      </c>
-    </row>
-    <row r="250" ht="15" customHeight="1">
-      <c r="F250" t="n">
-        <v>0.03884554336688988</v>
-      </c>
-      <c r="G250" t="n">
-        <v>0.1277227936476852</v>
-      </c>
-      <c r="J250" t="n">
-        <v>0.1596216109019079</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.140117328897987</v>
-      </c>
-      <c r="L250" t="n">
-        <v>0.4298424596710186</v>
-      </c>
-      <c r="M250" t="n">
-        <v>0.140376447952432</v>
-      </c>
-      <c r="N250" t="n">
-        <v>0.654477989929188</v>
-      </c>
-      <c r="O250" t="n">
-        <v>0.133979785394881</v>
-      </c>
-    </row>
-    <row r="251" ht="15" customHeight="1">
-      <c r="F251" t="n">
-        <v>0.03893274812877312</v>
-      </c>
-      <c r="G251" t="n">
-        <v>0.1284131871268619</v>
-      </c>
-      <c r="J251" t="n">
-        <v>0.1594399066970304</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1408747198650032</v>
-      </c>
-      <c r="L251" t="n">
-        <v>0.4305553405118804</v>
-      </c>
-      <c r="M251" t="n">
-        <v>0.1411352395629857</v>
-      </c>
-      <c r="N251" t="n">
-        <v>0.649220022201091</v>
-      </c>
-      <c r="O251" t="n">
-        <v>0.1347040004510695</v>
-      </c>
-    </row>
-    <row r="252" ht="15" customHeight="1">
-      <c r="F252" t="n">
-        <v>0.03802552322396148</v>
-      </c>
-      <c r="G252" t="n">
-        <v>0.1291035806060386</v>
-      </c>
-      <c r="J252" t="n">
-        <v>0.1589541066052004</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1416321108320193</v>
-      </c>
-      <c r="L252" t="n">
-        <v>0.4279797425476578</v>
-      </c>
-      <c r="M252" t="n">
-        <v>0.1418940311735394</v>
-      </c>
-      <c r="N252" t="n">
-        <v>0.6425063317111162</v>
-      </c>
-      <c r="O252" t="n">
-        <v>0.135428215507258</v>
-      </c>
-    </row>
-    <row r="253" ht="15" customHeight="1">
-      <c r="F253" t="n">
-        <v>0.03812404110801347</v>
-      </c>
-      <c r="G253" t="n">
-        <v>0.1297939740852153</v>
-      </c>
-      <c r="J253" t="n">
-        <v>0.1591642079566827</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1423895017990355</v>
-      </c>
-      <c r="L253" t="n">
-        <v>0.4295158301126474</v>
-      </c>
-      <c r="M253" t="n">
-        <v>0.1426528227840931</v>
-      </c>
-      <c r="N253" t="n">
-        <v>0.6442384610252648</v>
-      </c>
-      <c r="O253" t="n">
-        <v>0.1361524305634466</v>
-      </c>
-    </row>
-    <row r="254" ht="15" customHeight="1">
-      <c r="F254" t="n">
-        <v>0.03822847423648759</v>
-      </c>
-      <c r="G254" t="n">
-        <v>0.1304843675643919</v>
-      </c>
-      <c r="J254" t="n">
-        <v>0.1583702080817418</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1431468927660516</v>
-      </c>
-      <c r="L254" t="n">
-        <v>0.4256637675411445</v>
-      </c>
-      <c r="M254" t="n">
-        <v>0.1434116143946468</v>
-      </c>
-      <c r="N254" t="n">
-        <v>0.6377179527095382</v>
-      </c>
-      <c r="O254" t="n">
-        <v>0.1368766456196351</v>
-      </c>
-    </row>
-    <row r="255" ht="15" customHeight="1">
-      <c r="F255" t="n">
-        <v>0.03633899506494234</v>
-      </c>
-      <c r="G255" t="n">
-        <v>0.1311747610435686</v>
-      </c>
-      <c r="J255" t="n">
-        <v>0.1567721043106426</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1439042837330678</v>
-      </c>
-      <c r="L255" t="n">
-        <v>0.4231237191674454</v>
-      </c>
-      <c r="M255" t="n">
-        <v>0.1441704060052004</v>
-      </c>
-      <c r="N255" t="n">
-        <v>0.6325463493299376</v>
-      </c>
-      <c r="O255" t="n">
-        <v>0.1376008606758237</v>
-      </c>
-    </row>
-    <row r="256" ht="15" customHeight="1">
-      <c r="F256" t="n">
-        <v>0.03745577604893621</v>
-      </c>
-      <c r="G256" t="n">
-        <v>0.1318651545227453</v>
-      </c>
-      <c r="J256" t="n">
-        <v>0.1572698939736498</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1446616747000839</v>
-      </c>
-      <c r="L256" t="n">
-        <v>0.424195849325846</v>
-      </c>
-      <c r="M256" t="n">
-        <v>0.1449291976157541</v>
-      </c>
-      <c r="N256" t="n">
-        <v>0.6305251934524641</v>
-      </c>
-      <c r="O256" t="n">
-        <v>0.1383250757320122</v>
-      </c>
-    </row>
-    <row r="257" ht="15" customHeight="1">
-      <c r="F257" t="n">
-        <v>0.03957898964402772</v>
-      </c>
-      <c r="G257" t="n">
-        <v>0.132555548001922</v>
-      </c>
-      <c r="J257" t="n">
-        <v>0.156963574401028</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1454190656671001</v>
-      </c>
-      <c r="L257" t="n">
-        <v>0.4212803223506419</v>
-      </c>
-      <c r="M257" t="n">
-        <v>0.1456879892263078</v>
-      </c>
-      <c r="N257" t="n">
-        <v>0.6198560276431189</v>
-      </c>
-      <c r="O257" t="n">
-        <v>0.1390492907882007</v>
-      </c>
-    </row>
-    <row r="258" ht="15" customHeight="1">
-      <c r="F258" t="n">
-        <v>0.03670880830577536</v>
-      </c>
-      <c r="G258" t="n">
-        <v>0.1332459414810986</v>
-      </c>
-      <c r="J258" t="n">
-        <v>0.1558531429230419</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1461764566341162</v>
-      </c>
-      <c r="L258" t="n">
-        <v>0.4210773025761294</v>
-      </c>
-      <c r="M258" t="n">
-        <v>0.1464467808368615</v>
-      </c>
-      <c r="N258" t="n">
-        <v>0.6166403944679032</v>
-      </c>
-      <c r="O258" t="n">
-        <v>0.1397735058443893</v>
-      </c>
-    </row>
-    <row r="259" ht="15" customHeight="1">
-      <c r="F259" t="n">
-        <v>0.03784540448973761</v>
-      </c>
-      <c r="G259" t="n">
-        <v>0.1339363349602753</v>
-      </c>
-      <c r="J259" t="n">
-        <v>0.1540385968699562</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1469338476011324</v>
-      </c>
-      <c r="L259" t="n">
-        <v>0.4196869543366041</v>
-      </c>
-      <c r="M259" t="n">
-        <v>0.1472055724474152</v>
-      </c>
-      <c r="N259" t="n">
-        <v>0.6134798364928188</v>
-      </c>
-      <c r="O259" t="n">
-        <v>0.1404977209005779</v>
-      </c>
-    </row>
-    <row r="260" ht="15" customHeight="1">
-      <c r="F260" t="n">
-        <v>0.03898895065147299</v>
-      </c>
-      <c r="G260" t="n">
-        <v>0.134626728439452</v>
-      </c>
-      <c r="J260" t="n">
-        <v>0.1549199335720357</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1476912385681485</v>
-      </c>
-      <c r="L260" t="n">
-        <v>0.4216094419663621</v>
-      </c>
-      <c r="M260" t="n">
-        <v>0.1479643640579689</v>
-      </c>
-      <c r="N260" t="n">
-        <v>0.607175896283866</v>
-      </c>
-      <c r="O260" t="n">
-        <v>0.1412219359567664</v>
-      </c>
-    </row>
-    <row r="261" ht="15" customHeight="1">
-      <c r="F261" t="n">
-        <v>0.04013961924654003</v>
-      </c>
-      <c r="G261" t="n">
-        <v>0.1353171219186287</v>
-      </c>
-      <c r="J261" t="n">
-        <v>0.1527971503595451</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1484486295351647</v>
-      </c>
-      <c r="L261" t="n">
-        <v>0.419944929799699</v>
-      </c>
-      <c r="M261" t="n">
-        <v>0.1487231556685225</v>
-      </c>
-      <c r="N261" t="n">
-        <v>0.5985301164070468</v>
-      </c>
-      <c r="O261" t="n">
-        <v>0.1419461510129549</v>
-      </c>
-    </row>
-    <row r="262" ht="15" customHeight="1">
-      <c r="F262" t="n">
-        <v>0.03829758273049717</v>
-      </c>
-      <c r="G262" t="n">
-        <v>0.1360075153978053</v>
-      </c>
-      <c r="J262" t="n">
-        <v>0.1532702445627489</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1492060205021808</v>
-      </c>
-      <c r="L262" t="n">
-        <v>0.419693582170911</v>
-      </c>
-      <c r="M262" t="n">
-        <v>0.1494819472790762</v>
-      </c>
-      <c r="N262" t="n">
-        <v>0.5919440394283619</v>
-      </c>
-      <c r="O262" t="n">
-        <v>0.1426703660691435</v>
-      </c>
-    </row>
-    <row r="263" ht="15" customHeight="1">
-      <c r="F263" t="n">
-        <v>0.04146301355890294</v>
-      </c>
-      <c r="G263" t="n">
-        <v>0.136697908876982</v>
-      </c>
-      <c r="J263" t="n">
-        <v>0.153339213511912</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1499634114691969</v>
-      </c>
-      <c r="L263" t="n">
-        <v>0.420855563414294</v>
-      </c>
-      <c r="M263" t="n">
-        <v>0.1502407388896299</v>
-      </c>
-      <c r="N263" t="n">
-        <v>0.5935192079138127</v>
-      </c>
-      <c r="O263" t="n">
-        <v>0.143394581125332</v>
-      </c>
-    </row>
-    <row r="264" ht="15" customHeight="1">
-      <c r="F264" t="n">
-        <v>0.03963608418731586</v>
-      </c>
-      <c r="G264" t="n">
-        <v>0.1373883023561587</v>
-      </c>
-      <c r="J264" t="n">
-        <v>0.1522040545372991</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1507208024362131</v>
-      </c>
-      <c r="L264" t="n">
-        <v>0.4190310378641438</v>
-      </c>
-      <c r="M264" t="n">
-        <v>0.1509995305001836</v>
-      </c>
-      <c r="N264" t="n">
-        <v>0.5875571644294009</v>
-      </c>
-      <c r="O264" t="n">
-        <v>0.1441187961815206</v>
-      </c>
-    </row>
+    <row r="90" ht="15" customHeight="1"/>
+    <row r="91" ht="15" customHeight="1"/>
+    <row r="92" ht="15" customHeight="1"/>
+    <row r="93" ht="15" customHeight="1"/>
+    <row r="94" ht="15" customHeight="1"/>
+    <row r="95" ht="15" customHeight="1"/>
+    <row r="96" ht="15" customHeight="1"/>
+    <row r="97" ht="15" customHeight="1"/>
+    <row r="98" ht="15" customHeight="1"/>
+    <row r="99" ht="15" customHeight="1"/>
+    <row r="100" ht="15" customHeight="1"/>
+    <row r="101" ht="15" customHeight="1"/>
+    <row r="102" ht="15" customHeight="1"/>
+    <row r="103" ht="15" customHeight="1"/>
+    <row r="104" ht="15" customHeight="1"/>
+    <row r="105" ht="15" customHeight="1"/>
+    <row r="106" ht="15" customHeight="1"/>
+    <row r="107" ht="15" customHeight="1"/>
+    <row r="108" ht="15" customHeight="1"/>
+    <row r="109" ht="15" customHeight="1"/>
+    <row r="110" ht="15" customHeight="1"/>
+    <row r="111" ht="15" customHeight="1"/>
+    <row r="112" ht="15" customHeight="1"/>
+    <row r="113" ht="15" customHeight="1"/>
+    <row r="114" ht="15" customHeight="1"/>
+    <row r="115" ht="15" customHeight="1"/>
+    <row r="116" ht="15" customHeight="1"/>
+    <row r="117" ht="15" customHeight="1"/>
+    <row r="118" ht="15" customHeight="1"/>
+    <row r="119" ht="15" customHeight="1"/>
+    <row r="120" ht="15" customHeight="1"/>
+    <row r="121" ht="15" customHeight="1"/>
+    <row r="122" ht="15" customHeight="1"/>
+    <row r="123" ht="15" customHeight="1"/>
+    <row r="124" ht="15" customHeight="1"/>
+    <row r="125" ht="15" customHeight="1"/>
+    <row r="126" ht="15" customHeight="1"/>
+    <row r="127" ht="15" customHeight="1"/>
+    <row r="128" ht="15" customHeight="1"/>
+    <row r="129" ht="15" customHeight="1"/>
+    <row r="130" ht="15" customHeight="1"/>
+    <row r="131" ht="15" customHeight="1"/>
+    <row r="132" ht="15" customHeight="1"/>
+    <row r="133" ht="15" customHeight="1"/>
+    <row r="134" ht="15" customHeight="1"/>
+    <row r="135" ht="15" customHeight="1"/>
+    <row r="136" ht="15" customHeight="1"/>
+    <row r="137" ht="15" customHeight="1"/>
+    <row r="138" ht="15" customHeight="1"/>
+    <row r="139" ht="15" customHeight="1"/>
+    <row r="140" ht="15" customHeight="1"/>
+    <row r="141" ht="15" customHeight="1"/>
+    <row r="142" ht="15" customHeight="1"/>
+    <row r="143" ht="15" customHeight="1"/>
+    <row r="144" ht="15" customHeight="1"/>
+    <row r="145" ht="15" customHeight="1"/>
+    <row r="146" ht="15" customHeight="1"/>
+    <row r="147" ht="15" customHeight="1"/>
+    <row r="148" ht="15" customHeight="1"/>
+    <row r="149" ht="15" customHeight="1"/>
+    <row r="150" ht="15" customHeight="1"/>
+    <row r="151" ht="15" customHeight="1"/>
+    <row r="152" ht="15" customHeight="1"/>
+    <row r="153" ht="15" customHeight="1"/>
+    <row r="154" ht="15" customHeight="1"/>
+    <row r="155" ht="15" customHeight="1"/>
+    <row r="156" ht="15" customHeight="1"/>
+    <row r="157" ht="15" customHeight="1"/>
+    <row r="158" ht="15" customHeight="1"/>
+    <row r="159" ht="15" customHeight="1"/>
+    <row r="160" ht="15" customHeight="1"/>
+    <row r="161" ht="15" customHeight="1"/>
+    <row r="162" ht="15" customHeight="1"/>
+    <row r="163" ht="15" customHeight="1"/>
+    <row r="164" ht="15" customHeight="1"/>
+    <row r="165" ht="15" customHeight="1"/>
+    <row r="166" ht="15" customHeight="1"/>
+    <row r="167" ht="15" customHeight="1"/>
+    <row r="168" ht="15" customHeight="1"/>
+    <row r="169" ht="15" customHeight="1"/>
+    <row r="170" ht="15" customHeight="1"/>
+    <row r="171" ht="15" customHeight="1"/>
+    <row r="172" ht="15" customHeight="1"/>
+    <row r="173" ht="15" customHeight="1"/>
+    <row r="174" ht="15" customHeight="1"/>
+    <row r="175" ht="15" customHeight="1"/>
+    <row r="176" ht="15" customHeight="1"/>
+    <row r="177" ht="15" customHeight="1"/>
+    <row r="178" ht="15" customHeight="1"/>
+    <row r="179" ht="15" customHeight="1"/>
+    <row r="180" ht="15" customHeight="1"/>
+    <row r="181" ht="15" customHeight="1"/>
+    <row r="182" ht="15" customHeight="1"/>
+    <row r="183" ht="15" customHeight="1"/>
+    <row r="184" ht="15" customHeight="1"/>
+    <row r="185" ht="15" customHeight="1"/>
+    <row r="186" ht="15" customHeight="1"/>
+    <row r="187" ht="15" customHeight="1"/>
+    <row r="188" ht="15" customHeight="1"/>
+    <row r="189" ht="15" customHeight="1"/>
+    <row r="190" ht="15" customHeight="1"/>
+    <row r="191" ht="15" customHeight="1"/>
+    <row r="192" ht="15" customHeight="1"/>
+    <row r="193" ht="15" customHeight="1"/>
+    <row r="194" ht="15" customHeight="1"/>
+    <row r="195" ht="15" customHeight="1"/>
+    <row r="196" ht="15" customHeight="1"/>
+    <row r="197" ht="15" customHeight="1"/>
+    <row r="198" ht="15" customHeight="1"/>
+    <row r="199" ht="15" customHeight="1"/>
+    <row r="200" ht="15" customHeight="1"/>
+    <row r="201" ht="15" customHeight="1"/>
+    <row r="202" ht="15" customHeight="1"/>
+    <row r="203" ht="15" customHeight="1"/>
+    <row r="204" ht="15" customHeight="1"/>
+    <row r="205" ht="15" customHeight="1"/>
+    <row r="206" ht="15" customHeight="1"/>
+    <row r="207" ht="15" customHeight="1"/>
+    <row r="208" ht="15" customHeight="1"/>
+    <row r="209" ht="15" customHeight="1"/>
+    <row r="210" ht="15" customHeight="1"/>
+    <row r="211" ht="15" customHeight="1"/>
+    <row r="212" ht="15" customHeight="1"/>
+    <row r="213" ht="15" customHeight="1"/>
+    <row r="214" ht="15" customHeight="1"/>
+    <row r="215" ht="15" customHeight="1"/>
+    <row r="216" ht="15" customHeight="1"/>
+    <row r="217" ht="15" customHeight="1"/>
+    <row r="218" ht="15" customHeight="1"/>
+    <row r="219" ht="15" customHeight="1"/>
+    <row r="220" ht="15" customHeight="1"/>
+    <row r="221" ht="15" customHeight="1"/>
+    <row r="222" ht="15" customHeight="1"/>
+    <row r="223" ht="15" customHeight="1"/>
+    <row r="224" ht="15" customHeight="1"/>
+    <row r="225" ht="15" customHeight="1"/>
+    <row r="226" ht="15" customHeight="1"/>
+    <row r="227" ht="15" customHeight="1"/>
+    <row r="228" ht="15" customHeight="1"/>
+    <row r="229" ht="15" customHeight="1"/>
+    <row r="230" ht="15" customHeight="1"/>
+    <row r="231" ht="15" customHeight="1"/>
+    <row r="232" ht="15" customHeight="1"/>
+    <row r="233" ht="15" customHeight="1"/>
+    <row r="234" ht="15" customHeight="1"/>
+    <row r="235" ht="15" customHeight="1"/>
+    <row r="236" ht="15" customHeight="1"/>
+    <row r="237" ht="15" customHeight="1"/>
+    <row r="238" ht="15" customHeight="1"/>
+    <row r="239" ht="15" customHeight="1"/>
+    <row r="240" ht="15" customHeight="1"/>
+    <row r="241" ht="15" customHeight="1"/>
+    <row r="242" ht="15" customHeight="1"/>
+    <row r="243" ht="15" customHeight="1"/>
+    <row r="244" ht="15" customHeight="1"/>
+    <row r="245" ht="15" customHeight="1"/>
+    <row r="246" ht="15" customHeight="1"/>
+    <row r="247" ht="15" customHeight="1"/>
+    <row r="248" ht="15" customHeight="1"/>
+    <row r="249" ht="15" customHeight="1"/>
+    <row r="250" ht="15" customHeight="1"/>
+    <row r="251" ht="15" customHeight="1"/>
+    <row r="252" ht="15" customHeight="1"/>
+    <row r="253" ht="15" customHeight="1"/>
+    <row r="254" ht="15" customHeight="1"/>
+    <row r="255" ht="15" customHeight="1"/>
+    <row r="256" ht="15" customHeight="1"/>
+    <row r="257" ht="15" customHeight="1"/>
+    <row r="258" ht="15" customHeight="1"/>
+    <row r="259" ht="15" customHeight="1"/>
+    <row r="260" ht="15" customHeight="1"/>
+    <row r="261" ht="15" customHeight="1"/>
+    <row r="262" ht="15" customHeight="1"/>
+    <row r="263" ht="15" customHeight="1"/>
+    <row r="264" ht="15" customHeight="1"/>
     <row r="265" ht="15" customHeight="1"/>
     <row r="266" ht="15" customHeight="1"/>
     <row r="267" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1340.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1340.xlsx
@@ -2487,7 +2487,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -2607,7 +2607,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -2959,7 +2959,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3074,7 +3074,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3431,7 +3431,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3540,7 +3540,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -4113,7 +4113,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -4223,7 +4223,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF564"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.3843385246743417</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.01921692623371709</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.01921692623371709</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.03074708197394734</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.07075428033241446</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.09649607680250484</v>
+        <v>0.02075428033241445</v>
       </c>
       <c r="B65" t="n">
-        <v>0.002335845560680789</v>
+        <v>0.0005023913425912099</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9249,15 +9275,31 @@
         <f>A70</f>
         <v/>
       </c>
-      <c r="F65" s="170" t="n"/>
-      <c r="G65" s="171" t="n"/>
+      <c r="F65" s="170" t="n">
+        <v>0.02075428033241445</v>
+      </c>
+      <c r="G65" s="171" t="n">
+        <v>0.0005023913425912099</v>
+      </c>
       <c r="H65" s="171" t="n"/>
-      <c r="J65" s="170" t="n"/>
-      <c r="K65" s="171" t="n"/>
-      <c r="L65" s="172" t="n"/>
-      <c r="M65" s="170" t="n"/>
-      <c r="N65" s="171" t="n"/>
-      <c r="O65" s="172" t="n"/>
+      <c r="J65" s="170" t="n">
+        <v>0.03000000000000001</v>
+      </c>
+      <c r="K65" s="171" t="n">
+        <v>0.0004357194767441863</v>
+      </c>
+      <c r="L65" s="172" t="n">
+        <v>0.09000000000000002</v>
+      </c>
+      <c r="M65" s="170" t="n">
+        <v>0.0004401206835799859</v>
+      </c>
+      <c r="N65" s="171" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O65" s="172" t="n">
+        <v>0.0004110561101360246</v>
+      </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
           <t>&lt; 0</t>
@@ -9275,15 +9317,31 @@
           <t>ind</t>
         </is>
       </c>
-      <c r="F66" s="170" t="n"/>
-      <c r="G66" s="171" t="n"/>
+      <c r="F66" s="170" t="n">
+        <v>0.02297414188814408</v>
+      </c>
+      <c r="G66" s="171" t="n">
+        <v>0.001584746732964029</v>
+      </c>
       <c r="H66" s="171" t="n"/>
-      <c r="J66" s="170" t="n"/>
-      <c r="K66" s="171" t="n"/>
-      <c r="L66" s="172" t="n"/>
-      <c r="M66" s="170" t="n"/>
-      <c r="N66" s="171" t="n"/>
-      <c r="O66" s="172" t="n"/>
+      <c r="J66" s="170" t="n">
+        <v>0.09649607680250487</v>
+      </c>
+      <c r="K66" s="171" t="n">
+        <v>0.001307158430232559</v>
+      </c>
+      <c r="L66" s="172" t="n">
+        <v>0.2566833689422459</v>
+      </c>
+      <c r="M66" s="170" t="n">
+        <v>0.001320362050739958</v>
+      </c>
+      <c r="N66" s="171" t="n">
+        <v>0.4168706610819868</v>
+      </c>
+      <c r="O66" s="172" t="n">
+        <v>0.001233168330408074</v>
+      </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
           <t>0-0,25</t>
@@ -9299,15 +9357,31 @@
       <c r="A67" s="151" t="n">
         <v>2</v>
       </c>
-      <c r="F67" s="170" t="n"/>
-      <c r="G67" s="171" t="n"/>
+      <c r="F67" s="170" t="n">
+        <v>0.02579142894277039</v>
+      </c>
+      <c r="G67" s="171" t="n">
+        <v>0.003169493465928057</v>
+      </c>
       <c r="H67" s="171" t="n"/>
-      <c r="J67" s="170" t="n"/>
-      <c r="K67" s="171" t="n"/>
-      <c r="L67" s="172" t="n"/>
-      <c r="M67" s="170" t="n"/>
-      <c r="N67" s="171" t="n"/>
-      <c r="O67" s="172" t="n"/>
+      <c r="J67" s="170" t="n">
+        <v>0.1121783259661569</v>
+      </c>
+      <c r="K67" s="171" t="n">
+        <v>0.003177581577361638</v>
+      </c>
+      <c r="L67" s="172" t="n">
+        <v>0.2944786583942728</v>
+      </c>
+      <c r="M67" s="170" t="n">
+        <v>0.00317771427706523</v>
+      </c>
+      <c r="N67" s="171" t="n">
+        <v>0.4823388007724986</v>
+      </c>
+      <c r="O67" s="172" t="n">
+        <v>0.003176837958267925</v>
+      </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
           <t>0,25&lt;</t>
@@ -9325,15 +9399,31 @@
           <t>E0</t>
         </is>
       </c>
-      <c r="F68" s="170" t="n"/>
-      <c r="G68" s="171" t="n"/>
+      <c r="F68" s="170" t="n">
+        <v>0.02513890433665036</v>
+      </c>
+      <c r="G68" s="171" t="n">
+        <v>0.004754240198892086</v>
+      </c>
       <c r="H68" s="171" t="n"/>
-      <c r="J68" s="170" t="n"/>
-      <c r="K68" s="171" t="n"/>
-      <c r="L68" s="172" t="n"/>
-      <c r="M68" s="170" t="n"/>
-      <c r="N68" s="171" t="n"/>
-      <c r="O68" s="172" t="n"/>
+      <c r="J68" s="170" t="n">
+        <v>0.1234229641808374</v>
+      </c>
+      <c r="K68" s="171" t="n">
+        <v>0.004766372366042458</v>
+      </c>
+      <c r="L68" s="172" t="n">
+        <v>0.3287972544209887</v>
+      </c>
+      <c r="M68" s="170" t="n">
+        <v>0.004766571415597846</v>
+      </c>
+      <c r="N68" s="171" t="n">
+        <v>0.5373268342110007</v>
+      </c>
+      <c r="O68" s="172" t="n">
+        <v>0.004765256937401888</v>
+      </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
           <t>Суглинки</t>
@@ -9356,15 +9446,31 @@
           <t>devE0</t>
         </is>
       </c>
-      <c r="F69" s="170" t="n"/>
-      <c r="G69" s="171" t="n"/>
+      <c r="F69" s="170" t="n">
+        <v>0.02906654841599715</v>
+      </c>
+      <c r="G69" s="171" t="n">
+        <v>0.006338986931856114</v>
+      </c>
       <c r="H69" s="171" t="n"/>
-      <c r="J69" s="170" t="n"/>
-      <c r="K69" s="171" t="n"/>
-      <c r="L69" s="172" t="n"/>
-      <c r="M69" s="170" t="n"/>
-      <c r="N69" s="171" t="n"/>
-      <c r="O69" s="172" t="n"/>
+      <c r="J69" s="170" t="n">
+        <v>0.1324845616700702</v>
+      </c>
+      <c r="K69" s="171" t="n">
+        <v>0.006355163154723276</v>
+      </c>
+      <c r="L69" s="172" t="n">
+        <v>0.3526585909981114</v>
+      </c>
+      <c r="M69" s="170" t="n">
+        <v>0.006355428554130461</v>
+      </c>
+      <c r="N69" s="171" t="n">
+        <v>0.5740161035623473</v>
+      </c>
+      <c r="O69" s="172" t="n">
+        <v>0.00635367591653585</v>
+      </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
           <t xml:space="preserve">Пески и супеси </t>
@@ -9378,31 +9484,63 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0004357194767441863</v>
+        <v>0.0005023913425912099</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03000000000000001</v>
-      </c>
-      <c r="F70" s="170" t="n"/>
-      <c r="G70" s="171" t="n"/>
+        <v>0.02075428033241445</v>
+      </c>
+      <c r="F70" s="170" t="n">
+        <v>0.02862434152702399</v>
+      </c>
+      <c r="G70" s="171" t="n">
+        <v>0.007923733664820144</v>
+      </c>
       <c r="H70" s="171" t="n"/>
-      <c r="J70" s="170" t="n"/>
-      <c r="K70" s="171" t="n"/>
-      <c r="L70" s="172" t="n"/>
-      <c r="M70" s="170" t="n"/>
-      <c r="N70" s="171" t="n"/>
-      <c r="O70" s="172" t="n"/>
+      <c r="J70" s="170" t="n">
+        <v>0.1414678377302373</v>
+      </c>
+      <c r="K70" s="171" t="n">
+        <v>0.007943953943404095</v>
+      </c>
+      <c r="L70" s="172" t="n">
+        <v>0.3766987966983449</v>
+      </c>
+      <c r="M70" s="170" t="n">
+        <v>0.007944285692663075</v>
+      </c>
+      <c r="N70" s="171" t="n">
+        <v>0.6093916384457174</v>
+      </c>
+      <c r="O70" s="172" t="n">
+        <v>0.007942094895669813</v>
+      </c>
     </row>
     <row r="71">
-      <c r="F71" s="170" t="n"/>
-      <c r="G71" s="171" t="n"/>
+      <c r="F71" s="170" t="n">
+        <v>0.02986226401594399</v>
+      </c>
+      <c r="G71" s="171" t="n">
+        <v>0.009508480397784172</v>
+      </c>
       <c r="H71" s="171" t="n"/>
-      <c r="J71" s="170" t="n"/>
-      <c r="K71" s="171" t="n"/>
-      <c r="L71" s="172" t="n"/>
-      <c r="M71" s="170" t="n"/>
-      <c r="N71" s="171" t="n"/>
-      <c r="O71" s="172" t="n"/>
+      <c r="J71" s="170" t="n">
+        <v>0.1483775116577209</v>
+      </c>
+      <c r="K71" s="171" t="n">
+        <v>0.009532744732084916</v>
+      </c>
+      <c r="L71" s="172" t="n">
+        <v>0.3931540000943935</v>
+      </c>
+      <c r="M71" s="170" t="n">
+        <v>0.009533142831195692</v>
+      </c>
+      <c r="N71" s="171" t="n">
+        <v>0.6357384684802895</v>
+      </c>
+      <c r="O71" s="172" t="n">
+        <v>0.009530513874803775</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="151" t="inlineStr">
@@ -9415,15 +9553,31 @@
           <t>График E</t>
         </is>
       </c>
-      <c r="F72" s="170" t="n"/>
-      <c r="G72" s="171" t="n"/>
+      <c r="F72" s="170" t="n">
+        <v>0.02983029622897037</v>
+      </c>
+      <c r="G72" s="171" t="n">
+        <v>0.0110932271307482</v>
+      </c>
       <c r="H72" s="171" t="n"/>
-      <c r="J72" s="170" t="n"/>
-      <c r="K72" s="171" t="n"/>
-      <c r="L72" s="172" t="n"/>
-      <c r="M72" s="170" t="n"/>
-      <c r="N72" s="171" t="n"/>
-      <c r="O72" s="172" t="n"/>
+      <c r="J72" s="170" t="n">
+        <v>0.1524183027489027</v>
+      </c>
+      <c r="K72" s="171" t="n">
+        <v>0.01112153552076573</v>
+      </c>
+      <c r="L72" s="172" t="n">
+        <v>0.4058603297589607</v>
+      </c>
+      <c r="M72" s="170" t="n">
+        <v>0.01112199996972831</v>
+      </c>
+      <c r="N72" s="171" t="n">
+        <v>0.6622416232852429</v>
+      </c>
+      <c r="O72" s="172" t="n">
+        <v>0.01111893285393774</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="139" t="inlineStr">
@@ -9445,15 +9599,31 @@
         <f>B70</f>
         <v/>
       </c>
-      <c r="F73" s="170" t="n"/>
-      <c r="G73" s="171" t="n"/>
+      <c r="F73" s="170" t="n">
+        <v>0.03157841851231631</v>
+      </c>
+      <c r="G73" s="171" t="n">
+        <v>0.01267797386371223</v>
+      </c>
       <c r="H73" s="171" t="n"/>
-      <c r="J73" s="170" t="n"/>
-      <c r="K73" s="171" t="n"/>
-      <c r="L73" s="172" t="n"/>
-      <c r="M73" s="170" t="n"/>
-      <c r="N73" s="171" t="n"/>
-      <c r="O73" s="172" t="n"/>
+      <c r="J73" s="170" t="n">
+        <v>0.157494930300165</v>
+      </c>
+      <c r="K73" s="171" t="n">
+        <v>0.01271032630944655</v>
+      </c>
+      <c r="L73" s="172" t="n">
+        <v>0.4180539142647511</v>
+      </c>
+      <c r="M73" s="170" t="n">
+        <v>0.01271085710826092</v>
+      </c>
+      <c r="N73" s="171" t="n">
+        <v>0.6753861324797564</v>
+      </c>
+      <c r="O73" s="172" t="n">
+        <v>0.0127073518330717</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="151" t="inlineStr">
@@ -9466,15 +9636,31 @@
           <t>Касательная</t>
         </is>
       </c>
-      <c r="F74" s="170" t="n"/>
-      <c r="G74" s="171" t="n"/>
+      <c r="F74" s="170" t="n">
+        <v>0.03315661121219497</v>
+      </c>
+      <c r="G74" s="171" t="n">
+        <v>0.01426272059667626</v>
+      </c>
       <c r="H74" s="171" t="n"/>
-      <c r="J74" s="170" t="n"/>
-      <c r="K74" s="171" t="n"/>
-      <c r="L74" s="172" t="n"/>
-      <c r="M74" s="170" t="n"/>
-      <c r="N74" s="171" t="n"/>
-      <c r="O74" s="172" t="n"/>
+      <c r="J74" s="170" t="n">
+        <v>0.1611121136078896</v>
+      </c>
+      <c r="K74" s="171" t="n">
+        <v>0.01429911709812737</v>
+      </c>
+      <c r="L74" s="172" t="n">
+        <v>0.4263708821844686</v>
+      </c>
+      <c r="M74" s="170" t="n">
+        <v>0.01429971424679354</v>
+      </c>
+      <c r="N74" s="171" t="n">
+        <v>0.6905570256830088</v>
+      </c>
+      <c r="O74" s="172" t="n">
+        <v>0.01429577081220566</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="151" t="n">
@@ -9494,15 +9680,31 @@
           <t>b</t>
         </is>
       </c>
-      <c r="F75" s="170" t="n"/>
-      <c r="G75" s="171" t="n"/>
+      <c r="F75" s="170" t="n">
+        <v>0.03461485467481955</v>
+      </c>
+      <c r="G75" s="171" t="n">
+        <v>0.01584746732964029</v>
+      </c>
       <c r="H75" s="171" t="n"/>
-      <c r="J75" s="170" t="n"/>
-      <c r="K75" s="171" t="n"/>
-      <c r="L75" s="172" t="n"/>
-      <c r="M75" s="170" t="n"/>
-      <c r="N75" s="171" t="n"/>
-      <c r="O75" s="172" t="n"/>
+      <c r="J75" s="170" t="n">
+        <v>0.1626745719684585</v>
+      </c>
+      <c r="K75" s="171" t="n">
+        <v>0.01588790788680819</v>
+      </c>
+      <c r="L75" s="172" t="n">
+        <v>0.431247362090817</v>
+      </c>
+      <c r="M75" s="170" t="n">
+        <v>0.01588857138532615</v>
+      </c>
+      <c r="N75" s="171" t="n">
+        <v>0.7037393325141788</v>
+      </c>
+      <c r="O75" s="172" t="n">
+        <v>0.01588418979133963</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="173">
@@ -9520,15 +9722,31 @@
       <c r="D76" s="151" t="n">
         <v>0</v>
       </c>
-      <c r="F76" s="170" t="n"/>
-      <c r="G76" s="171" t="n"/>
+      <c r="F76" s="170" t="n">
+        <v>0.03200312924640322</v>
+      </c>
+      <c r="G76" s="171" t="n">
+        <v>0.01743221406260432</v>
+      </c>
       <c r="H76" s="171" t="n"/>
-      <c r="J76" s="170" t="n"/>
-      <c r="K76" s="171" t="n"/>
-      <c r="L76" s="172" t="n"/>
-      <c r="M76" s="170" t="n"/>
-      <c r="N76" s="171" t="n"/>
-      <c r="O76" s="172" t="n"/>
+      <c r="J76" s="170" t="n">
+        <v>0.1658870246782538</v>
+      </c>
+      <c r="K76" s="171" t="n">
+        <v>0.01747669867548901</v>
+      </c>
+      <c r="L76" s="172" t="n">
+        <v>0.4391194825565007</v>
+      </c>
+      <c r="M76" s="170" t="n">
+        <v>0.01747742852385877</v>
+      </c>
+      <c r="N76" s="171" t="n">
+        <v>0.7159180825924455</v>
+      </c>
+      <c r="O76" s="172" t="n">
+        <v>0.01747260877047359</v>
+      </c>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="A77" s="151" t="inlineStr">
@@ -9540,6 +9758,30 @@
         <is>
           <t>p1 и p2</t>
         </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0.03637141527315915</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.01901696079556834</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.1671541910336574</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.01906548946416983</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.4445233721542237</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.01906628566239138</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.7187783055369876</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.01906102774960755</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9557,6 +9799,30 @@
         <f>D76</f>
         <v/>
       </c>
+      <c r="F78" t="n">
+        <v>0.03676969310130052</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.02060170752853237</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.1693807903310514</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.02065428025285065</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.4497951594566897</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.020655142800924</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.7309050309669842</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.02064944672874151</v>
+      </c>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" s="173">
@@ -9575,12 +9841,60 @@
         <f>B89+0.2*B89</f>
         <v/>
       </c>
+      <c r="F79" t="n">
+        <v>0.03323717962041008</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0221864542614964</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.1709715418668177</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.02224307104153147</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.4562709730366031</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.02224399993945661</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.736483288501614</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.02223786570787548</v>
+      </c>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="A80" s="151" t="inlineStr">
         <is>
           <t>Касательная линия E50</t>
         </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0.03671207129595824</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02377120099446043</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.1742113320423341</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.02383186183021229</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.4587297910159881</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.02383285707798923</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.7491499988631687</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.02382628468700944</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9595,6 +9909,30 @@
           <t>Горизонтальная 1</t>
         </is>
       </c>
+      <c r="F81" t="n">
+        <v>0.03817252180782221</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02535594772742446</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.175990866654224</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.02542065261889311</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.4664290645652698</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.02542171421652184</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.7606509050228429</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.0254147036661434</v>
+      </c>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="A82" s="173">
@@ -9605,6 +9943,30 @@
         <f>B79+(B86-B79)*0.8</f>
         <v/>
       </c>
+      <c r="F82" t="n">
+        <v>0.03561558536838819</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02694069446038849</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.1781955770549488</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.02700944340757392</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.4721295667287028</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.02701057135505446</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.7706261637498633</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.02700312264527737</v>
+      </c>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" s="151" t="inlineStr">
@@ -9612,6 +9974,30 @@
           <t>Горизонтальная линия qкр</t>
         </is>
       </c>
+      <c r="F83" t="n">
+        <v>0.03803831619004239</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.02852544119335252</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.1804116618187244</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.02859823419625475</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.4781945805698904</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.02859942849358707</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.7780161936459014</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.02859154162441133</v>
+      </c>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="A84" s="151" t="inlineStr">
@@ -9623,6 +10009,30 @@
         <is>
           <t>Горизонтальная 2</t>
         </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0.038437768485171</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03011018792631654</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.1825253195197669</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.03018702498493556</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.4828873891524357</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.03018828563211969</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.7809614133126292</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.03017996060354529</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -9640,6 +10050,30 @@
         <f>D73</f>
         <v/>
       </c>
+      <c r="F85" t="n">
+        <v>0.03781099646616022</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03169493465928058</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.1828227487322923</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.03177581577361638</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.4856712755399425</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.0317771427706523</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.7898022413517189</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.03176837958267925</v>
+      </c>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" s="172">
@@ -9658,12 +10092,60 @@
         <f>D73</f>
         <v/>
       </c>
+      <c r="F86" t="n">
+        <v>0.03615505434539629</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0332796813922446</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.1859901480305167</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.03336460656229721</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.4944095227960139</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.03336599990918492</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.796779096364842</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.03335679856181321</v>
+      </c>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="A87" s="151" t="inlineStr">
         <is>
           <t>Вертикальная линия q</t>
         </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0.03846699633526537</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03486442812520863</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.1860137159886561</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.03495339735097802</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.494965413984253</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.03495485704771753</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.8082323969536707</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.03494521754094718</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -9676,6 +10158,30 @@
       </c>
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
+      <c r="F88" t="n">
+        <v>0.03774387664815368</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03644917485817266</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.1884796511809266</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.03654218813965884</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.5005022321682634</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.03654371418625015</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.8158025617198768</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.03653363652008114</v>
+      </c>
     </row>
     <row r="89" ht="15" customHeight="1">
       <c r="A89" s="172">
@@ -9686,182 +10192,4581 @@
         <f>B86</f>
         <v/>
       </c>
-    </row>
-    <row r="90" ht="15" customHeight="1"/>
-    <row r="91" ht="15" customHeight="1"/>
-    <row r="92" ht="15" customHeight="1"/>
-    <row r="93" ht="15" customHeight="1"/>
-    <row r="94" ht="15" customHeight="1"/>
-    <row r="95" ht="15" customHeight="1"/>
-    <row r="96" ht="15" customHeight="1"/>
-    <row r="97" ht="15" customHeight="1"/>
-    <row r="98" ht="15" customHeight="1"/>
-    <row r="99" ht="15" customHeight="1"/>
-    <row r="100" ht="15" customHeight="1"/>
-    <row r="101" ht="15" customHeight="1"/>
-    <row r="102" ht="15" customHeight="1"/>
-    <row r="103" ht="15" customHeight="1"/>
-    <row r="104" ht="15" customHeight="1"/>
-    <row r="105" ht="15" customHeight="1"/>
-    <row r="106" ht="15" customHeight="1"/>
-    <row r="107" ht="15" customHeight="1"/>
-    <row r="108" ht="15" customHeight="1"/>
-    <row r="109" ht="15" customHeight="1"/>
-    <row r="110" ht="15" customHeight="1"/>
-    <row r="111" ht="15" customHeight="1"/>
-    <row r="112" ht="15" customHeight="1"/>
-    <row r="113" ht="15" customHeight="1"/>
-    <row r="114" ht="15" customHeight="1"/>
-    <row r="115" ht="15" customHeight="1"/>
-    <row r="116" ht="15" customHeight="1"/>
-    <row r="117" ht="15" customHeight="1"/>
-    <row r="118" ht="15" customHeight="1"/>
-    <row r="119" ht="15" customHeight="1"/>
-    <row r="120" ht="15" customHeight="1"/>
-    <row r="121" ht="15" customHeight="1"/>
-    <row r="122" ht="15" customHeight="1"/>
-    <row r="123" ht="15" customHeight="1"/>
-    <row r="124" ht="15" customHeight="1"/>
-    <row r="125" ht="15" customHeight="1"/>
-    <row r="126" ht="15" customHeight="1"/>
-    <row r="127" ht="15" customHeight="1"/>
-    <row r="128" ht="15" customHeight="1"/>
-    <row r="129" ht="15" customHeight="1"/>
-    <row r="130" ht="15" customHeight="1"/>
-    <row r="131" ht="15" customHeight="1"/>
-    <row r="132" ht="15" customHeight="1"/>
-    <row r="133" ht="15" customHeight="1"/>
-    <row r="134" ht="15" customHeight="1"/>
-    <row r="135" ht="15" customHeight="1"/>
-    <row r="136" ht="15" customHeight="1"/>
-    <row r="137" ht="15" customHeight="1"/>
-    <row r="138" ht="15" customHeight="1"/>
-    <row r="139" ht="15" customHeight="1"/>
-    <row r="140" ht="15" customHeight="1"/>
-    <row r="141" ht="15" customHeight="1"/>
-    <row r="142" ht="15" customHeight="1"/>
-    <row r="143" ht="15" customHeight="1"/>
-    <row r="144" ht="15" customHeight="1"/>
-    <row r="145" ht="15" customHeight="1"/>
-    <row r="146" ht="15" customHeight="1"/>
-    <row r="147" ht="15" customHeight="1"/>
-    <row r="148" ht="15" customHeight="1"/>
-    <row r="149" ht="15" customHeight="1"/>
-    <row r="150" ht="15" customHeight="1"/>
-    <row r="151" ht="15" customHeight="1"/>
-    <row r="152" ht="15" customHeight="1"/>
-    <row r="153" ht="15" customHeight="1"/>
-    <row r="154" ht="15" customHeight="1"/>
-    <row r="155" ht="15" customHeight="1"/>
-    <row r="156" ht="15" customHeight="1"/>
-    <row r="157" ht="15" customHeight="1"/>
-    <row r="158" ht="15" customHeight="1"/>
-    <row r="159" ht="15" customHeight="1"/>
-    <row r="160" ht="15" customHeight="1"/>
-    <row r="161" ht="15" customHeight="1"/>
-    <row r="162" ht="15" customHeight="1"/>
-    <row r="163" ht="15" customHeight="1"/>
-    <row r="164" ht="15" customHeight="1"/>
-    <row r="165" ht="15" customHeight="1"/>
-    <row r="166" ht="15" customHeight="1"/>
-    <row r="167" ht="15" customHeight="1"/>
-    <row r="168" ht="15" customHeight="1"/>
-    <row r="169" ht="15" customHeight="1"/>
-    <row r="170" ht="15" customHeight="1"/>
-    <row r="171" ht="15" customHeight="1"/>
-    <row r="172" ht="15" customHeight="1"/>
-    <row r="173" ht="15" customHeight="1"/>
-    <row r="174" ht="15" customHeight="1"/>
-    <row r="175" ht="15" customHeight="1"/>
-    <row r="176" ht="15" customHeight="1"/>
-    <row r="177" ht="15" customHeight="1"/>
-    <row r="178" ht="15" customHeight="1"/>
-    <row r="179" ht="15" customHeight="1"/>
-    <row r="180" ht="15" customHeight="1"/>
-    <row r="181" ht="15" customHeight="1"/>
-    <row r="182" ht="15" customHeight="1"/>
-    <row r="183" ht="15" customHeight="1"/>
-    <row r="184" ht="15" customHeight="1"/>
-    <row r="185" ht="15" customHeight="1"/>
-    <row r="186" ht="15" customHeight="1"/>
-    <row r="187" ht="15" customHeight="1"/>
-    <row r="188" ht="15" customHeight="1"/>
-    <row r="189" ht="15" customHeight="1"/>
-    <row r="190" ht="15" customHeight="1"/>
-    <row r="191" ht="15" customHeight="1"/>
-    <row r="192" ht="15" customHeight="1"/>
-    <row r="193" ht="15" customHeight="1"/>
-    <row r="194" ht="15" customHeight="1"/>
-    <row r="195" ht="15" customHeight="1"/>
-    <row r="196" ht="15" customHeight="1"/>
-    <row r="197" ht="15" customHeight="1"/>
-    <row r="198" ht="15" customHeight="1"/>
-    <row r="199" ht="15" customHeight="1"/>
-    <row r="200" ht="15" customHeight="1"/>
-    <row r="201" ht="15" customHeight="1"/>
-    <row r="202" ht="15" customHeight="1"/>
-    <row r="203" ht="15" customHeight="1"/>
-    <row r="204" ht="15" customHeight="1"/>
-    <row r="205" ht="15" customHeight="1"/>
-    <row r="206" ht="15" customHeight="1"/>
-    <row r="207" ht="15" customHeight="1"/>
-    <row r="208" ht="15" customHeight="1"/>
-    <row r="209" ht="15" customHeight="1"/>
-    <row r="210" ht="15" customHeight="1"/>
-    <row r="211" ht="15" customHeight="1"/>
-    <row r="212" ht="15" customHeight="1"/>
-    <row r="213" ht="15" customHeight="1"/>
-    <row r="214" ht="15" customHeight="1"/>
-    <row r="215" ht="15" customHeight="1"/>
-    <row r="216" ht="15" customHeight="1"/>
-    <row r="217" ht="15" customHeight="1"/>
-    <row r="218" ht="15" customHeight="1"/>
-    <row r="219" ht="15" customHeight="1"/>
-    <row r="220" ht="15" customHeight="1"/>
-    <row r="221" ht="15" customHeight="1"/>
-    <row r="222" ht="15" customHeight="1"/>
-    <row r="223" ht="15" customHeight="1"/>
-    <row r="224" ht="15" customHeight="1"/>
-    <row r="225" ht="15" customHeight="1"/>
-    <row r="226" ht="15" customHeight="1"/>
-    <row r="227" ht="15" customHeight="1"/>
-    <row r="228" ht="15" customHeight="1"/>
-    <row r="229" ht="15" customHeight="1"/>
-    <row r="230" ht="15" customHeight="1"/>
-    <row r="231" ht="15" customHeight="1"/>
-    <row r="232" ht="15" customHeight="1"/>
-    <row r="233" ht="15" customHeight="1"/>
-    <row r="234" ht="15" customHeight="1"/>
-    <row r="235" ht="15" customHeight="1"/>
-    <row r="236" ht="15" customHeight="1"/>
-    <row r="237" ht="15" customHeight="1"/>
-    <row r="238" ht="15" customHeight="1"/>
-    <row r="239" ht="15" customHeight="1"/>
-    <row r="240" ht="15" customHeight="1"/>
-    <row r="241" ht="15" customHeight="1"/>
-    <row r="242" ht="15" customHeight="1"/>
-    <row r="243" ht="15" customHeight="1"/>
-    <row r="244" ht="15" customHeight="1"/>
-    <row r="245" ht="15" customHeight="1"/>
-    <row r="246" ht="15" customHeight="1"/>
-    <row r="247" ht="15" customHeight="1"/>
-    <row r="248" ht="15" customHeight="1"/>
-    <row r="249" ht="15" customHeight="1"/>
-    <row r="250" ht="15" customHeight="1"/>
-    <row r="251" ht="15" customHeight="1"/>
-    <row r="252" ht="15" customHeight="1"/>
-    <row r="253" ht="15" customHeight="1"/>
-    <row r="254" ht="15" customHeight="1"/>
-    <row r="255" ht="15" customHeight="1"/>
-    <row r="256" ht="15" customHeight="1"/>
-    <row r="257" ht="15" customHeight="1"/>
-    <row r="258" ht="15" customHeight="1"/>
-    <row r="259" ht="15" customHeight="1"/>
-    <row r="260" ht="15" customHeight="1"/>
-    <row r="261" ht="15" customHeight="1"/>
-    <row r="262" ht="15" customHeight="1"/>
-    <row r="263" ht="15" customHeight="1"/>
-    <row r="264" ht="15" customHeight="1"/>
+      <c r="F89" t="n">
+        <v>0.03698274949644745</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03803392159113669</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.1886741521815442</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.03813097892833966</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.5025832604116482</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.03813257132478277</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.816130009265132</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.0381220554992151</v>
+      </c>
+    </row>
+    <row r="90" ht="15" customHeight="1">
+      <c r="F90" t="n">
+        <v>0.04018066909253283</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03961866832410071</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.1893834175647249</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.03971976971702048</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.5077717817780109</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.03972142846331538</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.8234551581911087</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.03971047447834906</v>
+      </c>
+    </row>
+    <row r="91" ht="15" customHeight="1">
+      <c r="F91" t="n">
+        <v>0.04033468964879607</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04120341505706474</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.1906936459046847</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.04130856050570129</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.5075310793309546</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.041310285601848</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.8259184270994786</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.04129889345748303</v>
+      </c>
+    </row>
+    <row r="92" ht="15" customHeight="1">
+      <c r="F92" t="n">
+        <v>0.03944186537762334</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04278816179002878</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.1916910357756398</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.04289735129438212</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.5117244361340828</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.04289914274038061</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.8272602345919138</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.04288731243661699</v>
+      </c>
+    </row>
+    <row r="93" ht="15" customHeight="1">
+      <c r="F93" t="n">
+        <v>0.04150856066482891</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0443729085229928</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.1929921536050097</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.04448614208306294</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.5133667378844917</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.04448799987891322</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.8337413221639736</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.04447573141575095</v>
+      </c>
+    </row>
+    <row r="94" ht="15" customHeight="1">
+      <c r="F94" t="n">
+        <v>0.04050631090464499</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04595765525595683</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.1916920944073998</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.04607493287174375</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.5111664597453055</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.04607685701744584</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.8305412328110269</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.04606415039488491</v>
+      </c>
+    </row>
+    <row r="95" ht="15" customHeight="1">
+      <c r="F95" t="n">
+        <v>0.03948266921027917</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04754240198892086</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.1913335720335222</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.04766372366042457</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.5111131270817955</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.04766571415597846</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.832867586848107</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.04765256937401888</v>
+      </c>
+    </row>
+    <row r="96" ht="15" customHeight="1">
+      <c r="F96" t="n">
+        <v>0.03843452345389953</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04912714872188489</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.1927573778459095</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.0492525144491054</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.5109465586086792</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.04925457129451107</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.8299871996902397</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.04924098835315284</v>
+      </c>
+    </row>
+    <row r="97" ht="15" customHeight="1">
+      <c r="F97" t="n">
+        <v>0.03736342615053033</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.05071189545484892</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.1907708157534254</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.05084130523778621</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.5102862468778069</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.05084342843304369</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.8300314724525766</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.0508294073322868</v>
+      </c>
+    </row>
+    <row r="98" ht="15" customHeight="1">
+      <c r="F98" t="n">
+        <v>0.03727092981519585</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.05229664218781295</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.1910811595054692</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.05243009602646703</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.5073515427735176</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.0524322855715763</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.8229318062502684</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.05241782631142076</v>
+      </c>
+    </row>
+    <row r="99" ht="15" customHeight="1">
+      <c r="F99" t="n">
+        <v>0.03815858696292038</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.05388138892077697</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.19049568285144</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.05401888681514785</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.5088617971801498</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.05402114271010892</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.8273196021984668</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.05400624529055473</v>
+      </c>
+    </row>
+    <row r="100" ht="15" customHeight="1">
+      <c r="F100" t="n">
+        <v>0.04102795010872817</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.05546613565374101</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.189821659540737</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.05560767760382867</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.5050363609820424</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.05560999984864153</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.8210262614123227</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.05559466426968868</v>
+      </c>
+    </row>
+    <row r="101" ht="15" customHeight="1">
+      <c r="F101" t="n">
+        <v>0.03888057176764351</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05705088238670503</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.1896663633227596</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.05719646839250949</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.502594585063534</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.05719885698717415</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.8144831850069871</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.05718308324882265</v>
+      </c>
+    </row>
+    <row r="102" ht="15" customHeight="1">
+      <c r="F102" t="n">
+        <v>0.03871800445469067</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.05863562911966905</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.1889370679469068</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.05878525918119031</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.5016558203089638</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.05878771412570676</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.8163217740976116</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.05877150222795662</v>
+      </c>
+    </row>
+    <row r="103" ht="15" customHeight="1">
+      <c r="F103" t="n">
+        <v>0.03754180068489395</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.06022037585263309</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.1873410471625779</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.06037404996987113</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.5022394176026703</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.06037657126423937</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.8114734297993469</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.06035992120709058</v>
+      </c>
+    </row>
+    <row r="104" ht="15" customHeight="1">
+      <c r="F104" t="n">
+        <v>0.04035351297327759</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.06180512258559712</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.1865855747191721</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.06196284075855195</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.4980647278289924</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.06196542840277199</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.8052695532273446</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.06194834018622455</v>
+      </c>
+    </row>
+    <row r="105" ht="15" customHeight="1">
+      <c r="F105" t="n">
+        <v>0.03815469383486587</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.06338986931856115</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.1865779243660885</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.06355163154723276</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.4938511018722689</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.0635542855413046</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.8070415454967552</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.0635367591653585</v>
+      </c>
+    </row>
+    <row r="106" ht="15" customHeight="1">
+      <c r="F106" t="n">
+        <v>0.0359468957846831</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.06497461605152517</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.1842253698527264</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.06514042233591359</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.4935178906168385</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.06514314267983722</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.7984208077227304</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.06512517814449247</v>
+      </c>
+    </row>
+    <row r="107" ht="15" customHeight="1">
+      <c r="F107" t="n">
+        <v>0.03973167133775352</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.06655936278448919</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.1845351849284849</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.06672921312459441</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.48768444494704</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.06673199981836984</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.7946387410204216</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.06671359712362643</v>
+      </c>
+    </row>
+    <row r="108" ht="15" customHeight="1">
+      <c r="F108" t="n">
+        <v>0.03751057300910141</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.06814410951745323</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.1825146433427633</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.06831800391327522</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.4849701157472123</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.06832085695690245</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.7880267465049793</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.06830201610276039</v>
+      </c>
+    </row>
+    <row r="109" ht="15" customHeight="1">
+      <c r="F109" t="n">
+        <v>0.03628515331375104</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.06972885625041726</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.1811710188449608</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.06990679470195604</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.4827942539016942</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.06990971409543506</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.784416225291555</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.06989043508189435</v>
+      </c>
+    </row>
+    <row r="110" ht="15" customHeight="1">
+      <c r="F110" t="n">
+        <v>0.03505696476672672</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.0713136029833813</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.1820115851844766</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.07149558549063686</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.4819762102948243</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.07149857123396769</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.7847385784952998</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.07147885406102832</v>
+      </c>
+    </row>
+    <row r="111" ht="15" customHeight="1">
+      <c r="F111" t="n">
+        <v>0.03582755988305268</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.07289834971634532</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.1799436161107097</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.07308437627931767</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.4786353358109415</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.0730874283725003</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.7793252072313652</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.07306727304016228</v>
+      </c>
+    </row>
+    <row r="112" ht="15" customHeight="1">
+      <c r="F112" t="n">
+        <v>0.03559849117775322</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.07448309644930934</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.1788743853730596</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.07467316706799849</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.4742909813343849</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.07467628551103291</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.7745075126149019</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.07465569201929624</v>
+      </c>
+    </row>
+    <row r="113" ht="15" customHeight="1">
+      <c r="F113" t="n">
+        <v>0.03537131116585264</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.07606784318227337</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.1778111667209253</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.07626195785667933</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.4749624977494927</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.07626514264956553</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.768916895761061</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.0762441109984302</v>
+      </c>
+    </row>
+    <row r="114" ht="15" customHeight="1">
+      <c r="F114" t="n">
+        <v>0.03814135767612252</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.07765258991523741</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.175958454816473</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.07785074864536014</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.4703623761268044</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.07785399978809815</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.7673673092371114</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.07783252997756417</v>
+      </c>
+    </row>
+    <row r="115" ht="15" customHeight="1">
+      <c r="F115" t="n">
+        <v>0.03688128075004386</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.07923733664820143</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.1760043445460976</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.07943953943404096</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.4664948849385788</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.07944285692663075</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.7624589025371113</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.07942094895669813</v>
+      </c>
+    </row>
+    <row r="116" ht="15" customHeight="1">
+      <c r="F116" t="n">
+        <v>0.03559197786658511</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.08082208338116546</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.1739046671421421</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.08102833022272177</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.4655397548020652</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.08103171406516338</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.7503254968777477</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.08100936793583209</v>
+      </c>
+    </row>
+    <row r="117" ht="15" customHeight="1">
+      <c r="F117" t="n">
+        <v>0.03427850730527558</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.08240683011412948</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.1736831213496185</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.08261712101140259</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.4586600332115522</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.08262057120369599</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.7478694008457217</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.08259778691496605</v>
+      </c>
+    </row>
+    <row r="118" ht="15" customHeight="1">
+      <c r="F118" t="n">
+        <v>0.03594592734564457</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.08399157684709352</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.1720634059135386</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.08420591180008341</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.4564187676613278</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.0842094283422286</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.7394929230277357</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0.08418620589410002</v>
+      </c>
+    </row>
+    <row r="119" ht="15" customHeight="1">
+      <c r="F119" t="n">
+        <v>0.03459929626722141</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.08557632358005755</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.1705692195789143</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.08579470258876423</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.4526790056456799</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.08579828548076122</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.7328983720104914</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0.08577462487323398</v>
+      </c>
+    </row>
+    <row r="120" ht="15" customHeight="1">
+      <c r="F120" t="n">
+        <v>0.03324367234953544</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.08716107031302157</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.1690242610907575</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.08738349337744505</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.4474037946588967</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.08738714261929384</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.7303880563806905</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0.08736304385236794</v>
+      </c>
+    </row>
+    <row r="121" ht="15" customHeight="1">
+      <c r="F121" t="n">
+        <v>0.03388411387211597</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.08874581704598561</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.1661522291940799</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.08897228416612588</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.4429561821952661</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.08897599975782644</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.7221642847250348</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0.0889514628315019</v>
+      </c>
+    </row>
+    <row r="122" ht="15" customHeight="1">
+      <c r="F122" t="n">
+        <v>0.03152567911449232</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.09033056377894963</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.1644768226338936</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.09056107495480668</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.4371992157490764</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.09056485689635907</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.7113293656302262</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0.09053988181063587</v>
+      </c>
+    </row>
+    <row r="123" ht="15" customHeight="1">
+      <c r="F123" t="n">
+        <v>0.03117342635619378</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.09191531051191366</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.1624217401552102</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.09214986574348751</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.4316959428146157</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.09215371403489168</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.7010856076829667</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0.09212830078976983</v>
+      </c>
+    </row>
+    <row r="124" ht="15" customHeight="1">
+      <c r="F124" t="n">
+        <v>0.03483241387674972</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.09350005724487769</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.1616106805030418</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.09373865653216833</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.4314094108861719</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.09374257117342429</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.7010353194699578</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0.09371671976890379</v>
+      </c>
+    </row>
+    <row r="125" ht="15" customHeight="1">
+      <c r="F125" t="n">
+        <v>0.03350724217026618</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.09508480397784172</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.1596673424224</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.09532744732084915</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.4253026674580334</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.09533142831195691</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.6884808095779016</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0.09530513874803775</v>
+      </c>
+    </row>
+    <row r="126" ht="15" customHeight="1">
+      <c r="F126" t="n">
+        <v>0.03316829765581951</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.09666955071080575</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.1580359062959327</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.09691623810952997</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.4192303690794396</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.09692028545048953</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.6802516715090714</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0.09689355772717172</v>
+      </c>
+    </row>
+    <row r="127" ht="15" customHeight="1">
+      <c r="F127" t="n">
+        <v>0.02980055798496786</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.09825429744376978</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.1576650142500707</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.09850502889821079</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.4146875249678083</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.09850914258902214</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.680817047911175</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0.09848197670630568</v>
+      </c>
+    </row>
+    <row r="128" ht="15" customHeight="1">
+      <c r="F128" t="n">
+        <v>0.03341126408633929</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.0998390441767338</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.1545815646014337</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.1000938196868916</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.4136447318480683</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.1000979997275548</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.6682010907119517</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0.1000703956854396</v>
+      </c>
+    </row>
+    <row r="129" ht="15" customHeight="1">
+      <c r="F129" t="n">
+        <v>0.03100765688856185</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.1014237909096978</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.1523194821104487</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.1016826104755724</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.406292242226763</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.1016868568660874</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.664950254683236</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0.1016588146645736</v>
+      </c>
+    </row>
+    <row r="130" ht="15" customHeight="1">
+      <c r="F130" t="n">
+        <v>0.02959697732026358</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.1030085376426619</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.1508126915375427</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.1032714012642532</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.4003203086104357</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.10327571400462</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.6512109945968639</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0.1032472336437076</v>
+      </c>
+    </row>
+    <row r="131" ht="15" customHeight="1">
+      <c r="F131" t="n">
+        <v>0.03018646631007255</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.1045932843756259</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.1495951176431428</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.1048601920529341</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.3990191835056296</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.1048645711431526</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.6417297652246697</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0.1048356526228415</v>
+      </c>
+    </row>
+    <row r="132" ht="15" customHeight="1">
+      <c r="F132" t="n">
+        <v>0.03078336478661681</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.1061780311085899</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.1483006851876761</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.1064489828416149</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.3931791194188881</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.1064534282816852</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.6330530213384892</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0.1064240716019755</v>
+      </c>
+    </row>
+    <row r="133" ht="15" customHeight="1">
+      <c r="F133" t="n">
+        <v>0.0313949136785244</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.1077627778415539</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.1446633189315695</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.1080377736302957</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.3875903688567542</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.1080422854202178</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.6278272177101569</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0.1080124905811095</v>
+      </c>
+    </row>
+    <row r="134" ht="15" customHeight="1">
+      <c r="F134" t="n">
+        <v>0.02802835391442337</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.109347524574518</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.1443169436352502</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.1096265644189765</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.3845431843257713</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.1096311425587504</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.6229988091115083</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0.1096009095602434</v>
+      </c>
+    </row>
+    <row r="135" ht="15" customHeight="1">
+      <c r="F135" t="n">
+        <v>0.02769092642294179</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.110932271307482</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.1419954840591452</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.1112153552076573</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.3797278183324826</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.1112199996972831</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.6138142503143783</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0.1111893285393774</v>
+      </c>
+    </row>
+    <row r="136" ht="15" customHeight="1">
+      <c r="F136" t="n">
+        <v>0.02738987213270771</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.112517018040446</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.1409328649636817</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.1128041459963382</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.3720345233834312</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.1128088568358157</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.6042199960906018</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0.1127777475185113</v>
+      </c>
+    </row>
+    <row r="137" ht="15" customHeight="1">
+      <c r="F137" t="n">
+        <v>0.02813243197234916</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.1141017647734101</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.1386630111092865</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.114392936785019</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.3720535519851607</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.1143977139743483</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.6036625012120146</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0.1143661664976453</v>
+      </c>
+    </row>
+    <row r="138" ht="15" customHeight="1">
+      <c r="F138" t="n">
+        <v>0.02892584687049421</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.1156865115063741</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.1376198472563868</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.1159817275736998</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.370475156644214</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.1159865711128809</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.5963882204504509</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0.1159545854767793</v>
+      </c>
+    </row>
+    <row r="139" ht="15" customHeight="1">
+      <c r="F139" t="n">
+        <v>0.02677735775577092</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.1172712582393381</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.1370372981654097</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.1175705183623806</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.3642895898671347</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.1175754282514135</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.5945436085777467</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0.1175430044559132</v>
+      </c>
+    </row>
+    <row r="140" ht="15" customHeight="1">
+      <c r="F140" t="n">
+        <v>0.02769420555680732</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.1188560049723022</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.1369492885967821</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.1191593091510614</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.3664871041604656</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.1191642853899461</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.5930751203657363</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0.1191314234350472</v>
+      </c>
+    </row>
+    <row r="141" ht="15" customHeight="1">
+      <c r="F141" t="n">
+        <v>0.02567933931269564</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.1204407517052662</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.1371894412650349</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.1207480999397423</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.3651573244864619</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.1207531425284787</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.5902256506349565</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0.1207198424141812</v>
+      </c>
+    </row>
+    <row r="142" ht="15" customHeight="1">
+      <c r="F142" t="n">
+        <v>0.02768878554032253</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.1220254984382302</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.1377176080765828</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.1223368907284231</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.3622315546468825</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.1223419996670114</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.5887536486265111</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0.1223082613933151</v>
+      </c>
+    </row>
+    <row r="143" ht="15" customHeight="1">
+      <c r="F143" t="n">
+        <v>0.02670877000435917</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.1236102451711942</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.13779579641726</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.1239256815171039</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.3651388889470463</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0.123930856805544</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.5908973351215627</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0.1238966803724491</v>
+      </c>
+    </row>
+    <row r="144" ht="15" customHeight="1">
+      <c r="F144" t="n">
+        <v>0.02973876064400762</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.1251949919041583</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.1377215135080279</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.1255144723057847</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.3662726956656486</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0.1255197139440766</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.5902459486768259</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0.125485099351583</v>
+      </c>
+    </row>
+    <row r="145" ht="15" customHeight="1">
+      <c r="F145" t="n">
+        <v>0.02577822539846992</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.1267797386371223</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.1377922665698479</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.1271032630944655</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.3670263430813846</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.1271085710826092</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.5929887278490147</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0.127073518330717</v>
+      </c>
+    </row>
+    <row r="146" ht="15" customHeight="1">
+      <c r="F146" t="n">
+        <v>0.0278266322069481</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.1283644853700863</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.1382055628236818</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.1286920538831463</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.3667931994729497</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0.1286974282211418</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.5972149111948435</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0.128661937309851</v>
+      </c>
+    </row>
+    <row r="147" ht="15" customHeight="1">
+      <c r="F147" t="n">
+        <v>0.02688344900864425</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.1299492321030503</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.137158909490491</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.1302808446718272</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.3643666331190394</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0.1302862853596744</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.5963137372710268</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0.1302503562889849</v>
+      </c>
+    </row>
+    <row r="148" ht="15" customHeight="1">
+      <c r="F148" t="n">
+        <v>0.02894814374276039</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.1315339788360144</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.1380498137912371</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.131869635460508</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.3657400122983488</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0.1318751424982071</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.597874444634279</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0.1318387752681189</v>
+      </c>
+    </row>
+    <row r="149" ht="15" customHeight="1">
+      <c r="F149" t="n">
+        <v>0.03002018434849857</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.1331187255689784</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.1380757829468814</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.1334584262491888</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.3697067052895733</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0.1334639996367397</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.5944862718413141</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0.1334271942472529</v>
+      </c>
+    </row>
+    <row r="150" ht="15" customHeight="1">
+      <c r="F150" t="n">
+        <v>0.02709903876506086</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.1347034723019424</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.1380343241783857</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.1350472170378696</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.3685600803714082</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0.1350528567752723</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.603338457448847</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0.1350156132263868</v>
+      </c>
+    </row>
+    <row r="151" ht="15" customHeight="1">
+      <c r="F151" t="n">
+        <v>0.0281841749316493</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.1362882190349065</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.1398229447067114</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.1366360078265504</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.3723935058225486</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0.1366417139138049</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.6031202400135914</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0.1366040322055208</v>
+      </c>
+    </row>
+    <row r="152" ht="15" customHeight="1">
+      <c r="F152" t="n">
+        <v>0.02927506078746593</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.1378729657678705</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.1389391517528201</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.1382247986152313</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.3738003499216902</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0.1382305710523375</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.6059208580922623</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0.1381924511846547</v>
+      </c>
+    </row>
+    <row r="153" ht="15" customHeight="1">
+      <c r="F153" t="n">
+        <v>0.03037116427171281</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.1394577125008345</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.1400804525376732</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.1398135894039121</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.373773980947528</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0.1398194281908701</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.6029295502415736</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0.1397808701637887</v>
+      </c>
+    </row>
+    <row r="154" ht="15" customHeight="1">
+      <c r="F154" t="n">
+        <v>0.02851408393110923</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.1410424592337985</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.1408432154999221</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.1414023801925929</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0.3745672078481442</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0.1414082853294027</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0.6071954962207878</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0.1413692891429227</v>
+      </c>
+    </row>
+    <row r="155" ht="15" customHeight="1">
+      <c r="F155" t="n">
+        <v>0.02974429323362977</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.1426272059667626</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.1411099689038416</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.1429911709812737</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0.3761341472293029</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0.1429971424679354</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.6086142450072718</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0.1429577081220566</v>
+      </c>
+    </row>
+    <row r="156" ht="15" customHeight="1">
+      <c r="F156" t="n">
+        <v>0.03104584690787749</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.1442119526997266</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.1436310078381795</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.1445799617699545</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.3778444900517932</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0.144585999606468</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.6148545303562745</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0.1445461271011906</v>
+      </c>
+    </row>
+    <row r="157" ht="15" customHeight="1">
+      <c r="F157" t="n">
+        <v>0.02940268332253682</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.1457966994326906</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.1452310813203009</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.1461687525586353</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.3865980406556568</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0.1461748567450006</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.6238914902686715</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0.1461345460803246</v>
+      </c>
+    </row>
+    <row r="158" ht="15" customHeight="1">
+      <c r="F158" t="n">
+        <v>0.02879874084629214</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.1473814461656547</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.1457349383675711</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.1477575433473162</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.3889946033809348</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0.1477637138835332</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.634900262745339</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0.1477229650594585</v>
+      </c>
+    </row>
+    <row r="159" ht="15" customHeight="1">
+      <c r="F159" t="n">
+        <v>0.03021795784782788</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.1489661928986187</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.1492673279973553</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.149346334135997</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.3970339825676689</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0.1493525710220658</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.6450559857871525</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0.1493113840385925</v>
+      </c>
+    </row>
+    <row r="160" ht="15" customHeight="1">
+      <c r="F160" t="n">
+        <v>0.03264427269582844</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.1505509396315827</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.1497529992270187</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.1509351249246778</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.4015159825559006</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0.1509414281605984</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.6522337973949881</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0.1508998030177265</v>
+      </c>
+    </row>
+    <row r="161" ht="15" customHeight="1">
+      <c r="F161" t="n">
+        <v>0.03206162375897822</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.1521356863645467</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.1529167010739265</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.1525239157133587</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0.403540407685671</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0.1525302852991311</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0.6562088355697212</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0.1524882219968604</v>
+      </c>
+    </row>
+    <row r="162" ht="15" customHeight="1">
+      <c r="F162" t="n">
+        <v>0.03145394940596163</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.1537204330975108</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.153283182555444</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.1541127065020395</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0.4101070622970218</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0.1541191424376637</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0.6630562383122279</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0.1540766409759944</v>
+      </c>
+    </row>
+    <row r="163" ht="15" customHeight="1">
+      <c r="F163" t="n">
+        <v>0.0318051880054631</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.1553051798304748</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.1549771926889364</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.1557014972907203</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0.4161157507299943</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0.1557079995761963</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0.6704511436233842</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0.1556650599551283</v>
+      </c>
+    </row>
+    <row r="164" ht="15" customHeight="1">
+      <c r="F164" t="n">
+        <v>0.03211056194402867</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.1568899265634388</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.1574411575440077</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.1572902880794011</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.4160122035235191</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0.1572968567147289</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0.6805554271996426</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0.1572534789342623</v>
+      </c>
+    </row>
+    <row r="165" ht="15" customHeight="1">
+      <c r="F165" t="n">
+        <v>0.03140463731425998</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.1584746732964029</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.157920486216904</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.1588790788680819</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.4218818019394676</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0.1588857138532615</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0.685709418765864</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0.1588418979133963</v>
+      </c>
+    </row>
+    <row r="166" ht="15" customHeight="1">
+      <c r="F166" t="n">
+        <v>0.03369180894643749</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.1600594200293669</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.1609669506934614</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0.1604678696567627</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0.4244639467402523</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0.1604745709917942</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.6915217396714236</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0.1604303168925302</v>
+      </c>
+    </row>
+    <row r="167" ht="15" customHeight="1">
+      <c r="F167" t="n">
+        <v>0.03497258636384858</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.1616441667623309</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.1608829381613383</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.1620566604454435</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0.4307649887347523</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0.1620634281303268</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.6941026955166983</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0.1620187358716642</v>
+      </c>
+    </row>
+    <row r="168" ht="15" customHeight="1">
+      <c r="F168" t="n">
+        <v>0.03224747908978058</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.1632289134952949</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.1618708358081929</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.1636454512341244</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0.4344912787318476</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0.1636522852688594</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.7026625919020645</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0.1636071548507982</v>
+      </c>
+    </row>
+    <row r="169" ht="15" customHeight="1">
+      <c r="F169" t="n">
+        <v>0.03351699664752091</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.164813660228259</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.1647330308216837</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0.1652342420228052</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.4379491675404172</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0.165241142407392</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.7114117344278986</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0.1651955738299321</v>
+      </c>
+    </row>
+    <row r="170" ht="15" customHeight="1">
+      <c r="F170" t="n">
+        <v>0.03578164856035691</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.166398406961223</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.165971910389469</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.166823032811486</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0.4411450059693409</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0.1668299995459246</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0.7170604286945775</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0.1667839928090661</v>
+      </c>
+    </row>
+    <row r="171" ht="15" customHeight="1">
+      <c r="F171" t="n">
+        <v>0.03604194435157594</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.167983153694187</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.165989861699207</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0.1684118236001668</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0.4448851448274983</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0.1684188566844572</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0.7158189803024774</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0.1683724117882</v>
+      </c>
+    </row>
+    <row r="172" ht="15" customHeight="1">
+      <c r="F172" t="n">
+        <v>0.03529839354446537</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.1695679004271511</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.1679892719385563</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0.1700006143888476</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.4479759349237686</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0.1700077138229898</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0.722797694851975</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0.169960830767334</v>
+      </c>
+    </row>
+    <row r="173" ht="15" customHeight="1">
+      <c r="F173" t="n">
+        <v>0.03455150566231259</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.1711526471601151</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.1695725282951752</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0.1715894051775285</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0.4479237270670317</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0.1715965709615224</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0.7259068779434468</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0.171549249746468</v>
+      </c>
+    </row>
+    <row r="174" ht="15" customHeight="1">
+      <c r="F174" t="n">
+        <v>0.03280179022840493</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.1727373938930791</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.1706420179567218</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0.1731781959662093</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0.4514348720661666</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0.173185428100055</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.7320568351772693</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0.1731376687256019</v>
+      </c>
+    </row>
+    <row r="175" ht="15" customHeight="1">
+      <c r="F175" t="n">
+        <v>0.03404975676602977</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.1743221406260431</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.1715001281108549</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0.1747669867548901</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0.4565157207300534</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0.1747742852385877</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0.7389578721538193</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0.1747260877047359</v>
+      </c>
+    </row>
+    <row r="176" ht="15" customHeight="1">
+      <c r="F176" t="n">
+        <v>0.03330575130333872</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.1759068873590072</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.1715773420940654</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.1763557775435709</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.4606466732742693</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0.1763631423771203</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0.742648011566158</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0.1763145066838698</v>
+      </c>
+    </row>
+    <row r="177" ht="15" customHeight="1">
+      <c r="F177" t="n">
+        <v>0.03357487426122804</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.1774916340919712</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.1739216701024655</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0.1779445683322518</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0.4622562853950225</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0.1779519995156529</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0.7524267419467028</v>
+      </c>
+      <c r="O177" t="n">
+        <v>0.1779029256630038</v>
+      </c>
+    </row>
+    <row r="178" ht="15" customHeight="1">
+      <c r="F178" t="n">
+        <v>0.03684837763512937</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.1790763808249352</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.1737955497561075</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0.1795333591209326</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0.4641449089758378</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0.1795408566541855</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0.7529294728423639</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0.1794913446421378</v>
+      </c>
+    </row>
+    <row r="179" ht="15" customHeight="1">
+      <c r="F179" t="n">
+        <v>0.03811750871362639</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.1806611275578993</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.1756579733813714</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0.1811221499096134</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0.4699034483212662</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0.1811297137927181</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0.759679172214951</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0.1810797636212717</v>
+      </c>
+    </row>
+    <row r="180" ht="15" customHeight="1">
+      <c r="F180" t="n">
+        <v>0.03837351478530282</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.1822458742908633</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.1771679333046371</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0.1827109406982942</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0.4702228077358592</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0.1827185709312507</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0.7668988080262742</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0.1826681826004057</v>
+      </c>
+    </row>
+    <row r="181" ht="15" customHeight="1">
+      <c r="F181" t="n">
+        <v>0.03760764313874233</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.1838306210238273</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.1773844218522844</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0.184299731486975</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0.4758938915241685</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0.1843074280697834</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.7684113482381425</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0.1842566015795397</v>
+      </c>
+    </row>
+    <row r="182" ht="15" customHeight="1">
+      <c r="F182" t="n">
+        <v>0.03781114106252861</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.1854153677567913</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.1794664313506935</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0.1858885222756558</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0.474407603990745</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0.185896285208316</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0.7754397608123664</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0.1858450205586736</v>
+      </c>
+    </row>
+    <row r="183" ht="15" customHeight="1">
+      <c r="F183" t="n">
+        <v>0.03697525584524539</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.1870001144897554</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.1810729541262441</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0.1874773130643367</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0.4768548494401403</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0.1874851423468486</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.7798070137107562</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0.1874334395378076</v>
+      </c>
+    </row>
+    <row r="184" ht="15" customHeight="1">
+      <c r="F184" t="n">
+        <v>0.03609234032026006</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.1885848612227194</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.1804629825053163</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0.1890661038530175</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0.4797265321769058</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0.1890739994853812</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0.7797362406908372</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0.1890218585169415</v>
+      </c>
+    </row>
+    <row r="185" ht="15" customHeight="1">
+      <c r="F185" t="n">
+        <v>0.03819125077630182</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.1901696079556834</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.1808259942032354</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0.1906548946416983</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0.4826583045003884</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0.1906628566239138</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0.7856352424126989</v>
+      </c>
+      <c r="O185" t="n">
+        <v>0.1906102774960755</v>
+      </c>
+    </row>
+    <row r="186" ht="15" customHeight="1">
+      <c r="F186" t="n">
+        <v>0.03828807093682786</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.1917543546886475</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.1825792676890809</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0.1922436854303791</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0.4852641657736472</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0.1922517137624464</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0.7880921826220784</v>
+      </c>
+      <c r="O186" t="n">
+        <v>0.1921986964752095</v>
+      </c>
+    </row>
+    <row r="187" ht="15" customHeight="1">
+      <c r="F187" t="n">
+        <v>0.03538276859067577</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.1933391014216115</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.1814226522090959</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0.1938324762190599</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0.4855437211185266</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0.1938405709009791</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0.7879064098171198</v>
+      </c>
+      <c r="O187" t="n">
+        <v>0.1937871154543434</v>
+      </c>
+    </row>
+    <row r="188" ht="15" customHeight="1">
+      <c r="F188" t="n">
+        <v>0.03647531152668314</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.1949238481545755</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.1821559968494926</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0.1954212670077408</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0.4856965690481049</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0.1954294280395117</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.7902772724959668</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0.1953755344334774</v>
+      </c>
+    </row>
+    <row r="189" ht="15" customHeight="1">
+      <c r="F189" t="n">
+        <v>0.03856566753368758</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.1965085948875396</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.1837791506964828</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0.1970100577964216</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0.4854223080754605</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.1970182851780443</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.7881041191567637</v>
+      </c>
+      <c r="O189" t="n">
+        <v>0.1969639534126114</v>
+      </c>
+    </row>
+    <row r="190" ht="15" customHeight="1">
+      <c r="F190" t="n">
+        <v>0.03665380440052668</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.1980933416205036</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.1830919628362788</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0.1985988485851024</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0.4871205367136715</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.1986071423165769</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.7954862982976543</v>
+      </c>
+      <c r="O190" t="n">
+        <v>0.1985523723917453</v>
+      </c>
+    </row>
+    <row r="191" ht="15" customHeight="1">
+      <c r="F191" t="n">
+        <v>0.03973968991603803</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.1996780883534676</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.1846942823550924</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0.2001876393737832</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0.4885908534758162</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0.2001959994551095</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.7903231584167825</v>
+      </c>
+      <c r="O191" t="n">
+        <v>0.2001407913708793</v>
+      </c>
+    </row>
+    <row r="192" ht="15" customHeight="1">
+      <c r="F192" t="n">
+        <v>0.03582329186905925</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.2012628350864316</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.1835859583391359</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0.201776430162464</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0.4875328568749729</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0.2017848565936421</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0.7946140480122932</v>
+      </c>
+      <c r="O192" t="n">
+        <v>0.2017292103500133</v>
+      </c>
+    </row>
+    <row r="193" ht="15" customHeight="1">
+      <c r="F193" t="n">
+        <v>0.03690457804842791</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.2028475818193957</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.1845668398746211</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0.2033652209511448</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0.4884461454242196</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0.2033737137321747</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0.7977583155823291</v>
+      </c>
+      <c r="O193" t="n">
+        <v>0.2033176293291472</v>
+      </c>
+    </row>
+    <row r="194" ht="15" customHeight="1">
+      <c r="F194" t="n">
+        <v>0.03898351624298162</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.2044323285523597</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.1854367760477603</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0.2049540117398257</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0.489830317636635</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0.2049625708707074</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.7990553096250352</v>
+      </c>
+      <c r="O194" t="n">
+        <v>0.2049060483082812</v>
+      </c>
+    </row>
+    <row r="195" ht="15" customHeight="1">
+      <c r="F195" t="n">
+        <v>0.03606007424155799</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.2060170752853237</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.1842956159447652</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0.2065428025285065</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0.4933849720252969</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0.20655142800924</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.796804378638555</v>
+      </c>
+      <c r="O195" t="n">
+        <v>0.2064944672874151</v>
+      </c>
+    </row>
+    <row r="196" ht="15" customHeight="1">
+      <c r="F196" t="n">
+        <v>0.04013421983299459</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.2076018220182878</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.1851432086518481</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0.2081315933171873</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0.4912097071032837</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.2081402851477726</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.7976048711210328</v>
+      </c>
+      <c r="O196" t="n">
+        <v>0.2080828862665491</v>
+      </c>
+    </row>
+    <row r="197" ht="15" customHeight="1">
+      <c r="F197" t="n">
+        <v>0.03620592080612904</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.2091865687512518</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.1868794032552211</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0.2097203841058681</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0.4939041213836737</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.2097291422863052</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.8000561355706128</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0.2096713052456831</v>
+      </c>
+    </row>
+    <row r="198" ht="15" customHeight="1">
+      <c r="F198" t="n">
+        <v>0.03827514494979892</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.2107713154842158</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.185604048841096</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0.211309174894549</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0.4944678133795452</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.2113179994248378</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.8037575204854386</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0.211259724224817</v>
+      </c>
+    </row>
+    <row r="199" ht="15" customHeight="1">
+      <c r="F199" t="n">
+        <v>0.04034186005284184</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.2123560622171798</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.186216994495685</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0.2128979656832297</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0.497700381603976</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.2129068565633704</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.809508374363654</v>
+      </c>
+      <c r="O199" t="n">
+        <v>0.212848143203951</v>
+      </c>
+    </row>
+    <row r="200" ht="15" customHeight="1">
+      <c r="F200" t="n">
+        <v>0.04040603390409538</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.2139408089501439</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.1864180893052</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0.2144867564719106</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0.4969014245700448</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.214495713701903</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.8039080457034034</v>
+      </c>
+      <c r="O200" t="n">
+        <v>0.214436562183085</v>
+      </c>
+    </row>
+    <row r="201" ht="15" customHeight="1">
+      <c r="F201" t="n">
+        <v>0.03646763429239716</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.2155255556831079</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.1866071823558533</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0.2160755472605914</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0.4963705407908299</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.2160845708404357</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.8122558830028308</v>
+      </c>
+      <c r="O201" t="n">
+        <v>0.2160249811622189</v>
+      </c>
+    </row>
+    <row r="202" ht="15" customHeight="1">
+      <c r="F202" t="n">
+        <v>0.03652662900658477</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.2171103024160719</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.1881841227338568</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0.2176643380492722</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0.4999073287794095</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.2176734279789683</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.8071512347600802</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0.2176134001413529</v>
+      </c>
+    </row>
+    <row r="203" ht="15" customHeight="1">
+      <c r="F203" t="n">
+        <v>0.03658298583549578</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.2186950491490359</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.1885487595254224</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0.219253128837953</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0.5008113870488614</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.2192622851175009</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.8083934494732956</v>
+      </c>
+      <c r="O203" t="n">
+        <v>0.2192018191204868</v>
+      </c>
+    </row>
+    <row r="204" ht="15" customHeight="1">
+      <c r="F204" t="n">
+        <v>0.03863667256796784</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.220279795882</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.1883009418167623</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0.2208419196266339</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0.4999823141122641</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.2208511422560335</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.8152818756406208</v>
+      </c>
+      <c r="O204" t="n">
+        <v>0.2207902380996208</v>
+      </c>
+    </row>
+    <row r="205" ht="15" customHeight="1">
+      <c r="F205" t="n">
+        <v>0.03768765699283851</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.221864542614964</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.1876405186940885</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0.2224307104153147</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0.5008197084826962</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0.2224399993945661</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.8145158617602002</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0.2223786570787547</v>
+      </c>
+    </row>
+    <row r="206" ht="15" customHeight="1">
+      <c r="F206" t="n">
+        <v>0.03773590689894538</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.2234492893479281</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.1877673392436131</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0.2240195012039955</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0.5003231686732355</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0.2240288565330988</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0.8176947563301775</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0.2239670760578887</v>
+      </c>
+    </row>
+    <row r="207" ht="15" customHeight="1">
+      <c r="F207" t="n">
+        <v>0.03678139007512608</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.2250340360808921</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.189381252551548</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0.2256082919926763</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0.5035922931969604</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0.2256177136716314</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.8184179078486966</v>
+      </c>
+      <c r="O207" t="n">
+        <v>0.2255554950370227</v>
+      </c>
+    </row>
+    <row r="208" ht="15" customHeight="1">
+      <c r="F208" t="n">
+        <v>0.04082407431021817</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.2266187828138561</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.1890821077041054</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0.2271970827813571</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0.5047266805669491</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0.227206570810164</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.8187846648139021</v>
+      </c>
+      <c r="O208" t="n">
+        <v>0.2271439140161567</v>
+      </c>
+    </row>
+    <row r="209" ht="15" customHeight="1">
+      <c r="F209" t="n">
+        <v>0.03986392739305929</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.2282035295468201</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.1880697537874972</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0.228785873570038</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0.5022259292962801</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0.2287954279486966</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.8127943757239375</v>
+      </c>
+      <c r="O209" t="n">
+        <v>0.2287323329952906</v>
+      </c>
+    </row>
+    <row r="210" ht="15" customHeight="1">
+      <c r="F210" t="n">
+        <v>0.039900917112487</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.2297882762797841</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.1890440398879357</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0.2303746643587188</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0.5046896378980311</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0.2303842850872292</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.8135463890769468</v>
+      </c>
+      <c r="O210" t="n">
+        <v>0.2303207519744246</v>
+      </c>
+    </row>
+    <row r="211" ht="15" customHeight="1">
+      <c r="F211" t="n">
+        <v>0.0379350112573389</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.2313730230127482</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.1901048150916326</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0.2319634551473996</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0.5035174048852807</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0.2319731422257618</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.8160400533710743</v>
+      </c>
+      <c r="O211" t="n">
+        <v>0.2319091709535586</v>
+      </c>
+    </row>
+    <row r="212" ht="15" customHeight="1">
+      <c r="F212" t="n">
+        <v>0.03996617761645262</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.2329577697457122</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.1894519284848002</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0.2335522459360804</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0.5030088287711073</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0.2335619993642944</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0.8174747171044638</v>
+      </c>
+      <c r="O212" t="n">
+        <v>0.2334975899326925</v>
+      </c>
+    </row>
+    <row r="213" ht="15" customHeight="1">
+      <c r="F213" t="n">
+        <v>0.03799438397866571</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.2345425164786762</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.1891852291536504</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0.2351410367247612</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0.5028635080685889</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0.235150856502827</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.8201497287752593</v>
+      </c>
+      <c r="O213" t="n">
+        <v>0.2350860089118265</v>
+      </c>
+    </row>
+    <row r="214" ht="15" customHeight="1">
+      <c r="F214" t="n">
+        <v>0.04001959813281582</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.2361272632116403</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.1901045661843953</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0.236729827513442</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0.5026810412908038</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0.2367397136413597</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0.8233644368816051</v>
+      </c>
+      <c r="O214" t="n">
+        <v>0.2366744278909604</v>
+      </c>
+    </row>
+    <row r="215" ht="15" customHeight="1">
+      <c r="F215" t="n">
+        <v>0.0370417878677405</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.2377120099446043</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.1901097886632469</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0.2383186183021229</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0.5071610269508304</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0.2383285707798923</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0.8197181899216452</v>
+      </c>
+      <c r="O215" t="n">
+        <v>0.2382628468700944</v>
+      </c>
+    </row>
+    <row r="216" ht="15" customHeight="1">
+      <c r="F216" t="n">
+        <v>0.04106092097227737</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.2392967566775683</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.1892007456764173</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0.2399074090908037</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0.5035030635617465</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.2399174279184249</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.8190103363935231</v>
+      </c>
+      <c r="O216" t="n">
+        <v>0.2398512658492283</v>
+      </c>
+    </row>
+    <row r="217" ht="15" customHeight="1">
+      <c r="F217" t="n">
+        <v>0.03907696523526402</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.2408815034105324</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.1902772863101185</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0.2414961998794845</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0.5069067496366308</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0.2415062850569575</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.820640224795383</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0.2414396848283623</v>
+      </c>
+    </row>
+    <row r="218" ht="15" customHeight="1">
+      <c r="F218" t="n">
+        <v>0.03808988844553805</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.2424662501434964</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.1895392596505625</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0.2430849906681653</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0.5039716836885613</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0.2430951421954901</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0.8246072036253693</v>
+      </c>
+      <c r="O218" t="n">
+        <v>0.2430281038074963</v>
+      </c>
+    </row>
+    <row r="219" ht="15" customHeight="1">
+      <c r="F219" t="n">
+        <v>0.03709965839193707</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.2440509968764604</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.1894865147839615</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0.2446737814568462</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0.5041974642306164</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0.2446839993340228</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.8230106213816257</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0.2446165227866302</v>
+      </c>
+    </row>
+    <row r="220" ht="15" customHeight="1">
+      <c r="F220" t="n">
+        <v>0.04010624286329866</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.2456357436094244</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.1905189007965273</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0.246262572245527</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0.5071836897758742</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0.2462728564725554</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0.8191498265622961</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0.2462049417657642</v>
+      </c>
+    </row>
+    <row r="221" ht="15" customHeight="1">
+      <c r="F221" t="n">
+        <v>0.0381096096484604</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.2472204903423885</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.1911362667744722</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0.2478513630342078</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0.5076299588374131</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0.247861713611088</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.8243241676655249</v>
+      </c>
+      <c r="O221" t="n">
+        <v>0.2477933607448982</v>
+      </c>
+    </row>
+    <row r="222" ht="15" customHeight="1">
+      <c r="F222" t="n">
+        <v>0.04009912517193367</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.2488052370753525</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.1910092132502572</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0.2494401538228886</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0.5039588283812734</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0.2494505707496206</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.8185996026408264</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0.2493817797240321</v>
+      </c>
+    </row>
+    <row r="223" ht="15" customHeight="1">
+      <c r="F223" t="n">
+        <v>0.03900456088501396</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.2503899838083165</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.1888149510359672</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0.2510289446115694</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0.5042120740610269</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.2510394278881532</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.8226781851085574</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0.2509701987031661</v>
+      </c>
+    </row>
+    <row r="224" ht="15" customHeight="1">
+      <c r="F224" t="n">
+        <v>0.03682130692896173</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.2519747305412806</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.1880013132510939</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0.2526177354002502</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0.5024494567191909</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.2526282850266858</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.8124478290894794</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0.2525586176823</v>
+      </c>
+    </row>
+    <row r="225" ht="15" customHeight="1">
+      <c r="F225" t="n">
+        <v>0.04055940492049892</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.2535594772742446</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.1876153462703625</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0.254206526188931</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0.4978961372467864</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0.2542171421652184</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.8099116359758878</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0.254147036661434</v>
+      </c>
+    </row>
+    <row r="226" ht="15" customHeight="1">
+      <c r="F226" t="n">
+        <v>0.03922889647634754</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.2551442240072087</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.1867040964684979</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0.2557953169776119</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0.4947772765348334</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.255805999303751</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.8077727071600782</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0.255735455640568</v>
+      </c>
+    </row>
+    <row r="227" ht="15" customHeight="1">
+      <c r="F227" t="n">
+        <v>0.03783982321322954</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.2567289707401726</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.1841146102202252</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0.2573841077662927</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0.4905180354743526</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0.2573948564422837</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.796934144034346</v>
+      </c>
+      <c r="O227" t="n">
+        <v>0.257323874619702</v>
+      </c>
+    </row>
+    <row r="228" ht="15" customHeight="1">
+      <c r="F228" t="n">
+        <v>0.03740222674786686</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.2583137174731367</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.1816939339002696</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0.2589728985549735</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0.4858435749563649</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0.2589837135808162</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.7885990479909868</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0.2589122935988359</v>
+      </c>
+    </row>
+    <row r="229" ht="15" customHeight="1">
+      <c r="F229" t="n">
+        <v>0.03792614869698147</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.2598984642061007</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.1796891138833561</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0.2605616893436544</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0.4808790558718907</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.2605725707193489</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.7792705204222963</v>
+      </c>
+      <c r="O229" t="n">
+        <v>0.2605007125779699</v>
+      </c>
+    </row>
+    <row r="230" ht="15" customHeight="1">
+      <c r="F230" t="n">
+        <v>0.03642163067729533</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.2614832109390647</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.1770471965442096</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0.2621504801323352</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0.4722496391119504</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0.2621614278578815</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.7717516627205703</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0.2620891315571038</v>
+      </c>
+    </row>
+    <row r="231" ht="15" customHeight="1">
+      <c r="F231" t="n">
+        <v>0.03789871430553041</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.2630679576720287</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.1749152282575555</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0.263739270921016</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0.4645804855675649</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0.2637502849964141</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0.7620455762781035</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0.2636775505362378</v>
+      </c>
+    </row>
+    <row r="232" ht="15" customHeight="1">
+      <c r="F232" t="n">
+        <v>0.03536744119840864</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.2646527044049928</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.1729402553981185</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0.2653280617096968</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0.4624967561297548</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0.2653391421349467</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0.7495553624871925</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0.2652659695153717</v>
+      </c>
+    </row>
+    <row r="233" ht="15" customHeight="1">
+      <c r="F233" t="n">
+        <v>0.03683785297265202</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.2662374511379568</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.1701693243406239</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0.2669168524983777</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0.4532236116895404</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0.2669279992734794</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.7387841227401321</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0.2668543884945057</v>
+      </c>
+    </row>
+    <row r="234" ht="15" customHeight="1">
+      <c r="F234" t="n">
+        <v>0.03631999124498247</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.2678221978709208</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.1676494814597968</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0.2685056432870584</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0.4458862131379426</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0.268516856412012</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.7292349584292181</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0.2684428074736397</v>
+      </c>
+    </row>
+    <row r="235" ht="15" customHeight="1">
+      <c r="F235" t="n">
+        <v>0.03482389763212199</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.2694069446038849</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.1662277731303621</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0.2700944340757392</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0.4390097213659818</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0.2701057135505446</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.7155109709467463</v>
+      </c>
+      <c r="O235" t="n">
+        <v>0.2700312264527737</v>
+      </c>
+    </row>
+    <row r="236" ht="15" customHeight="1">
+      <c r="F236" t="n">
+        <v>0.03135961375079252</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.2709916913368489</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.164051245727045</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0.27168322486442</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0.4332192972646788</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0.2716945706890772</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0.7101152616850124</v>
+      </c>
+      <c r="O236" t="n">
+        <v>0.2716196454319076</v>
+      </c>
+    </row>
+    <row r="237" ht="15" customHeight="1">
+      <c r="F237" t="n">
+        <v>0.03093372990186717</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.2725764380698129</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.1613563916664943</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0.2732720156531009</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0.4295122415831494</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0.2732834278276098</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0.6989033672661112</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0.2732080644110416</v>
+      </c>
+    </row>
+    <row r="238" ht="15" customHeight="1">
+      <c r="F238" t="n">
+        <v>0.03051583154512137</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.274161184802777</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.1591089145774747</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0.2748608064417817</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0.4237316803612589</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0.2748722849661424</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0.6879918908458412</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0.2747964833901755</v>
+      </c>
+    </row>
+    <row r="239" ht="15" customHeight="1">
+      <c r="F239" t="n">
+        <v>0.0330963961811685</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.275745931535741</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.157754262100782</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0.2764495972304625</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0.418532031052972</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0.276461142104675</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0.6827494277634628</v>
+      </c>
+      <c r="O239" t="n">
+        <v>0.2763849023693095</v>
+      </c>
+    </row>
+    <row r="240" ht="15" customHeight="1">
+      <c r="F240" t="n">
+        <v>0.03167540002104616</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.277330678268705</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.1561923227818101</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0.2780383880191433</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0.4124129971474964</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0.2780499992432077</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0.6708754968642453</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0.2779733213484434</v>
+      </c>
+    </row>
+    <row r="241" ht="15" customHeight="1">
+      <c r="F241" t="n">
+        <v>0.03225281927579193</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.278915425001669</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.1530229851659525</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0.2796271788078242</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0.4088742821340396</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0.2796388563817402</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.6677696169934587</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0.2795617403275774</v>
+      </c>
+    </row>
+    <row r="242" ht="15" customHeight="1">
+      <c r="F242" t="n">
+        <v>0.03282863015644347</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.2805001717346331</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.1517461377986029</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0.281215969596505</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0.4057155895018099</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0.2812277135202729</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0.6566313069963735</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0.2811501593067113</v>
+      </c>
+    </row>
+    <row r="243" ht="15" customHeight="1">
+      <c r="F243" t="n">
+        <v>0.02940280887403834</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.2820849184675971</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.1489616692251549</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0.2828047603851858</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0.3962366227400148</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0.2828165706588055</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0.643760085718259</v>
+      </c>
+      <c r="O243" t="n">
+        <v>0.2827385782858453</v>
+      </c>
+    </row>
+    <row r="244" ht="15" customHeight="1">
+      <c r="F244" t="n">
+        <v>0.03197533163961416</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.2836696652005611</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.1483694679910021</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0.2843935511738667</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0.3908370853378622</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.2844054277973381</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.6395554720043853</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0.2843269972649793</v>
+      </c>
+    </row>
+    <row r="245" ht="15" customHeight="1">
+      <c r="F245" t="n">
+        <v>0.02954617466420854</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.2852544119335252</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.1457694226415382</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0.2859823419625475</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0.3886166807845598</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0.2859942849358708</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.6307169847000227</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0.2859154162441133</v>
+      </c>
+    </row>
+    <row r="246" ht="15" customHeight="1">
+      <c r="F246" t="n">
+        <v>0.02711531415885909</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.2868391586664892</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.1430614217221569</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0.2875711327512283</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0.3845751125693153</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0.2875831420744033</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.621644142650441</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0.2875038352232472</v>
+      </c>
+    </row>
+    <row r="247" ht="15" customHeight="1">
+      <c r="F247" t="n">
+        <v>0.02868272633460344</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.2884239053994532</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.1415453537782516</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0.289159923539909</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0.3780120841813364</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0.289171999212936</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.6125364647009098</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0.2890922542023812</v>
+      </c>
+    </row>
+    <row r="248" ht="15" customHeight="1">
+      <c r="F248" t="n">
+        <v>0.02724838740247914</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.2900086521324172</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.1399211073552161</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0.2907487143285899</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0.3711272991098311</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0.2907608563514686</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.6010934696966993</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0.2906806731815152</v>
+      </c>
+    </row>
+    <row r="249" ht="15" customHeight="1">
+      <c r="F249" t="n">
+        <v>0.02681227357352385</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.2915933988653813</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.137588570998444</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0.2923375051172707</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0.3642204608440072</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0.2923497134900012</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.5985146764830795</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0.2922690921606491</v>
+      </c>
+    </row>
+    <row r="250" ht="15" customHeight="1">
+      <c r="F250" t="n">
+        <v>0.02737436105877515</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.2931781455983453</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.1360476332533289</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0.2939262959059515</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0.3584912728730721</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0.2939385706285338</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.5854996039053203</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0.2938575111397831</v>
+      </c>
+    </row>
+    <row r="251" ht="15" customHeight="1">
+      <c r="F251" t="n">
+        <v>0.02793462606927066</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.2947628923313093</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.1339981826652645</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0.2955150866946323</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0.3571394386862339</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0.2955274277670664</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.5812477708086917</v>
+      </c>
+      <c r="O251" t="n">
+        <v>0.2954459301189171</v>
+      </c>
+    </row>
+    <row r="252" ht="15" customHeight="1">
+      <c r="F252" t="n">
+        <v>0.02849304481604798</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.2963476390642734</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.1319401077796444</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0.2971038774833132</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0.3476646617727003</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0.297116284905599</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.5661586960384636</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0.297034349098051</v>
+      </c>
+    </row>
+    <row r="253" ht="15" customHeight="1">
+      <c r="F253" t="n">
+        <v>0.02404959351014474</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.2979323857972374</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.1301732971418622</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0.298692668271994</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0.3445666456216789</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0.2987051420441316</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0.5577318984399058</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0.298622768077185</v>
+      </c>
+    </row>
+    <row r="254" ht="15" customHeight="1">
+      <c r="F254" t="n">
+        <v>0.02560424836259851</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.2995171325302014</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.1269976392973116</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0.3002814590606748</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0.3407450937223775</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.3002939991826643</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.5486668968582882</v>
+      </c>
+      <c r="O254" t="n">
+        <v>0.3002111870563189</v>
+      </c>
+    </row>
+    <row r="255" ht="15" customHeight="1">
+      <c r="F255" t="n">
+        <v>0.02615698558444692</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.3011018792631655</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.1247130227913862</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0.3018702498493557</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0.3331997095640042</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0.3018828563211969</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0.538563210138881</v>
+      </c>
+      <c r="O255" t="n">
+        <v>0.3017996060354529</v>
+      </c>
+    </row>
+    <row r="256" ht="15" customHeight="1">
+      <c r="F256" t="n">
+        <v>0.02470778138672757</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.3026866259961295</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.1228193361694796</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0.3034590406380365</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0.3263301966357667</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0.3034717134597295</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0.5305203571269543</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0.3033880250145868</v>
+      </c>
+    </row>
+    <row r="257" ht="15" customHeight="1">
+      <c r="F257" t="n">
+        <v>0.02525661198047808</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.3042713727290935</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.1213164679769855</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0.3050478314267173</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0.3207362584268724</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0.3050605705982621</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.5264378566677776</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0.3049764439937208</v>
+      </c>
+    </row>
+    <row r="258" ht="15" customHeight="1">
+      <c r="F258" t="n">
+        <v>0.02380345357673605</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.3058561194620575</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.1195043067592976</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0.3066366222153981</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0.3141175984265294</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0.3066494277367948</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0.513915227606621</v>
+      </c>
+      <c r="O258" t="n">
+        <v>0.3065648629728548</v>
+      </c>
+    </row>
+    <row r="259" ht="15" customHeight="1">
+      <c r="F259" t="n">
+        <v>0.02134828238653907</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.3074408661950216</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.1171827410618092</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0.3082254130040789</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0.3108739201239453</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0.3082382848753273</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0.5088519887887547</v>
+      </c>
+      <c r="O259" t="n">
+        <v>0.3081532819519887</v>
+      </c>
+    </row>
+    <row r="260" ht="15" customHeight="1">
+      <c r="F260" t="n">
+        <v>0.0208910746209248</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.3090256129279856</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.1147516594299143</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0.3098142037927597</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0.3034049270083279</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.30982714201386</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.4941476590594482</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0.3097417009311227</v>
+      </c>
+    </row>
+    <row r="261" ht="15" customHeight="1">
+      <c r="F261" t="n">
+        <v>0.02243180649093078</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.3106103596609496</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.1123109504090064</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0.3114029945814406</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0.3013103225688852</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0.3114159991523926</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.4869017572639717</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0.3113301199102567</v>
+      </c>
+    </row>
+    <row r="262" ht="15" customHeight="1">
+      <c r="F262" t="n">
+        <v>0.01997045420759466</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.3121951063939137</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.1098605025444791</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0.3129917853701213</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0.2962898102948247</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0.3130048562909252</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0.4746138022475951</v>
+      </c>
+      <c r="O262" t="n">
+        <v>0.3129185388893906</v>
+      </c>
+    </row>
+    <row r="263" ht="15" customHeight="1">
+      <c r="F263" t="n">
+        <v>0.02050699398195405</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.3137798531268777</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.1089002043817261</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0.3145805761588022</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0.2891430936753541</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0.3145937134294578</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0.4663833128555886</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0.3145069578685246</v>
+      </c>
+    </row>
+    <row r="264" ht="15" customHeight="1">
+      <c r="F264" t="n">
+        <v>0.02004140202504653</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.3153645998598417</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.1058299444661409</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0.316169366947483</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0.2847698761996814</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0.3161825705679904</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0.4573098079332217</v>
+      </c>
+      <c r="O264" t="n">
+        <v>0.3160953768476585</v>
+      </c>
+    </row>
     <row r="265" ht="15" customHeight="1"/>
     <row r="266" ht="15" customHeight="1"/>
     <row r="267" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1340.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1340.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.3843385246743417</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.01921692623371709</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.01921692623371709</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.03074708197394734</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.07075428033241446</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02075428033241445</v>
+        <v>0.09649607680250487</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0005023913425912099</v>
+        <v>0.00233584556068079</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,29 +9250,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.02075428033241445</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0.0005023913425912099</v>
+        <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.03000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0.0004357194767441863</v>
+        <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
         <v>0.09000000000000002</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0004401206835799859</v>
+        <v>0.0004635313582384958</v>
       </c>
       <c r="N65" s="171" t="n">
         <v>0.15</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0004110561101360246</v>
+        <v>0.0004538744549418606</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.02297414188814408</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001584746732964029</v>
+        <v>0.0004357194767441863</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.09649607680250487</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001307158430232559</v>
+        <v>0.0004357194767441863</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.2566833689422459</v>
+        <v>0.157448599454153</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001320362050739958</v>
+        <v>0.0009766745225388146</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.4168706610819868</v>
+        <v>0.2656724287270011</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001233168330408074</v>
+        <v>0.0009761667406483317</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.02579142894277039</v>
+        <v>0.06030763294197004</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003169493465928057</v>
+        <v>0.001056532233549107</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.1121783259661569</v>
+        <v>0.06030763294197004</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003177581577361638</v>
+        <v>0.001056532233549107</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.2944786583942728</v>
+        <v>0.2566833689422459</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00317771427706523</v>
+        <v>0.002203347974870965</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.4823388007724986</v>
+        <v>0.4168706610819868</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003176837958267925</v>
+        <v>0.002102299378664887</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.02513890433665036</v>
+        <v>0.08175256552340528</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004754240198892086</v>
+        <v>0.00158479835032366</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.1234229641808374</v>
+        <v>0.08175256552340528</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004766372366042458</v>
+        <v>0.00158479835032366</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.3287972544209887</v>
+        <v>0.2697886991403456</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004766571415597846</v>
+        <v>0.002930023567616444</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.5373268342110007</v>
+        <v>0.4445647724097495</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004765256937401888</v>
+        <v>0.002928500221944995</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.02906654841599715</v>
+        <v>0.09649607680250487</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006338986931856114</v>
+        <v>0.00233584556068079</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.1324845616700702</v>
+        <v>0.09649607680250487</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006355163154723276</v>
+        <v>0.00233584556068079</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.3526585909981114</v>
+        <v>0.2908777584782963</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006355428554130461</v>
+        <v>0.003906698090155258</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.5740161035623473</v>
+        <v>0.4781964376316481</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00635367591653585</v>
+        <v>0.003904666962593327</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0005023913425912099</v>
+        <v>0.0004357194767441863</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02075428033241445</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02862434152702399</v>
+        <v>0.09730290080089075</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007923733664820144</v>
+        <v>0.002641330583872768</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.1414678377302373</v>
+        <v>0.09730290080089075</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.007943953943404095</v>
+        <v>0.002641330583872768</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.3766987966983449</v>
+        <v>0.3132363724960808</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.007944285692663075</v>
+        <v>0.004883372612694073</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.6093916384457174</v>
+        <v>0.5145939361075222</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.007942094895669813</v>
+        <v>0.004880833703241659</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02986226401594399</v>
+        <v>0.09867697663655182</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009508480397784172</v>
+        <v>0.003169596700647321</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.1483775116577209</v>
+        <v>0.09867697663655182</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009532744732084916</v>
+        <v>0.003169596700647321</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.3931540000943935</v>
+        <v>0.3293957071335464</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009533142831195692</v>
+        <v>0.005860047135232888</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.6357384684802895</v>
+        <v>0.5406105343503811</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009530513874803775</v>
+        <v>0.00585700044388999</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02983029622897037</v>
+        <v>0.1000244834328222</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.0110932271307482</v>
+        <v>0.003697862817421874</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.1524183027489027</v>
+        <v>0.1000244834328222</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01112153552076573</v>
+        <v>0.003697862817421874</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.4058603297589607</v>
+        <v>0.3497869283305406</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01112199996972831</v>
+        <v>0.006836721657771701</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.6622416232852429</v>
+        <v>0.5752994988732341</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01111893285393774</v>
+        <v>0.006833167184538323</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.03157841851231631</v>
+        <v>0.1013456779065787</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01267797386371223</v>
+        <v>0.004226128934196428</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.157494930300165</v>
+        <v>0.1013456779065787</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01271032630944655</v>
+        <v>0.004226128934196428</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.4180539142647511</v>
+        <v>0.3647412020269111</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01271085710826092</v>
+        <v>0.007813396180310517</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.6753861324797564</v>
+        <v>0.5985140961890907</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.0127073518330717</v>
+        <v>0.007809333925186654</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.03315661121219497</v>
+        <v>0.1026408167746981</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01426272059667626</v>
+        <v>0.004754395050970982</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.1611121136078896</v>
+        <v>0.1026408167746981</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01429911709812737</v>
+        <v>0.004754395050970982</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.4263708821844686</v>
+        <v>0.3818896941625046</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01429971424679354</v>
+        <v>0.008790070702849331</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.6905570256830088</v>
+        <v>0.6282075928109602</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01429577081220566</v>
+        <v>0.008785500665834986</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.03461485467481955</v>
+        <v>0.1039101567540571</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01584746732964029</v>
+        <v>0.005282661167745535</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.1626745719684585</v>
+        <v>0.1039101567540571</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01588790788680819</v>
+        <v>0.005282661167745535</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.431247362090817</v>
+        <v>0.3963635706771694</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01588857138532615</v>
+        <v>0.009766745225388146</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.7037393325141788</v>
+        <v>0.6511332552518523</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01588418979133963</v>
+        <v>0.009761667406483317</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.03200312924640322</v>
+        <v>0.1051539545615325</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01743221406260432</v>
+        <v>0.005810927284520088</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1658870246782538</v>
+        <v>0.1051539545615325</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01747669867548901</v>
+        <v>0.005810927284520088</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.4391194825565007</v>
+        <v>0.4105939975107527</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01747742852385877</v>
+        <v>0.01074341974792696</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.7159180825924455</v>
+        <v>0.6697443500247759</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01747260877047359</v>
+        <v>0.01073783414713165</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.03637141527315915</v>
+        <v>0.1063724669140009</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01901696079556834</v>
+        <v>0.006339193401294642</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1671541910336574</v>
+        <v>0.1063724669140009</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01906548946416983</v>
+        <v>0.006339193401294642</v>
       </c>
       <c r="L77" t="n">
-        <v>0.4445233721542237</v>
+        <v>0.4228121406031016</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01906628566239138</v>
+        <v>0.01172009427046578</v>
       </c>
       <c r="N77" t="n">
-        <v>0.7187783055369876</v>
+        <v>0.6863941436427411</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01906102774960755</v>
+        <v>0.01171400088777998</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.03676969310130052</v>
+        <v>0.1075659505283392</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02060170752853237</v>
+        <v>0.006867459518069195</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1693807903310514</v>
+        <v>0.1075659505283392</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02065428025285065</v>
+        <v>0.006867459518069195</v>
       </c>
       <c r="L78" t="n">
-        <v>0.4497951594566897</v>
+        <v>0.4338491658940639</v>
       </c>
       <c r="M78" t="n">
-        <v>0.020655142800924</v>
+        <v>0.01269676879300459</v>
       </c>
       <c r="N78" t="n">
-        <v>0.7309050309669842</v>
+        <v>0.7086359026187566</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02064944672874151</v>
+        <v>0.01269016762842831</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.03323717962041008</v>
+        <v>0.1087346621214242</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0221864542614964</v>
+        <v>0.007395725634843748</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1709715418668177</v>
+        <v>0.1087346621214242</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02224307104153147</v>
+        <v>0.007395725634843748</v>
       </c>
       <c r="L79" t="n">
-        <v>0.4562709730366031</v>
+        <v>0.4468362393234868</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02224399993945661</v>
+        <v>0.0136734433155434</v>
       </c>
       <c r="N79" t="n">
-        <v>0.736483288501614</v>
+        <v>0.7215228934658323</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02223786570787548</v>
+        <v>0.01366633436907665</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.03671207129595824</v>
+        <v>0.1098788584101325</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02377120099446043</v>
+        <v>0.007923991751618302</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1742113320423341</v>
+        <v>0.1098788584101325</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02383186183021229</v>
+        <v>0.007923991751618302</v>
       </c>
       <c r="L80" t="n">
-        <v>0.4587297910159881</v>
+        <v>0.4534045268312179</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02383285707798923</v>
+        <v>0.01465011783808222</v>
       </c>
       <c r="N80" t="n">
-        <v>0.7491499988631687</v>
+        <v>0.7445083826969776</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02382628468700944</v>
+        <v>0.01464250110972498</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.03817252180782221</v>
+        <v>0.110998796111341</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02535594772742446</v>
+        <v>0.008452257868392855</v>
       </c>
       <c r="J81" t="n">
-        <v>0.175990866654224</v>
+        <v>0.110998796111341</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02542065261889311</v>
+        <v>0.008452257868392855</v>
       </c>
       <c r="L81" t="n">
-        <v>0.4664290645652698</v>
+        <v>0.4612851943571049</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02542171421652184</v>
+        <v>0.01562679236062103</v>
       </c>
       <c r="N81" t="n">
-        <v>0.7606509050228429</v>
+        <v>0.7549456368252017</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0254147036661434</v>
+        <v>0.01561866785037331</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.03561558536838819</v>
+        <v>0.1120947319419262</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02694069446038849</v>
+        <v>0.008980523985167408</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1781955770549488</v>
+        <v>0.1120947319419262</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02700944340757392</v>
+        <v>0.008980523985167408</v>
       </c>
       <c r="L82" t="n">
-        <v>0.4721295667287028</v>
+        <v>0.4701094078409946</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02701057135505446</v>
+        <v>0.01660346688315985</v>
       </c>
       <c r="N82" t="n">
-        <v>0.7706261637498633</v>
+        <v>0.7654879223635138</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02700312264527737</v>
+        <v>0.01659483459102164</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.03803831619004239</v>
+        <v>0.1131669226187652</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02852544119335252</v>
+        <v>0.009508790101941963</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1804116618187244</v>
+        <v>0.1131669226187652</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02859823419625475</v>
+        <v>0.009508790101941963</v>
       </c>
       <c r="L83" t="n">
-        <v>0.4781945805698904</v>
+        <v>0.477608333222735</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02859942849358707</v>
+        <v>0.01758014140569866</v>
       </c>
       <c r="N83" t="n">
-        <v>0.7780161936459014</v>
+        <v>0.7758885058249236</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02859154162441133</v>
+        <v>0.01757100133166997</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.038437768485171</v>
+        <v>0.1142156248587344</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03011018792631654</v>
+        <v>0.01003705621871652</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1825253195197669</v>
+        <v>0.1142156248587344</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03018702498493556</v>
+        <v>0.01003705621871652</v>
       </c>
       <c r="L84" t="n">
-        <v>0.4828873891524357</v>
+        <v>0.4855131364421733</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03018828563211969</v>
+        <v>0.01855681592823748</v>
       </c>
       <c r="N84" t="n">
-        <v>0.7809614133126292</v>
+        <v>0.7855006537224405</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03017996060354529</v>
+        <v>0.0185471680723183</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.03781099646616022</v>
+        <v>0.1152410953787109</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03169493465928058</v>
+        <v>0.01056532233549107</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1828227487322923</v>
+        <v>0.1152410953787109</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03177581577361638</v>
+        <v>0.01056532233549107</v>
       </c>
       <c r="L85" t="n">
-        <v>0.4856712755399425</v>
+        <v>0.4896549834391571</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0317771427706523</v>
+        <v>0.01953349045077629</v>
       </c>
       <c r="N85" t="n">
-        <v>0.7898022413517189</v>
+        <v>0.7936776325690742</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03176837958267925</v>
+        <v>0.01952333481296663</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03615505434539629</v>
+        <v>0.1162435908955712</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0332796813922446</v>
+        <v>0.01109358845226562</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1859901480305167</v>
+        <v>0.1162435908955712</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03336460656229721</v>
+        <v>0.01109358845226562</v>
       </c>
       <c r="L86" t="n">
-        <v>0.4944095227960139</v>
+        <v>0.4972650401535339</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03336599990918492</v>
+        <v>0.02051016497331511</v>
       </c>
       <c r="N86" t="n">
-        <v>0.796779096364842</v>
+        <v>0.8062727088778334</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03335679856181321</v>
+        <v>0.02049950155361497</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03846699633526537</v>
+        <v>0.1172233681261921</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03486442812520863</v>
+        <v>0.01162185456904018</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1860137159886561</v>
+        <v>0.1172233681261921</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03495339735097802</v>
+        <v>0.01162185456904018</v>
       </c>
       <c r="L87" t="n">
-        <v>0.494965413984253</v>
+        <v>0.5003744725251508</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03495485704771753</v>
+        <v>0.02148683949585392</v>
       </c>
       <c r="N87" t="n">
-        <v>0.8082323969536707</v>
+        <v>0.8072391491617279</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03494521754094718</v>
+        <v>0.0214756682942633</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03774387664815368</v>
+        <v>0.1181806837874503</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03644917485817266</v>
+        <v>0.01215012068581473</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1884796511809266</v>
+        <v>0.1181806837874503</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03654218813965884</v>
+        <v>0.01215012068581473</v>
       </c>
       <c r="L88" t="n">
-        <v>0.5005022321682634</v>
+        <v>0.5006144464938556</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03654371418625015</v>
+        <v>0.02246351401839274</v>
       </c>
       <c r="N88" t="n">
-        <v>0.8158025617198768</v>
+        <v>0.8177302199337673</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03653363652008114</v>
+        <v>0.02245183503491163</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03698274949644745</v>
+        <v>0.1191157945962228</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03803392159113669</v>
+        <v>0.01267838680258928</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1886741521815442</v>
+        <v>0.1191157945962228</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03813097892833966</v>
+        <v>0.01267838680258928</v>
       </c>
       <c r="L89" t="n">
-        <v>0.5025832604116482</v>
+        <v>0.5036161279994954</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03813257132478277</v>
+        <v>0.02344018854093155</v>
       </c>
       <c r="N89" t="n">
-        <v>0.816130009265132</v>
+        <v>0.8233991877069609</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0381220554992151</v>
+        <v>0.02342800177555996</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.04018066909253283</v>
+        <v>0.1200289572693861</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03961866832410071</v>
+        <v>0.01320665291936384</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1893834175647249</v>
+        <v>0.1200289572693861</v>
       </c>
       <c r="K90" t="n">
-        <v>0.03971976971702048</v>
+        <v>0.01320665291936384</v>
       </c>
       <c r="L90" t="n">
-        <v>0.5077717817780109</v>
+        <v>0.5097106829819179</v>
       </c>
       <c r="M90" t="n">
-        <v>0.03972142846331538</v>
+        <v>0.02441686306347036</v>
       </c>
       <c r="N90" t="n">
-        <v>0.8234551581911087</v>
+        <v>0.827699318994318</v>
       </c>
       <c r="O90" t="n">
-        <v>0.03971047447834906</v>
+        <v>0.02440416851620829</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.04033468964879607</v>
+        <v>0.120920428523817</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04120341505706474</v>
+        <v>0.01373491903613839</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1906936459046847</v>
+        <v>0.120920428523817</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04130856050570129</v>
+        <v>0.01373491903613839</v>
       </c>
       <c r="L91" t="n">
-        <v>0.5075310793309546</v>
+        <v>0.5093292773809706</v>
       </c>
       <c r="M91" t="n">
-        <v>0.041310285601848</v>
+        <v>0.02539353758600918</v>
       </c>
       <c r="N91" t="n">
-        <v>0.8259184270994786</v>
+        <v>0.8230838803088478</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04129889345748303</v>
+        <v>0.02538033525685663</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03944186537762334</v>
+        <v>0.1217904650763923</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04278816179002878</v>
+        <v>0.01426318515291295</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1916910357756398</v>
+        <v>0.1217904650763923</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04289735129438212</v>
+        <v>0.01426318515291295</v>
       </c>
       <c r="L92" t="n">
-        <v>0.5117244361340828</v>
+        <v>0.5095030771365006</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04289914274038061</v>
+        <v>0.02637021210854799</v>
       </c>
       <c r="N92" t="n">
-        <v>0.8272602345919138</v>
+        <v>0.8297061381635598</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04288731243661699</v>
+        <v>0.02635650199750495</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.04150856066482891</v>
+        <v>0.1226393236439887</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0443729085229928</v>
+        <v>0.0147914512696875</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1929921536050097</v>
+        <v>0.1226393236439887</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04448614208306294</v>
+        <v>0.0147914512696875</v>
       </c>
       <c r="L93" t="n">
         <v>0.5133667378844917</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04448799987891322</v>
+        <v>0.02734688663108681</v>
       </c>
       <c r="N93" t="n">
         <v>0.8337413221639736</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04447573141575095</v>
+        <v>0.02733266873815329</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.04050631090464499</v>
+        <v>0.1234672609434831</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04595765525595683</v>
+        <v>0.01531971738646205</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1916920944073998</v>
+        <v>0.1234672609434831</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04607493287174375</v>
+        <v>0.01531971738646205</v>
       </c>
       <c r="L94" t="n">
-        <v>0.5111664597453055</v>
+        <v>0.5104572897645501</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04607685701744584</v>
+        <v>0.02832356115362562</v>
       </c>
       <c r="N94" t="n">
-        <v>0.8305412328110269</v>
+        <v>0.8315111464465226</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04606415039488491</v>
+        <v>0.02830883547880162</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03948266921027917</v>
+        <v>0.124274533691752</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04754240198892086</v>
+        <v>0.0158479835032366</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1913335720335222</v>
+        <v>0.124274533691752</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04766372366042457</v>
+        <v>0.0158479835032366</v>
       </c>
       <c r="L95" t="n">
-        <v>0.5111131270817955</v>
+        <v>0.5097197856407202</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04766571415597846</v>
+        <v>0.02930023567616444</v>
       </c>
       <c r="N95" t="n">
-        <v>0.832867586848107</v>
+        <v>0.8320079359860419</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04765256937401888</v>
+        <v>0.02928500221944995</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03843452345389953</v>
+        <v>0.1250613986056723</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04912714872188489</v>
+        <v>0.01637624962001116</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1927573778459095</v>
+        <v>0.1250613986056723</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0492525144491054</v>
+        <v>0.01637624962001116</v>
       </c>
       <c r="L96" t="n">
-        <v>0.5109465586086792</v>
+        <v>0.5089258664622445</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04925457129451107</v>
+        <v>0.03027691019870326</v>
       </c>
       <c r="N96" t="n">
-        <v>0.8299871996902397</v>
+        <v>0.8326954007638123</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04924098835315284</v>
+        <v>0.03026116896009829</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03736342615053033</v>
+        <v>0.1258281124021208</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05071189545484892</v>
+        <v>0.01690451573678571</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1907708157534254</v>
+        <v>0.1258281124021208</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05084130523778621</v>
+        <v>0.01690451573678571</v>
       </c>
       <c r="L97" t="n">
-        <v>0.5102862468778069</v>
+        <v>0.5104849517217309</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05084342843304369</v>
+        <v>0.03125358472124207</v>
       </c>
       <c r="N97" t="n">
-        <v>0.8300314724525766</v>
+        <v>0.8318940555858572</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0508294073322868</v>
+        <v>0.03123733570074662</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03727092981519585</v>
+        <v>0.1265749317979742</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05229664218781295</v>
+        <v>0.01743278185356027</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1910811595054692</v>
+        <v>0.1265749317979742</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05243009602646703</v>
+        <v>0.01743278185356027</v>
       </c>
       <c r="L98" t="n">
-        <v>0.5073515427735176</v>
+        <v>0.5097064609117874</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0524322855715763</v>
+        <v>0.03223025924378088</v>
       </c>
       <c r="N98" t="n">
-        <v>0.8229318062502684</v>
+        <v>0.8226244152582007</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05241782631142076</v>
+        <v>0.03221350244139495</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03815858696292038</v>
+        <v>0.1273021135101092</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05388138892077697</v>
+        <v>0.01796104797033482</v>
       </c>
       <c r="J99" t="n">
-        <v>0.19049568285144</v>
+        <v>0.1273021135101092</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05401888681514785</v>
+        <v>0.01796104797033482</v>
       </c>
       <c r="L99" t="n">
-        <v>0.5088617971801498</v>
+        <v>0.5061998135250214</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05402114271010892</v>
+        <v>0.0332069337663197</v>
       </c>
       <c r="N99" t="n">
-        <v>0.8273196021984668</v>
+        <v>0.8226069945868675</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05400624529055473</v>
+        <v>0.03318966918204328</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04102795010872817</v>
+        <v>0.1280099142554025</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05546613565374101</v>
+        <v>0.01848931408710937</v>
       </c>
       <c r="J100" t="n">
-        <v>0.189821659540737</v>
+        <v>0.1280099142554025</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05560767760382867</v>
+        <v>0.01848931408710937</v>
       </c>
       <c r="L100" t="n">
-        <v>0.5050363609820424</v>
+        <v>0.5081744290540414</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05560999984864153</v>
+        <v>0.03418360828885851</v>
       </c>
       <c r="N100" t="n">
-        <v>0.8210262614123227</v>
+        <v>0.8209623083778808</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05559466426968868</v>
+        <v>0.03416583592269161</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03888057176764351</v>
+        <v>0.1286985907507311</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05705088238670503</v>
+        <v>0.01901758020388393</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1896663633227596</v>
+        <v>0.1286985907507311</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05719646839250949</v>
+        <v>0.01901758020388393</v>
       </c>
       <c r="L101" t="n">
-        <v>0.502594585063534</v>
+        <v>0.5080397269914547</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05719885698717415</v>
+        <v>0.03516028281139733</v>
       </c>
       <c r="N101" t="n">
-        <v>0.8144831850069871</v>
+        <v>0.8237108714372652</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05718308324882265</v>
+        <v>0.03514200266333994</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03871800445469067</v>
+        <v>0.1293683997129715</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05863562911966905</v>
+        <v>0.01954584632065848</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1889370679469068</v>
+        <v>0.1293683997129715</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05878525918119031</v>
+        <v>0.01954584632065848</v>
       </c>
       <c r="L102" t="n">
-        <v>0.5016558203089638</v>
+        <v>0.5076051268298692</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05878771412570676</v>
+        <v>0.03613695733393614</v>
       </c>
       <c r="N102" t="n">
-        <v>0.8163217740976116</v>
+        <v>0.8169731985710447</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05877150222795662</v>
+        <v>0.03611816940398828</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03754180068489395</v>
+        <v>0.1300195978590005</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06022037585263309</v>
+        <v>0.02007411243743303</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1873410471625779</v>
+        <v>0.1300195978590005</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06037404996987113</v>
+        <v>0.02007411243743303</v>
       </c>
       <c r="L103" t="n">
-        <v>0.5022394176026703</v>
+        <v>0.5040800480618932</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06037657126423937</v>
+        <v>0.03711363185647495</v>
       </c>
       <c r="N103" t="n">
-        <v>0.8114734297993469</v>
+        <v>0.818469804585243</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06035992120709058</v>
+        <v>0.03709433614463661</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04035351297327759</v>
+        <v>0.130652441905695</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06180512258559712</v>
+        <v>0.02060237855420759</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1865855747191721</v>
+        <v>0.130652441905695</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06196284075855195</v>
+        <v>0.02060237855420759</v>
       </c>
       <c r="L104" t="n">
-        <v>0.4980647278289924</v>
+        <v>0.5052739101801341</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06196542840277199</v>
+        <v>0.03809030637901377</v>
       </c>
       <c r="N104" t="n">
-        <v>0.8052695532273446</v>
+        <v>0.8170212042858851</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06194834018622455</v>
+        <v>0.03807050288528493</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03815469383486587</v>
+        <v>0.1312671885699316</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06338986931856115</v>
+        <v>0.02113064467098214</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1865779243660885</v>
+        <v>0.1312671885699316</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06355163154723276</v>
+        <v>0.02113064467098214</v>
       </c>
       <c r="L105" t="n">
-        <v>0.4938511018722689</v>
+        <v>0.5009961326771998</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0635542855413046</v>
+        <v>0.03906698090155258</v>
       </c>
       <c r="N105" t="n">
-        <v>0.8070415454967552</v>
+        <v>0.8119479124789939</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0635367591653585</v>
+        <v>0.03904666962593327</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0359468957846831</v>
+        <v>0.1318640945685871</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06497461605152517</v>
+        <v>0.02165891078775669</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1842253698527264</v>
+        <v>0.1318640945685871</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06514042233591359</v>
+        <v>0.02165891078775669</v>
       </c>
       <c r="L106" t="n">
-        <v>0.4935178906168385</v>
+        <v>0.4992561350456982</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06514314267983722</v>
+        <v>0.0400436554240914</v>
       </c>
       <c r="N106" t="n">
-        <v>0.7984208077227304</v>
+        <v>0.8105704439705943</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06512517814449247</v>
+        <v>0.0400228363665816</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03973167133775352</v>
+        <v>0.1324434166185382</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06655936278448919</v>
+        <v>0.02218717690453125</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1845351849284849</v>
+        <v>0.1324434166185382</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06672921312459441</v>
+        <v>0.02218717690453125</v>
       </c>
       <c r="L107" t="n">
-        <v>0.48768444494704</v>
+        <v>0.5005633367782373</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06673199981836984</v>
+        <v>0.04102032994663021</v>
       </c>
       <c r="N107" t="n">
-        <v>0.7946387410204216</v>
+        <v>0.8084093135667099</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06671359712362643</v>
+        <v>0.04099900310722993</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03751057300910141</v>
+        <v>0.1330054114366617</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06814410951745323</v>
+        <v>0.0227154430213058</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1825146433427633</v>
+        <v>0.1330054114366617</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06831800391327522</v>
+        <v>0.0227154430213058</v>
       </c>
       <c r="L108" t="n">
-        <v>0.4849701157472123</v>
+        <v>0.4993271573674246</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06832085695690245</v>
+        <v>0.04199700446916903</v>
       </c>
       <c r="N108" t="n">
-        <v>0.7880267465049793</v>
+        <v>0.8078850360733654</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06830201610276039</v>
+        <v>0.04197516984787827</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03628515331375104</v>
+        <v>0.1335503357398344</v>
       </c>
       <c r="G109" t="n">
-        <v>0.06972885625041726</v>
+        <v>0.02324370913808035</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1811710188449608</v>
+        <v>0.1335503357398344</v>
       </c>
       <c r="K109" t="n">
-        <v>0.06990679470195604</v>
+        <v>0.02324370913808035</v>
       </c>
       <c r="L109" t="n">
-        <v>0.4827942539016942</v>
+        <v>0.4946570163058682</v>
       </c>
       <c r="M109" t="n">
-        <v>0.06990971409543506</v>
+        <v>0.04297367899170784</v>
       </c>
       <c r="N109" t="n">
-        <v>0.784416225291555</v>
+        <v>0.8047181262965839</v>
       </c>
       <c r="O109" t="n">
-        <v>0.06989043508189435</v>
+        <v>0.0429513365885266</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03505696476672672</v>
+        <v>0.134078446244933</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0713136029833813</v>
+        <v>0.02377197525485491</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1820115851844766</v>
+        <v>0.134078446244933</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07149558549063686</v>
+        <v>0.02377197525485491</v>
       </c>
       <c r="L110" t="n">
-        <v>0.4819762102948243</v>
+        <v>0.496162333086176</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07149857123396769</v>
+        <v>0.04395035351424666</v>
       </c>
       <c r="N110" t="n">
-        <v>0.7847385784952998</v>
+        <v>0.7992290990423903</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07147885406102832</v>
+        <v>0.04392750332917492</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03582755988305268</v>
+        <v>0.1345899996688342</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07289834971634532</v>
+        <v>0.02430024137162946</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1799436161107097</v>
+        <v>0.1345899996688342</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07308437627931767</v>
+        <v>0.02430024137162946</v>
       </c>
       <c r="L111" t="n">
-        <v>0.4786353358109415</v>
+        <v>0.4911525272009556</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0730874283725003</v>
+        <v>0.04492702803678547</v>
       </c>
       <c r="N111" t="n">
-        <v>0.7793252072313652</v>
+        <v>0.7936384691168084</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07306727304016228</v>
+        <v>0.04490367006982326</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03559849117775322</v>
+        <v>0.1350852527284148</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07448309644930934</v>
+        <v>0.02482850748840401</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1788743853730596</v>
+        <v>0.1350852527284148</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07467316706799849</v>
+        <v>0.02482850748840401</v>
       </c>
       <c r="L112" t="n">
-        <v>0.4742909813343849</v>
+        <v>0.4937370181428149</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07467628551103291</v>
+        <v>0.04590370255932429</v>
       </c>
       <c r="N112" t="n">
-        <v>0.7745075126149019</v>
+        <v>0.7896667513258619</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07465569201929624</v>
+        <v>0.04587983681047159</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03537131116585264</v>
+        <v>0.1355644621405516</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07606784318227337</v>
+        <v>0.02535677360517857</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1778111667209253</v>
+        <v>0.1355644621405516</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07626195785667933</v>
+        <v>0.02535677360517857</v>
       </c>
       <c r="L113" t="n">
-        <v>0.4749624977494927</v>
+        <v>0.490625225404362</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07626514264956553</v>
+        <v>0.0468803770818631</v>
       </c>
       <c r="N113" t="n">
-        <v>0.768916895761061</v>
+        <v>0.7870344604755755</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0762441109984302</v>
+        <v>0.04685600355111992</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03814135767612252</v>
+        <v>0.1360278846221213</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07765258991523741</v>
+        <v>0.02588503972195312</v>
       </c>
       <c r="J114" t="n">
-        <v>0.175958454816473</v>
+        <v>0.1360278846221213</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07785074864536014</v>
+        <v>0.02588503972195312</v>
       </c>
       <c r="L114" t="n">
-        <v>0.4703623761268044</v>
+        <v>0.4914265684782044</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07785399978809815</v>
+        <v>0.04785705160440192</v>
       </c>
       <c r="N114" t="n">
-        <v>0.7673673092371114</v>
+        <v>0.7906621113719727</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07783252997756417</v>
+        <v>0.04783217029176826</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03688128075004386</v>
+        <v>0.1364757768900007</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07923733664820143</v>
+        <v>0.02641330583872767</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1760043445460976</v>
+        <v>0.1364757768900007</v>
       </c>
       <c r="K115" t="n">
-        <v>0.07943953943404096</v>
+        <v>0.02641330583872767</v>
       </c>
       <c r="L115" t="n">
-        <v>0.4664948849385788</v>
+        <v>0.4901504668569501</v>
       </c>
       <c r="M115" t="n">
-        <v>0.07944285692663075</v>
+        <v>0.04883372612694073</v>
       </c>
       <c r="N115" t="n">
-        <v>0.7624589025371113</v>
+        <v>0.787470218821078</v>
       </c>
       <c r="O115" t="n">
-        <v>0.07942094895669813</v>
+        <v>0.04880833703241658</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03559197786658511</v>
+        <v>0.1369083956610664</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08082208338116546</v>
+        <v>0.02694157195550223</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1739046671421421</v>
+        <v>0.1369083956610664</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08102833022272177</v>
+        <v>0.02694157195550223</v>
       </c>
       <c r="L116" t="n">
-        <v>0.4655397548020652</v>
+        <v>0.4884063400332072</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08103171406516338</v>
+        <v>0.04981040064947954</v>
       </c>
       <c r="N116" t="n">
-        <v>0.7503254968777477</v>
+        <v>0.7871792976289154</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08100936793583209</v>
+        <v>0.04978450377306493</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03427850730527558</v>
+        <v>0.1373259976521953</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08240683011412948</v>
+        <v>0.02746983807227678</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1736831213496185</v>
+        <v>0.1373259976521953</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08261712101140259</v>
+        <v>0.02746983807227678</v>
       </c>
       <c r="L117" t="n">
-        <v>0.4586600332115522</v>
+        <v>0.4826036074995829</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08262057120369599</v>
+        <v>0.05078707517201836</v>
       </c>
       <c r="N117" t="n">
-        <v>0.7478694008457217</v>
+        <v>0.7831098626015087</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08259778691496605</v>
+        <v>0.05076067051371325</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03594592734564457</v>
+        <v>0.1377288395802642</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08399157684709352</v>
+        <v>0.02799810418905134</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1720634059135386</v>
+        <v>0.1377288395802642</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08420591180008341</v>
+        <v>0.02799810418905134</v>
       </c>
       <c r="L118" t="n">
-        <v>0.4564187676613278</v>
+        <v>0.4844516887486858</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0842094283422286</v>
+        <v>0.05176374969455717</v>
       </c>
       <c r="N118" t="n">
-        <v>0.7394929230277357</v>
+        <v>0.7816824285448825</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08418620589410002</v>
+        <v>0.05173683725436158</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03459929626722141</v>
+        <v>0.1381171781621496</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08557632358005755</v>
+        <v>0.02852637030582589</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1705692195789143</v>
+        <v>0.1381171781621496</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08579470258876423</v>
+        <v>0.02852637030582589</v>
       </c>
       <c r="L119" t="n">
-        <v>0.4526790056456799</v>
+        <v>0.4829600032731231</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08579828548076122</v>
+        <v>0.05274042421709599</v>
       </c>
       <c r="N119" t="n">
-        <v>0.7328983720104914</v>
+        <v>0.7777175102650602</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08577462487323398</v>
+        <v>0.05271300399500991</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03324367234953544</v>
+        <v>0.1384912701147285</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08716107031302157</v>
+        <v>0.02905463642260044</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1690242610907575</v>
+        <v>0.1384912701147285</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08738349337744505</v>
+        <v>0.02905463642260044</v>
       </c>
       <c r="L120" t="n">
-        <v>0.4474037946588967</v>
+        <v>0.4784379705655031</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08738714261929384</v>
+        <v>0.0537170987396348</v>
       </c>
       <c r="N120" t="n">
-        <v>0.7303880563806905</v>
+        <v>0.7734356225680661</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08736304385236794</v>
+        <v>0.05368917073565824</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03388411387211597</v>
+        <v>0.1388513721548775</v>
       </c>
       <c r="G121" t="n">
-        <v>0.08874581704598561</v>
+        <v>0.02958290253937499</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1661522291940799</v>
+        <v>0.1388513721548775</v>
       </c>
       <c r="K121" t="n">
-        <v>0.08897228416612588</v>
+        <v>0.02958290253937499</v>
       </c>
       <c r="L121" t="n">
-        <v>0.4429561821952661</v>
+        <v>0.4815950101184333</v>
       </c>
       <c r="M121" t="n">
-        <v>0.08897599975782644</v>
+        <v>0.05469377326217361</v>
       </c>
       <c r="N121" t="n">
-        <v>0.7221642847250348</v>
+        <v>0.7707572802599247</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0889514628315019</v>
+        <v>0.05466533747630659</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03152567911449232</v>
+        <v>0.1391977409994735</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09033056377894963</v>
+        <v>0.03011116865614955</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1644768226338936</v>
+        <v>0.1391977409994735</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09056107495480668</v>
+        <v>0.03011116865614955</v>
       </c>
       <c r="L122" t="n">
-        <v>0.4371992157490764</v>
+        <v>0.4796389802699246</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09056485689635907</v>
+        <v>0.05567044778471244</v>
       </c>
       <c r="N122" t="n">
-        <v>0.7113293656302262</v>
+        <v>0.7747966794007217</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09053988181063587</v>
+        <v>0.05564150421695491</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03117342635619378</v>
+        <v>0.1395306333653931</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09191531051191366</v>
+        <v>0.0306394347729241</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1624217401552102</v>
+        <v>0.1395306333653931</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09214986574348751</v>
+        <v>0.0306394347729241</v>
       </c>
       <c r="L123" t="n">
-        <v>0.4316959428146157</v>
+        <v>0.4752820148927168</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09215371403489168</v>
+        <v>0.05664712230725125</v>
       </c>
       <c r="N123" t="n">
-        <v>0.7010856076829667</v>
+        <v>0.7658887515400288</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09212830078976983</v>
+        <v>0.05661767095760324</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03483241387674972</v>
+        <v>0.1398503059695131</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09350005724487769</v>
+        <v>0.03116770088969866</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1616106805030418</v>
+        <v>0.1398503059695131</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09373865653216833</v>
+        <v>0.03116770088969866</v>
       </c>
       <c r="L124" t="n">
-        <v>0.4314094108861719</v>
+        <v>0.4773746867102507</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09374257117342429</v>
+        <v>0.05762379682979006</v>
       </c>
       <c r="N124" t="n">
-        <v>0.7010353194699578</v>
+        <v>0.7672578698469967</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09371671976890379</v>
+        <v>0.05759383769825158</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03350724217026618</v>
+        <v>0.1401570155287104</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09508480397784172</v>
+        <v>0.03169596700647321</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1596673424224</v>
+        <v>0.1401570155287104</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09532744732084915</v>
+        <v>0.03169596700647321</v>
       </c>
       <c r="L125" t="n">
-        <v>0.4253026674580334</v>
+        <v>0.4748248724469499</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09533142831195691</v>
+        <v>0.05860047135232888</v>
       </c>
       <c r="N125" t="n">
-        <v>0.6884808095779016</v>
+        <v>0.7670108263681457</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09530513874803775</v>
+        <v>0.0585700044388999</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03316829765581951</v>
+        <v>0.1404510187598615</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09666955071080575</v>
+        <v>0.03222423312324776</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1580359062959327</v>
+        <v>0.1404510187598615</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09691623810952997</v>
+        <v>0.03222423312324776</v>
       </c>
       <c r="L126" t="n">
-        <v>0.4192303690794396</v>
+        <v>0.4753404488272372</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09692028545048953</v>
+        <v>0.05957714587486768</v>
       </c>
       <c r="N126" t="n">
-        <v>0.6802516715090714</v>
+        <v>0.7629544131499961</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09689355772717172</v>
+        <v>0.05954617117954824</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02980055798496786</v>
+        <v>0.1407325723798433</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09825429744376978</v>
+        <v>0.03275249924002231</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1576650142500707</v>
+        <v>0.1407325723798433</v>
       </c>
       <c r="K127" t="n">
-        <v>0.09850502889821079</v>
+        <v>0.03275249924002231</v>
       </c>
       <c r="L127" t="n">
-        <v>0.4146875249678083</v>
+        <v>0.4755292925755357</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09850914258902214</v>
+        <v>0.06055382039740651</v>
       </c>
       <c r="N127" t="n">
-        <v>0.680817047911175</v>
+        <v>0.7627954222390687</v>
       </c>
       <c r="O127" t="n">
-        <v>0.09848197670630568</v>
+        <v>0.06052233792019657</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03341126408633929</v>
+        <v>0.1410019331055324</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0998390441767338</v>
+        <v>0.03328076535679687</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1545815646014337</v>
+        <v>0.1410019331055324</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1000938196868916</v>
+        <v>0.03328076535679687</v>
       </c>
       <c r="L128" t="n">
-        <v>0.4136447318480683</v>
+        <v>0.4693992804162687</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1000979997275548</v>
+        <v>0.06153049491994532</v>
       </c>
       <c r="N128" t="n">
-        <v>0.6682010907119517</v>
+        <v>0.760440645681884</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1000703956854396</v>
+        <v>0.0614985046608449</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03100765688856185</v>
+        <v>0.1412593576538059</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1014237909096978</v>
+        <v>0.03380903147357142</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1523194821104487</v>
+        <v>0.1412593576538059</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1016826104755724</v>
+        <v>0.03380903147357142</v>
       </c>
       <c r="L129" t="n">
-        <v>0.406292242226763</v>
+        <v>0.4719582890738595</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1016868568660874</v>
+        <v>0.06250716944248413</v>
       </c>
       <c r="N129" t="n">
-        <v>0.664950254683236</v>
+        <v>0.7588968755249628</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1016588146645736</v>
+        <v>0.06247467140149323</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02959697732026358</v>
+        <v>0.1415051027415402</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1030085376426619</v>
+        <v>0.03433729759034598</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1508126915375427</v>
+        <v>0.1415051027415402</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1032714012642532</v>
+        <v>0.03433729759034598</v>
       </c>
       <c r="L130" t="n">
-        <v>0.4003203086104357</v>
+        <v>0.470014195272731</v>
       </c>
       <c r="M130" t="n">
-        <v>0.10327571400462</v>
+        <v>0.06348384396502295</v>
       </c>
       <c r="N130" t="n">
-        <v>0.6512109945968639</v>
+        <v>0.7573709038148251</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1032472336437076</v>
+        <v>0.06345083814214157</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03018646631007255</v>
+        <v>0.1417394250856122</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1045932843756259</v>
+        <v>0.03486556370712053</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1495951176431428</v>
+        <v>0.1417394250856122</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1048601920529341</v>
+        <v>0.03486556370712053</v>
       </c>
       <c r="L131" t="n">
-        <v>0.3990191835056296</v>
+        <v>0.4698748757373067</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1048645711431526</v>
+        <v>0.06446051848756176</v>
       </c>
       <c r="N131" t="n">
-        <v>0.6417297652246697</v>
+        <v>0.7558695225979919</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1048356526228415</v>
+        <v>0.06442700488278989</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03078336478661681</v>
+        <v>0.1419625814028985</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1061780311085899</v>
+        <v>0.03539382982389509</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1483006851876761</v>
+        <v>0.1419625814028985</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1064489828416149</v>
+        <v>0.03539382982389509</v>
       </c>
       <c r="L132" t="n">
-        <v>0.3931791194188881</v>
+        <v>0.4664482071920096</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1064534282816852</v>
+        <v>0.06543719301010058</v>
       </c>
       <c r="N132" t="n">
-        <v>0.6330530213384892</v>
+        <v>0.7606995239209839</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1064240716019755</v>
+        <v>0.06540317162343823</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0313949136785244</v>
+        <v>0.1421748284102761</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1077627778415539</v>
+        <v>0.03592209594066963</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1446633189315695</v>
+        <v>0.1421748284102761</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1080377736302957</v>
+        <v>0.03592209594066963</v>
       </c>
       <c r="L133" t="n">
-        <v>0.3875903688567542</v>
+        <v>0.4660420663612629</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1080422854202178</v>
+        <v>0.06641386753263939</v>
       </c>
       <c r="N133" t="n">
-        <v>0.6278272177101569</v>
+        <v>0.7582676998303215</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1080124905811095</v>
+        <v>0.06637933836408656</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02802835391442337</v>
+        <v>0.1423764228246216</v>
       </c>
       <c r="G134" t="n">
-        <v>0.109347524574518</v>
+        <v>0.03645036205744419</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1443169436352502</v>
+        <v>0.1423764228246216</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1096265644189765</v>
+        <v>0.03645036205744419</v>
       </c>
       <c r="L134" t="n">
-        <v>0.3845431843257713</v>
+        <v>0.4649643299694896</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1096311425587504</v>
+        <v>0.06739054205517821</v>
       </c>
       <c r="N134" t="n">
-        <v>0.6229988091115083</v>
+        <v>0.7572808423725255</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1096009095602434</v>
+        <v>0.06735550510473488</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02769092642294179</v>
+        <v>0.1425676213628118</v>
       </c>
       <c r="G135" t="n">
-        <v>0.110932271307482</v>
+        <v>0.03697862817421874</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1419954840591452</v>
+        <v>0.1425676213628118</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1112153552076573</v>
+        <v>0.03697862817421874</v>
       </c>
       <c r="L135" t="n">
-        <v>0.3797278183324826</v>
+        <v>0.4615228747411132</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1112199996972831</v>
+        <v>0.06836721657771702</v>
       </c>
       <c r="N135" t="n">
-        <v>0.6138142503143783</v>
+        <v>0.749445743594116</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1111893285393774</v>
+        <v>0.06833167184538322</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02738987213270771</v>
+        <v>0.1427486807417234</v>
       </c>
       <c r="G136" t="n">
-        <v>0.112517018040446</v>
+        <v>0.0375068942909933</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1409328649636817</v>
+        <v>0.1427486807417234</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1128041459963382</v>
+        <v>0.0375068942909933</v>
       </c>
       <c r="L136" t="n">
-        <v>0.3720345233834312</v>
+        <v>0.4601255774005565</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1128088568358157</v>
+        <v>0.06934389110025584</v>
       </c>
       <c r="N136" t="n">
-        <v>0.6042199960906018</v>
+        <v>0.7484691955416138</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1127777475185113</v>
+        <v>0.06930783858603155</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02813243197234916</v>
+        <v>0.1429198576782332</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1141017647734101</v>
+        <v>0.03803516040776785</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1386630111092865</v>
+        <v>0.1429198576782332</v>
       </c>
       <c r="K137" t="n">
-        <v>0.114392936785019</v>
+        <v>0.03803516040776785</v>
       </c>
       <c r="L137" t="n">
-        <v>0.3720535519851607</v>
+        <v>0.4623803146722431</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1143977139743483</v>
+        <v>0.07032056562279465</v>
       </c>
       <c r="N137" t="n">
-        <v>0.6036625012120146</v>
+        <v>0.7550579902615395</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1143661664976453</v>
+        <v>0.07028400532667989</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02892584687049421</v>
+        <v>0.1430814088892179</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1156865115063741</v>
+        <v>0.03856342652454241</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1376198472563868</v>
+        <v>0.1430814088892179</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1159817275736998</v>
+        <v>0.03856342652454241</v>
       </c>
       <c r="L138" t="n">
-        <v>0.370475156644214</v>
+        <v>0.4614949632805957</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1159865711128809</v>
+        <v>0.07129724014533347</v>
       </c>
       <c r="N138" t="n">
-        <v>0.5963882204504509</v>
+        <v>0.7511189198004145</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1159545854767793</v>
+        <v>0.07126017206732822</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02677735775577092</v>
+        <v>0.1432335910915543</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1172712582393381</v>
+        <v>0.03909169264131696</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1370372981654097</v>
+        <v>0.1432335910915543</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1175705183623806</v>
+        <v>0.03909169264131696</v>
       </c>
       <c r="L139" t="n">
-        <v>0.3642895898671347</v>
+        <v>0.460877399950038</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1175754282514135</v>
+        <v>0.07227391466787228</v>
       </c>
       <c r="N139" t="n">
-        <v>0.5945436085777467</v>
+        <v>0.7520587762047579</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1175430044559132</v>
+        <v>0.07223633880797656</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02769420555680732</v>
+        <v>0.1433766610021191</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1188560049723022</v>
+        <v>0.03961995875809151</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1369492885967821</v>
+        <v>0.1433766610021191</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1191593091510614</v>
+        <v>0.03961995875809151</v>
       </c>
       <c r="L140" t="n">
-        <v>0.3664871041604656</v>
+        <v>0.4605355014049927</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1191642853899461</v>
+        <v>0.07325058919041109</v>
       </c>
       <c r="N140" t="n">
-        <v>0.5930751203657363</v>
+        <v>0.747584351521091</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1191314234350472</v>
+        <v>0.07321250554862488</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02567933931269564</v>
+        <v>0.1435108753377891</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1204407517052662</v>
+        <v>0.04014822487486606</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1371894412650349</v>
+        <v>0.1435108753377891</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1207480999397423</v>
+        <v>0.04014822487486606</v>
       </c>
       <c r="L141" t="n">
-        <v>0.3651573244864619</v>
+        <v>0.4557771443698831</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1207531425284787</v>
+        <v>0.07422726371294991</v>
       </c>
       <c r="N141" t="n">
-        <v>0.5902256506349565</v>
+        <v>0.7439024377959346</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1207198424141812</v>
+        <v>0.07418867228927321</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02768878554032253</v>
+        <v>0.143636490815441</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1220254984382302</v>
+        <v>0.04067649099164062</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1377176080765828</v>
+        <v>0.143636490815441</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1223368907284231</v>
+        <v>0.04067649099164062</v>
       </c>
       <c r="L142" t="n">
-        <v>0.3622315546468825</v>
+        <v>0.4572102055691326</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1223419996670114</v>
+        <v>0.07520393823548872</v>
       </c>
       <c r="N142" t="n">
-        <v>0.5887536486265111</v>
+        <v>0.7479198270758088</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1223082613933151</v>
+        <v>0.07516483902992155</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02670877000435917</v>
+        <v>0.1437537641519517</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1236102451711942</v>
+        <v>0.04120475710841517</v>
       </c>
       <c r="J143" t="n">
-        <v>0.13779579641726</v>
+        <v>0.1437537641519517</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1239256815171039</v>
+        <v>0.04120475710841517</v>
       </c>
       <c r="L143" t="n">
-        <v>0.3651388889470463</v>
+        <v>0.4551425617271642</v>
       </c>
       <c r="M143" t="n">
-        <v>0.123930856805544</v>
+        <v>0.07618061275802754</v>
       </c>
       <c r="N143" t="n">
-        <v>0.5908973351215627</v>
+        <v>0.7472433114072347</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1238966803724491</v>
+        <v>0.07614100577056987</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02973876064400762</v>
+        <v>0.1438629520641977</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1251949919041583</v>
+        <v>0.04173302322518973</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1377215135080279</v>
+        <v>0.1438629520641977</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1255144723057847</v>
+        <v>0.04173302322518973</v>
       </c>
       <c r="L144" t="n">
-        <v>0.3662726956656486</v>
+        <v>0.458382089568401</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1255197139440766</v>
+        <v>0.07715728728056635</v>
       </c>
       <c r="N144" t="n">
-        <v>0.5902459486768259</v>
+        <v>0.7426796828367325</v>
       </c>
       <c r="O144" t="n">
-        <v>0.125485099351583</v>
+        <v>0.0771171725112182</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02577822539846992</v>
+        <v>0.143964311269056</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1267797386371223</v>
+        <v>0.04226128934196428</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1377922665698479</v>
+        <v>0.143964311269056</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1271032630944655</v>
+        <v>0.04226128934196428</v>
       </c>
       <c r="L145" t="n">
-        <v>0.3670263430813846</v>
+        <v>0.4542366658172663</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1271085710826092</v>
+        <v>0.07813396180310517</v>
       </c>
       <c r="N145" t="n">
-        <v>0.5929887278490147</v>
+        <v>0.748035733410823</v>
       </c>
       <c r="O145" t="n">
-        <v>0.127073518330717</v>
+        <v>0.07809333925186654</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0278266322069481</v>
+        <v>0.1440580984834032</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1283644853700863</v>
+        <v>0.04278955545873883</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1382055628236818</v>
+        <v>0.1440580984834032</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1286920538831463</v>
+        <v>0.04278955545873883</v>
       </c>
       <c r="L146" t="n">
-        <v>0.3667931994729497</v>
+        <v>0.4550141671981833</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1286974282211418</v>
+        <v>0.07911063632564398</v>
       </c>
       <c r="N146" t="n">
-        <v>0.5972149111948435</v>
+        <v>0.7470182551760266</v>
       </c>
       <c r="O146" t="n">
-        <v>0.128661937309851</v>
+        <v>0.07906950599251487</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02688344900864425</v>
+        <v>0.144144570424116</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1299492321030503</v>
+        <v>0.04331782157551339</v>
       </c>
       <c r="J147" t="n">
-        <v>0.137158909490491</v>
+        <v>0.144144570424116</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1302808446718272</v>
+        <v>0.04331782157551339</v>
       </c>
       <c r="L147" t="n">
-        <v>0.3643666331190394</v>
+        <v>0.455822470435575</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1302862853596744</v>
+        <v>0.0800873108481828</v>
       </c>
       <c r="N147" t="n">
-        <v>0.5963137372710268</v>
+        <v>0.7431340401788641</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1302503562889849</v>
+        <v>0.08004567273316321</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02894814374276039</v>
+        <v>0.1442239838080714</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1315339788360144</v>
+        <v>0.04384608769228794</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1380498137912371</v>
+        <v>0.1442239838080714</v>
       </c>
       <c r="K148" t="n">
-        <v>0.131869635460508</v>
+        <v>0.04384608769228794</v>
       </c>
       <c r="L148" t="n">
-        <v>0.3657400122983488</v>
+        <v>0.4539247040691419</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1318751424982071</v>
+        <v>0.08106398537072161</v>
       </c>
       <c r="N148" t="n">
-        <v>0.597874444634279</v>
+        <v>0.7447687477139971</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1318387752681189</v>
+        <v>0.08102183947381154</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03002018434849857</v>
+        <v>0.1442965953521459</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1331187255689784</v>
+        <v>0.0443743538090625</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1380757829468814</v>
+        <v>0.1442965953521459</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1334584262491888</v>
+        <v>0.0443743538090625</v>
       </c>
       <c r="L149" t="n">
-        <v>0.3697067052895733</v>
+        <v>0.4541407366650966</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1334639996367397</v>
+        <v>0.08204065989326043</v>
       </c>
       <c r="N149" t="n">
-        <v>0.5944862718413141</v>
+        <v>0.7412905028682985</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1334271942472529</v>
+        <v>0.08199800621445986</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02709903876506086</v>
+        <v>0.1443626617732163</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1347034723019424</v>
+        <v>0.04490261992583705</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1380343241783857</v>
+        <v>0.1443626617732163</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1350472170378696</v>
+        <v>0.04490261992583705</v>
       </c>
       <c r="L150" t="n">
-        <v>0.3685600803714082</v>
+        <v>0.4577680849156527</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1350528567752723</v>
+        <v>0.08301733441579924</v>
       </c>
       <c r="N150" t="n">
-        <v>0.603338457448847</v>
+        <v>0.7478942812596409</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1350156132263868</v>
+        <v>0.0829741729551082</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0281841749316493</v>
+        <v>0.1444224397881594</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1362882190349065</v>
+        <v>0.04543088604261161</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1398229447067114</v>
+        <v>0.1444224397881594</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1366360078265504</v>
+        <v>0.04543088604261161</v>
       </c>
       <c r="L151" t="n">
-        <v>0.3723935058225486</v>
+        <v>0.4535060981400695</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1366417139138049</v>
+        <v>0.08399400893833806</v>
       </c>
       <c r="N151" t="n">
-        <v>0.6031202400135914</v>
+        <v>0.7419753525189665</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1366040322055208</v>
+        <v>0.08395033969575653</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02927506078746593</v>
+        <v>0.144476186113852</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1378729657678705</v>
+        <v>0.04595915215938615</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1389391517528201</v>
+        <v>0.144476186113852</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1382247986152313</v>
+        <v>0.04595915215938615</v>
       </c>
       <c r="L152" t="n">
-        <v>0.3738003499216902</v>
+        <v>0.4547541256576065</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1382305710523375</v>
+        <v>0.08497068346087687</v>
       </c>
       <c r="N152" t="n">
-        <v>0.6059208580922623</v>
+        <v>0.7429289862772178</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1381924511846547</v>
+        <v>0.08492650643640486</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03037116427171281</v>
+        <v>0.1445241574671708</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1394577125008345</v>
+        <v>0.04648741827616071</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1400804525376732</v>
+        <v>0.1445241574671708</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1398135894039121</v>
+        <v>0.04648741827616071</v>
       </c>
       <c r="L153" t="n">
-        <v>0.373773980947528</v>
+        <v>0.4548115167875232</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1398194281908701</v>
+        <v>0.08594735798341568</v>
       </c>
       <c r="N153" t="n">
-        <v>0.6029295502415736</v>
+        <v>0.7424504521653368</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1397808701637887</v>
+        <v>0.08590267317705319</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02851408393110923</v>
+        <v>0.1445666105649925</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1410424592337985</v>
+        <v>0.04701568439293526</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1408432154999221</v>
+        <v>0.1445666105649925</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1414023801925929</v>
+        <v>0.04701568439293526</v>
       </c>
       <c r="L154" t="n">
-        <v>0.3745672078481442</v>
+        <v>0.4554776208490788</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1414082853294027</v>
+        <v>0.0869240325059545</v>
       </c>
       <c r="N154" t="n">
-        <v>0.6071954962207878</v>
+        <v>0.7444350198142657</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1413692891429227</v>
+        <v>0.08687883991770153</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02974429323362977</v>
+        <v>0.144603802124194</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1426272059667626</v>
+        <v>0.04754395050970981</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1411099689038416</v>
+        <v>0.144603802124194</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1429911709812737</v>
+        <v>0.04754395050970981</v>
       </c>
       <c r="L155" t="n">
-        <v>0.3761341472293029</v>
+        <v>0.4533517871615329</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1429971424679354</v>
+        <v>0.08790070702849331</v>
       </c>
       <c r="N155" t="n">
-        <v>0.6086142450072718</v>
+        <v>0.750777958854947</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1429577081220566</v>
+        <v>0.08785500665834985</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03104584690787749</v>
+        <v>0.1446359888616519</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1442119526997266</v>
+        <v>0.04807221662648437</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1436310078381795</v>
+        <v>0.1446359888616519</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1445799617699545</v>
+        <v>0.04807221662648437</v>
       </c>
       <c r="L156" t="n">
-        <v>0.3778444900517932</v>
+        <v>0.456333365044145</v>
       </c>
       <c r="M156" t="n">
-        <v>0.144585999606468</v>
+        <v>0.08887738155103213</v>
       </c>
       <c r="N156" t="n">
-        <v>0.6148545303562745</v>
+        <v>0.7506745389183227</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1445461271011906</v>
+        <v>0.08883117339899819</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02940268332253682</v>
+        <v>0.1446634274942429</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1457966994326906</v>
+        <v>0.04860048274325892</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1452310813203009</v>
+        <v>0.1446634274942429</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1461687525586353</v>
+        <v>0.04860048274325892</v>
       </c>
       <c r="L157" t="n">
-        <v>0.3865980406556568</v>
+        <v>0.4540217038161743</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1461748567450006</v>
+        <v>0.08985405607357094</v>
       </c>
       <c r="N157" t="n">
-        <v>0.6238914902686715</v>
+        <v>0.750020029635335</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1461345460803246</v>
+        <v>0.08980734013964653</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02879874084629214</v>
+        <v>0.144686374738844</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1473814461656547</v>
+        <v>0.04912874886003347</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1457349383675711</v>
+        <v>0.144686374738844</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1477575433473162</v>
+        <v>0.04912874886003347</v>
       </c>
       <c r="L158" t="n">
-        <v>0.3889946033809348</v>
+        <v>0.4552161527968805</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1477637138835332</v>
+        <v>0.09083073059610976</v>
       </c>
       <c r="N158" t="n">
-        <v>0.634900262745339</v>
+        <v>0.7475097006369258</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1477229650594585</v>
+        <v>0.09078350688029485</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03021795784782788</v>
+        <v>0.1447050873123318</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1489661928986187</v>
+        <v>0.04965701497680802</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1492673279973553</v>
+        <v>0.1447050873123318</v>
       </c>
       <c r="K159" t="n">
-        <v>0.149346334135997</v>
+        <v>0.04965701497680802</v>
       </c>
       <c r="L159" t="n">
-        <v>0.3970339825676689</v>
+        <v>0.4562160613055227</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1493525710220658</v>
+        <v>0.09180740511864857</v>
       </c>
       <c r="N159" t="n">
-        <v>0.6450559857871525</v>
+        <v>0.7464388215540378</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1493113840385925</v>
+        <v>0.09175967362094319</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03264427269582844</v>
+        <v>0.1447198219315829</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1505509396315827</v>
+        <v>0.05018528109358258</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1497529992270187</v>
+        <v>0.1447198219315829</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1509351249246778</v>
+        <v>0.05018528109358258</v>
       </c>
       <c r="L160" t="n">
-        <v>0.4015159825559006</v>
+        <v>0.4544207786613603</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1509414281605984</v>
+        <v>0.09278407964118739</v>
       </c>
       <c r="N160" t="n">
-        <v>0.6522337973949881</v>
+        <v>0.7470026620176131</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1508998030177265</v>
+        <v>0.09273584036159152</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03206162375897822</v>
+        <v>0.1447308353134744</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1521356863645467</v>
+        <v>0.05071354721035713</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1529167010739265</v>
+        <v>0.1447308353134744</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1525239157133587</v>
+        <v>0.05071354721035713</v>
       </c>
       <c r="L161" t="n">
-        <v>0.403540407685671</v>
+        <v>0.4562296541836532</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1525302852991311</v>
+        <v>0.0937607541637262</v>
       </c>
       <c r="N161" t="n">
-        <v>0.6562088355697212</v>
+        <v>0.747396491658594</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1524882219968604</v>
+        <v>0.09371200710223984</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03145394940596163</v>
+        <v>0.1447383841748827</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1537204330975108</v>
+        <v>0.05124181332713169</v>
       </c>
       <c r="J162" t="n">
-        <v>0.153283182555444</v>
+        <v>0.1447383841748827</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1541127065020395</v>
+        <v>0.05124181332713169</v>
       </c>
       <c r="L162" t="n">
-        <v>0.4101070622970218</v>
+        <v>0.4576420371916603</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1541191424376637</v>
+        <v>0.09473742868626502</v>
       </c>
       <c r="N162" t="n">
-        <v>0.6630562383122279</v>
+        <v>0.7549155801079224</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1540766409759944</v>
+        <v>0.09468817384288818</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0318051880054631</v>
+        <v>0.1447427252326848</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1553051798304748</v>
+        <v>0.05177007944390624</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1549771926889364</v>
+        <v>0.1447427252326848</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1557014972907203</v>
+        <v>0.05177007944390624</v>
       </c>
       <c r="L163" t="n">
-        <v>0.4161157507299943</v>
+        <v>0.4576572770046413</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1557079995761963</v>
+        <v>0.09571410320880383</v>
       </c>
       <c r="N163" t="n">
-        <v>0.6704511436233842</v>
+        <v>0.7551551969965407</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1556650599551283</v>
+        <v>0.09566434058353651</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03211056194402867</v>
+        <v>0.1447441152037573</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1568899265634388</v>
+        <v>0.05229834556068079</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1574411575440077</v>
+        <v>0.1447441152037573</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1572902880794011</v>
+        <v>0.05229834556068079</v>
       </c>
       <c r="L164" t="n">
-        <v>0.4160122035235191</v>
+        <v>0.4548747229418556</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1572968567147289</v>
+        <v>0.09669077773134264</v>
       </c>
       <c r="N164" t="n">
-        <v>0.6805554271996426</v>
+        <v>0.7509106119553912</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1572534789342623</v>
+        <v>0.09664050732418485</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03140463731425998</v>
+        <v>0.1447441152037573</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1584746732964029</v>
+        <v>0.05229834556068079</v>
       </c>
       <c r="J165" t="n">
-        <v>0.157920486216904</v>
+        <v>0.1447441152037573</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1588790788680819</v>
+        <v>0.05229834556068079</v>
       </c>
       <c r="L165" t="n">
-        <v>0.4218818019394676</v>
+        <v>0.4581937243225624</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1588857138532615</v>
+        <v>0.09766745225388146</v>
       </c>
       <c r="N165" t="n">
-        <v>0.685709418765864</v>
+        <v>0.752477094615416</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1588418979133963</v>
+        <v>0.09761667406483317</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03369180894643749</v>
+        <v>0.1426028592439595</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1600594200293669</v>
+        <v>0.05229807703221678</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1609669506934614</v>
+        <v>0.1426028592439595</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1604678696567627</v>
+        <v>0.05229807703221678</v>
       </c>
       <c r="L166" t="n">
-        <v>0.4244639467402523</v>
+        <v>0.4591136304660215</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1604745709917942</v>
+        <v>0.09864412677642027</v>
       </c>
       <c r="N166" t="n">
-        <v>0.6915217396714236</v>
+        <v>0.7536499146075573</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1604303168925302</v>
+        <v>0.09859284080548152</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03497258636384858</v>
+        <v>0.1404829651348806</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1616441667623309</v>
+        <v>0.05229780850375276</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1608829381613383</v>
+        <v>0.1404829651348806</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1620566604454435</v>
+        <v>0.05229780850375276</v>
       </c>
       <c r="L167" t="n">
-        <v>0.4307649887347523</v>
+        <v>0.4554337906914919</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1620634281303268</v>
+        <v>0.09962080129895909</v>
       </c>
       <c r="N167" t="n">
-        <v>0.6941026955166983</v>
+        <v>0.7569243415627571</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1620187358716642</v>
+        <v>0.09956900754612985</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03224747908978058</v>
+        <v>0.1383851205802366</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1632289134952949</v>
+        <v>0.05229753997528874</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1618708358081929</v>
+        <v>0.1383851205802366</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1636454512341244</v>
+        <v>0.05229753997528874</v>
       </c>
       <c r="L168" t="n">
-        <v>0.4344912787318476</v>
+        <v>0.4556535543182334</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1636522852688594</v>
+        <v>0.1005974758214979</v>
       </c>
       <c r="N168" t="n">
-        <v>0.7026625919020645</v>
+        <v>0.7548956451119582</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1636071548507982</v>
+        <v>0.1005451742867782</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03351699664752091</v>
+        <v>0.1363100132835601</v>
       </c>
       <c r="G169" t="n">
-        <v>0.164813660228259</v>
+        <v>0.05229727144682472</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1647330308216837</v>
+        <v>0.1363100132835601</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1652342420228052</v>
+        <v>0.05229727144682472</v>
       </c>
       <c r="L169" t="n">
-        <v>0.4379491675404172</v>
+        <v>0.4545722706655052</v>
       </c>
       <c r="M169" t="n">
-        <v>0.165241142407392</v>
+        <v>0.1015741503440367</v>
       </c>
       <c r="N169" t="n">
-        <v>0.7114117344278986</v>
+        <v>0.7610590948861022</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1651955738299321</v>
+        <v>0.1015213410274265</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03578164856035691</v>
+        <v>0.1342583309485653</v>
       </c>
       <c r="G170" t="n">
-        <v>0.166398406961223</v>
+        <v>0.05229700291836071</v>
       </c>
       <c r="J170" t="n">
-        <v>0.165971910389469</v>
+        <v>0.1342583309485653</v>
       </c>
       <c r="K170" t="n">
-        <v>0.166823032811486</v>
+        <v>0.05229700291836071</v>
       </c>
       <c r="L170" t="n">
-        <v>0.4411450059693409</v>
+        <v>0.4577892890525668</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1668299995459246</v>
+        <v>0.1025508248665755</v>
       </c>
       <c r="N170" t="n">
-        <v>0.7170604286945775</v>
+        <v>0.7615099605161317</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1667839928090661</v>
+        <v>0.1024975077680748</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03604194435157594</v>
+        <v>0.132230761278787</v>
       </c>
       <c r="G171" t="n">
-        <v>0.167983153694187</v>
+        <v>0.05229673438989669</v>
       </c>
       <c r="J171" t="n">
-        <v>0.165989861699207</v>
+        <v>0.132230761278787</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1684118236001668</v>
+        <v>0.05229673438989669</v>
       </c>
       <c r="L171" t="n">
-        <v>0.4448851448274983</v>
+        <v>0.4551039587986775</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1684188566844572</v>
+        <v>0.1035274993891143</v>
       </c>
       <c r="N171" t="n">
-        <v>0.7158189803024774</v>
+        <v>0.7615435116329887</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1683724117882</v>
+        <v>0.1034736745087232</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03529839354446537</v>
+        <v>0.1302279919779373</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1695679004271511</v>
+        <v>0.05229646586143268</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1679892719385563</v>
+        <v>0.1302279919779373</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1700006143888476</v>
+        <v>0.05229646586143268</v>
       </c>
       <c r="L172" t="n">
-        <v>0.4479759349237686</v>
+        <v>0.4577156292230969</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1700077138229898</v>
+        <v>0.1045041739116532</v>
       </c>
       <c r="N172" t="n">
-        <v>0.722797694851975</v>
+        <v>0.758155017867616</v>
       </c>
       <c r="O172" t="n">
-        <v>0.169960830767334</v>
+        <v>0.1044498412493715</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03455150566231259</v>
+        <v>0.1282507107495528</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1711526471601151</v>
+        <v>0.05229619733296866</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1695725282951752</v>
+        <v>0.1282507107495528</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1715894051775285</v>
+        <v>0.05229619733296866</v>
       </c>
       <c r="L173" t="n">
-        <v>0.4479237270670317</v>
+        <v>0.4590236496450844</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1715965709615224</v>
+        <v>0.105480848434192</v>
       </c>
       <c r="N173" t="n">
-        <v>0.7259068779434468</v>
+        <v>0.7622397488509545</v>
       </c>
       <c r="O173" t="n">
-        <v>0.171549249746468</v>
+        <v>0.1054260079900198</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03280179022840493</v>
+        <v>0.1262996052973437</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1727373938930791</v>
+        <v>0.05229592880450464</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1706420179567218</v>
+        <v>0.1262996052973437</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1731781959662093</v>
+        <v>0.05229592880450464</v>
       </c>
       <c r="L174" t="n">
-        <v>0.4514348720661666</v>
+        <v>0.4601273693838992</v>
       </c>
       <c r="M174" t="n">
-        <v>0.173185428100055</v>
+        <v>0.1064575229567308</v>
       </c>
       <c r="N174" t="n">
-        <v>0.7320568351772693</v>
+        <v>0.7652929742139478</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1731376687256019</v>
+        <v>0.1064021747306682</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03404975676602977</v>
+        <v>0.1243753633248488</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1743221406260431</v>
+        <v>0.05229566027604062</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1715001281108549</v>
+        <v>0.1243753633248488</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1747669867548901</v>
+        <v>0.05229566027604062</v>
       </c>
       <c r="L175" t="n">
-        <v>0.4565157207300534</v>
+        <v>0.457926137758801</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1747742852385877</v>
+        <v>0.1074341974792696</v>
       </c>
       <c r="N175" t="n">
-        <v>0.7389578721538193</v>
+        <v>0.7630099635875374</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1747260877047359</v>
+        <v>0.1073783414713165</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03330575130333872</v>
+        <v>0.1224786725357759</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1759068873590072</v>
+        <v>0.0522953917475766</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1715773420940654</v>
+        <v>0.1224786725357759</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1763557775435709</v>
+        <v>0.0522953917475766</v>
       </c>
       <c r="L176" t="n">
-        <v>0.4606466732742693</v>
+        <v>0.4577193040890488</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1763631423771203</v>
+        <v>0.1084108720018084</v>
       </c>
       <c r="N176" t="n">
-        <v>0.742648011566158</v>
+        <v>0.7674859866026658</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1763145066838698</v>
+        <v>0.1083545082119648</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03357487426122804</v>
+        <v>0.1206102206336664</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1774916340919712</v>
+        <v>0.05229512321911258</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1739216701024655</v>
+        <v>0.1206102206336664</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1779445683322518</v>
+        <v>0.05229512321911258</v>
       </c>
       <c r="L177" t="n">
-        <v>0.4622562853950225</v>
+        <v>0.4594062176939027</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1779519995156529</v>
+        <v>0.1093875465243472</v>
       </c>
       <c r="N177" t="n">
-        <v>0.7524267419467028</v>
+        <v>0.7650163128902747</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1779029256630038</v>
+        <v>0.1093306749526132</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03684837763512937</v>
+        <v>0.1187706953222254</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1790763808249352</v>
+        <v>0.05229485469064857</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1737955497561075</v>
+        <v>0.1187706953222254</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1795333591209326</v>
+        <v>0.05229485469064857</v>
       </c>
       <c r="L178" t="n">
-        <v>0.4641449089758378</v>
+        <v>0.4564862278926216</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1795408566541855</v>
+        <v>0.110364221046886</v>
       </c>
       <c r="N178" t="n">
-        <v>0.7529294728423639</v>
+        <v>0.7658962120813066</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1794913446421378</v>
+        <v>0.1103068416932615</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03811750871362639</v>
+        <v>0.1169607843049968</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1806611275578993</v>
+        <v>0.05229458616218455</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1756579733813714</v>
+        <v>0.1169607843049968</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1811221499096134</v>
+        <v>0.05229458616218455</v>
       </c>
       <c r="L179" t="n">
-        <v>0.4699034483212662</v>
+        <v>0.4560586840044649</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1811297137927181</v>
+        <v>0.1113408955694249</v>
       </c>
       <c r="N179" t="n">
-        <v>0.759679172214951</v>
+        <v>0.7626209538067041</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1810797636212717</v>
+        <v>0.1112830084339098</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03837351478530282</v>
+        <v>0.1151811752856833</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1822458742908633</v>
+        <v>0.05229431763372053</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1771679333046371</v>
+        <v>0.1151811752856833</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1827109406982942</v>
+        <v>0.05229431763372053</v>
       </c>
       <c r="L180" t="n">
-        <v>0.4702228077358592</v>
+        <v>0.4581229353486924</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1827185709312507</v>
+        <v>0.1123175700919637</v>
       </c>
       <c r="N180" t="n">
-        <v>0.7668988080262742</v>
+        <v>0.7676858076974091</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1826681826004057</v>
+        <v>0.1122591751745582</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03760764313874233</v>
+        <v>0.1134325559678313</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1838306210238273</v>
+        <v>0.05229404910525651</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1773844218522844</v>
+        <v>0.1134325559678313</v>
       </c>
       <c r="K181" t="n">
-        <v>0.184299731486975</v>
+        <v>0.05229404910525651</v>
       </c>
       <c r="L181" t="n">
-        <v>0.4758938915241685</v>
+        <v>0.4568783312445633</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1843074280697834</v>
+        <v>0.1132942446145025</v>
       </c>
       <c r="N181" t="n">
-        <v>0.7684113482381425</v>
+        <v>0.7627860433843638</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1842566015795397</v>
+        <v>0.1132353419152065</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03781114106252861</v>
+        <v>0.111715614055141</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1854153677567913</v>
+        <v>0.0522937805767925</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1794664313506935</v>
+        <v>0.111715614055141</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1858885222756558</v>
+        <v>0.0522937805767925</v>
       </c>
       <c r="L182" t="n">
-        <v>0.474407603990745</v>
+        <v>0.4605242210113369</v>
       </c>
       <c r="M182" t="n">
-        <v>0.185896285208316</v>
+        <v>0.1142709191370413</v>
       </c>
       <c r="N182" t="n">
-        <v>0.7754397608123664</v>
+        <v>0.7628169304985104</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1858450205586736</v>
+        <v>0.1142115086558548</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03697525584524539</v>
+        <v>0.1100310372511978</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1870001144897554</v>
+        <v>0.05229351204832849</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1810729541262441</v>
+        <v>0.1100310372511978</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1874773130643367</v>
+        <v>0.05229351204832849</v>
       </c>
       <c r="L183" t="n">
-        <v>0.4768548494401403</v>
+        <v>0.4582599539682728</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1874851423468486</v>
+        <v>0.1152475936595801</v>
       </c>
       <c r="N183" t="n">
-        <v>0.7798070137107562</v>
+        <v>0.7649737386707911</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1874334395378076</v>
+        <v>0.1151876753965032</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03609234032026006</v>
+        <v>0.10837951325959</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1885848612227194</v>
+        <v>0.05229324351986447</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1804629825053163</v>
+        <v>0.10837951325959</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1890661038530175</v>
+        <v>0.05229324351986447</v>
       </c>
       <c r="L184" t="n">
-        <v>0.4797265321769058</v>
+        <v>0.4559848794346304</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1890739994853812</v>
+        <v>0.116224268182119</v>
       </c>
       <c r="N184" t="n">
-        <v>0.7797362406908372</v>
+        <v>0.7694517375321483</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1890218585169415</v>
+        <v>0.1161638421371515</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03819125077630182</v>
+        <v>0.1067617297840133</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1901696079556834</v>
+        <v>0.05229297499140045</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1808259942032354</v>
+        <v>0.1067617297840133</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1906548946416983</v>
+        <v>0.05229297499140045</v>
       </c>
       <c r="L185" t="n">
-        <v>0.4826583045003884</v>
+        <v>0.458598346729669</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1906628566239138</v>
+        <v>0.1172009427046578</v>
       </c>
       <c r="N185" t="n">
-        <v>0.7856352424126989</v>
+        <v>0.767146196713524</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1906102774960755</v>
+        <v>0.1171400088777998</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03828807093682786</v>
+        <v>0.1051783745280214</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1917543546886475</v>
+        <v>0.05229270646293643</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1825792676890809</v>
+        <v>0.1051783745280214</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1922436854303791</v>
+        <v>0.05229270646293643</v>
       </c>
       <c r="L186" t="n">
-        <v>0.4852641657736472</v>
+        <v>0.4607910183612256</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1922517137624464</v>
+        <v>0.1181776172271966</v>
       </c>
       <c r="N186" t="n">
-        <v>0.7880921826220784</v>
+        <v>0.7692123535901392</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1921986964752095</v>
+        <v>0.1181161756184482</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03538276859067577</v>
+        <v>0.103630135195307</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1933391014216115</v>
+        <v>0.05229243793447241</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1814226522090959</v>
+        <v>0.103630135195307</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1938324762190599</v>
+        <v>0.05229243793447241</v>
       </c>
       <c r="L187" t="n">
-        <v>0.4855437211185266</v>
+        <v>0.458379831368694</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1938405709009791</v>
+        <v>0.1191542917497354</v>
       </c>
       <c r="N187" t="n">
-        <v>0.7879064098171198</v>
+        <v>0.7665343430481495</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1937871154543434</v>
+        <v>0.1190923423590965</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03647531152668314</v>
+        <v>0.1021176994894267</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1949238481545755</v>
+        <v>0.05229216940600839</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1821559968494926</v>
+        <v>0.1021176994894267</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1954212670077408</v>
+        <v>0.05229216940600839</v>
       </c>
       <c r="L188" t="n">
-        <v>0.4856965690481049</v>
+        <v>0.4566494724153295</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1954294280395117</v>
+        <v>0.1201309662722742</v>
       </c>
       <c r="N188" t="n">
-        <v>0.7902772724959668</v>
+        <v>0.7699701698793964</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1953755344334774</v>
+        <v>0.1200685090997448</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03856566753368758</v>
+        <v>0.1006417551140703</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1965085948875396</v>
+        <v>0.05229190087754438</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1837791506964828</v>
+        <v>0.1006417551140703</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1970100577964216</v>
+        <v>0.05229190087754438</v>
       </c>
       <c r="L189" t="n">
-        <v>0.4854223080754605</v>
+        <v>0.4587065292452299</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1970182851780443</v>
+        <v>0.121107640794813</v>
       </c>
       <c r="N189" t="n">
-        <v>0.7881041191567637</v>
+        <v>0.7613502798832146</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1969639534126114</v>
+        <v>0.1210446758403931</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03665380440052668</v>
+        <v>0.09920018164966631</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1980933416205036</v>
+        <v>0.05229163234908036</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1830919628362788</v>
+        <v>0.09920018164966631</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1985988485851024</v>
+        <v>0.05229163234908036</v>
       </c>
       <c r="L190" t="n">
-        <v>0.4871205367136715</v>
+        <v>0.4567575896024921</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1986071423165769</v>
+        <v>0.1220843153173518</v>
       </c>
       <c r="N190" t="n">
-        <v>0.7954862982976543</v>
+        <v>0.7598051188589383</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1985523723917453</v>
+        <v>0.1220208425810415</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03973968991603803</v>
+        <v>0.09777681806111584</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1996780883534676</v>
+        <v>0.05229136382061635</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1846942823550924</v>
+        <v>0.09777681806111584</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2001876393737832</v>
+        <v>0.05229136382061635</v>
       </c>
       <c r="L191" t="n">
-        <v>0.4885908534758162</v>
+        <v>0.4581092412312135</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2001959994551095</v>
+        <v>0.1230609898398906</v>
       </c>
       <c r="N191" t="n">
-        <v>0.7903231584167825</v>
+        <v>0.7606651326059013</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2001407913708793</v>
+        <v>0.1229970093216898</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03582329186905925</v>
+        <v>0.09636954392884968</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2012628350864316</v>
+        <v>0.05229109529215233</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1835859583391359</v>
+        <v>0.09636954392884968</v>
       </c>
       <c r="K192" t="n">
-        <v>0.201776430162464</v>
+        <v>0.05229109529215233</v>
       </c>
       <c r="L192" t="n">
-        <v>0.4875328568749729</v>
+        <v>0.4561680718754912</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2017848565936421</v>
+        <v>0.1240376643624294</v>
       </c>
       <c r="N192" t="n">
-        <v>0.7946140480122932</v>
+        <v>0.7616607669234381</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2017292103500133</v>
+        <v>0.1239731760623381</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03690457804842791</v>
+        <v>0.09497904695655292</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2028475818193957</v>
+        <v>0.05229082676368831</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1845668398746211</v>
+        <v>0.09497904695655292</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2033652209511448</v>
+        <v>0.05229082676368831</v>
       </c>
       <c r="L193" t="n">
-        <v>0.4884461454242196</v>
+        <v>0.4560406692794224</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2033737137321747</v>
+        <v>0.1250143388849683</v>
       </c>
       <c r="N193" t="n">
-        <v>0.7977583155823291</v>
+        <v>0.7564224676108831</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2033176293291472</v>
+        <v>0.1249493428029865</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03898351624298162</v>
+        <v>0.09360601484778903</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2044323285523597</v>
+        <v>0.05229055823522429</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1854367760477603</v>
+        <v>0.09360601484778903</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2049540117398257</v>
+        <v>0.05229055823522429</v>
       </c>
       <c r="L194" t="n">
-        <v>0.489830317636635</v>
+        <v>0.4530336211871046</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2049625708707074</v>
+        <v>0.1259910134075071</v>
       </c>
       <c r="N194" t="n">
-        <v>0.7990553096250352</v>
+        <v>0.7516806804675702</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2049060483082812</v>
+        <v>0.1259255095436348</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03606007424155799</v>
+        <v>0.09225113530624167</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2060170752853237</v>
+        <v>0.05229028970676028</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1842956159447652</v>
+        <v>0.09225113530624167</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2065428025285065</v>
+        <v>0.05229028970676028</v>
       </c>
       <c r="L195" t="n">
-        <v>0.4933849720252969</v>
+        <v>0.4547535153426349</v>
       </c>
       <c r="M195" t="n">
-        <v>0.20655142800924</v>
+        <v>0.1269676879300459</v>
       </c>
       <c r="N195" t="n">
-        <v>0.796804378638555</v>
+        <v>0.7492658512928337</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2064944672874151</v>
+        <v>0.1269016762842831</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.04013421983299459</v>
+        <v>0.0909150960354758</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2076018220182878</v>
+        <v>0.05229002117829626</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1851432086518481</v>
+        <v>0.0909150960354758</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2081315933171873</v>
+        <v>0.05229002117829626</v>
       </c>
       <c r="L196" t="n">
-        <v>0.4912097071032837</v>
+        <v>0.4501069394901103</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2081402851477726</v>
+        <v>0.1279443624525847</v>
       </c>
       <c r="N196" t="n">
-        <v>0.7976048711210328</v>
+        <v>0.7420084258860081</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2080828862665491</v>
+        <v>0.1278778430249315</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03620592080612904</v>
+        <v>0.08959858473917344</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2091865687512518</v>
+        <v>0.05228975264983225</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1868794032552211</v>
+        <v>0.08959858473917344</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2097203841058681</v>
+        <v>0.05228975264983225</v>
       </c>
       <c r="L197" t="n">
-        <v>0.4939041213836737</v>
+        <v>0.4506004813736282</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2097291422863052</v>
+        <v>0.1289210369751235</v>
       </c>
       <c r="N197" t="n">
-        <v>0.8000561355706128</v>
+        <v>0.7402388500464273</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2096713052456831</v>
+        <v>0.1288540097655798</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03827514494979892</v>
+        <v>0.0883022891209292</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2107713154842158</v>
+        <v>0.05228948412136823</v>
       </c>
       <c r="J198" t="n">
-        <v>0.185604048841096</v>
+        <v>0.0883022891209292</v>
       </c>
       <c r="K198" t="n">
-        <v>0.211309174894549</v>
+        <v>0.05228948412136823</v>
       </c>
       <c r="L198" t="n">
-        <v>0.4944678133795452</v>
+        <v>0.450940728737286</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2113179994248378</v>
+        <v>0.1298977114976624</v>
       </c>
       <c r="N198" t="n">
-        <v>0.8037575204854386</v>
+        <v>0.7349875695734256</v>
       </c>
       <c r="O198" t="n">
-        <v>0.211259724224817</v>
+        <v>0.1298301765062281</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.04034186005284184</v>
+        <v>0.08702689688433952</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2123560622171798</v>
+        <v>0.0522892155929042</v>
       </c>
       <c r="J199" t="n">
-        <v>0.186216994495685</v>
+        <v>0.08702689688433952</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2128979656832297</v>
+        <v>0.0522892155929042</v>
       </c>
       <c r="L199" t="n">
-        <v>0.497700381603976</v>
+        <v>0.4490342693251805</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2129068565633704</v>
+        <v>0.1308743860202012</v>
       </c>
       <c r="N199" t="n">
-        <v>0.809508374363654</v>
+        <v>0.7351850302663371</v>
       </c>
       <c r="O199" t="n">
-        <v>0.212848143203951</v>
+        <v>0.1308063432468765</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.04040603390409538</v>
+        <v>0.0857730957330838</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2139408089501439</v>
+        <v>0.05228894706444019</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1864180893052</v>
+        <v>0.0857730957330838</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2144867564719106</v>
+        <v>0.05228894706444019</v>
       </c>
       <c r="L200" t="n">
-        <v>0.4969014245700448</v>
+        <v>0.4501876908814094</v>
       </c>
       <c r="M200" t="n">
-        <v>0.214495713701903</v>
+        <v>0.13185106054274</v>
       </c>
       <c r="N200" t="n">
-        <v>0.8039080457034034</v>
+        <v>0.7285616779244963</v>
       </c>
       <c r="O200" t="n">
-        <v>0.214436562183085</v>
+        <v>0.1317825099875248</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03646763429239716</v>
+        <v>0.08454157337073136</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2155255556831079</v>
+        <v>0.05228867853597617</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1866071823558533</v>
+        <v>0.08454157337073136</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2160755472605914</v>
+        <v>0.05228867853597617</v>
       </c>
       <c r="L201" t="n">
-        <v>0.4963705407908299</v>
+        <v>0.4475075811500698</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2160845708404357</v>
+        <v>0.1328277350652788</v>
       </c>
       <c r="N201" t="n">
-        <v>0.8122558830028308</v>
+        <v>0.7213479583472372</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2160249811622189</v>
+        <v>0.1327586767281731</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03652662900658477</v>
+        <v>0.08333301750095966</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2171103024160719</v>
+        <v>0.05228841000751216</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1881841227338568</v>
+        <v>0.08333301750095966</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2176643380492722</v>
+        <v>0.05228841000751216</v>
       </c>
       <c r="L202" t="n">
-        <v>0.4999073287794095</v>
+        <v>0.4468005278752588</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2176734279789683</v>
+        <v>0.1338044095878176</v>
       </c>
       <c r="N202" t="n">
-        <v>0.8071512347600802</v>
+        <v>0.7147743173338942</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2176134001413529</v>
+        <v>0.1337348434688214</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03658298583549578</v>
+        <v>0.08214811582734015</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2186950491490359</v>
+        <v>0.05228814147904814</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1885487595254224</v>
+        <v>0.08214811582734015</v>
       </c>
       <c r="K203" t="n">
-        <v>0.219253128837953</v>
+        <v>0.05228814147904814</v>
       </c>
       <c r="L203" t="n">
-        <v>0.5008113870488614</v>
+        <v>0.4466731188010737</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2192622851175009</v>
+        <v>0.1347810841103564</v>
       </c>
       <c r="N203" t="n">
-        <v>0.8083934494732956</v>
+        <v>0.7106712006838014</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2192018191204868</v>
+        <v>0.1347110102094698</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03863667256796784</v>
+        <v>0.08098755605354828</v>
       </c>
       <c r="G204" t="n">
-        <v>0.220279795882</v>
+        <v>0.05228787295058412</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1883009418167623</v>
+        <v>0.08098755605354828</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2208419196266339</v>
+        <v>0.05228787295058412</v>
       </c>
       <c r="L204" t="n">
-        <v>0.4999823141122641</v>
+        <v>0.4451319416716116</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2208511422560335</v>
+        <v>0.1357577586328952</v>
       </c>
       <c r="N204" t="n">
-        <v>0.8152818756406208</v>
+        <v>0.7075690541962929</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2207902380996208</v>
+        <v>0.1356871769501181</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03768765699283851</v>
+        <v>0.07985202588315739</v>
       </c>
       <c r="G205" t="n">
-        <v>0.221864542614964</v>
+        <v>0.0522876044221201</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1876405186940885</v>
+        <v>0.07985202588315739</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2224307104153147</v>
+        <v>0.0522876044221201</v>
       </c>
       <c r="L205" t="n">
-        <v>0.5008197084826962</v>
+        <v>0.4417835842309701</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2224399993945661</v>
+        <v>0.136734433155434</v>
       </c>
       <c r="N205" t="n">
-        <v>0.8145158617602002</v>
+        <v>0.7074983236707033</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2223786570787547</v>
+        <v>0.1366633436907664</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03773590689894538</v>
+        <v>0.0787422130198409</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2234492893479281</v>
+        <v>0.05228733589365609</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1877673392436131</v>
+        <v>0.0787422130198409</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2240195012039955</v>
+        <v>0.05228733589365609</v>
       </c>
       <c r="L206" t="n">
-        <v>0.5003231686732355</v>
+        <v>0.443534634223246</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2240288565330988</v>
+        <v>0.1377111076779729</v>
       </c>
       <c r="N206" t="n">
-        <v>0.8176947563301775</v>
+        <v>0.7032894549063666</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2239670760578887</v>
+        <v>0.1376395104314148</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03678139007512608</v>
+        <v>0.07765880516717437</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2250340360808921</v>
+        <v>0.05228706736519207</v>
       </c>
       <c r="J207" t="n">
-        <v>0.189381252551548</v>
+        <v>0.07765880516717437</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2256082919926763</v>
+        <v>0.05228706736519207</v>
       </c>
       <c r="L207" t="n">
-        <v>0.5035922931969604</v>
+        <v>0.4383916793925369</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2256177136716314</v>
+        <v>0.1386877822005117</v>
       </c>
       <c r="N207" t="n">
-        <v>0.8184179078486966</v>
+        <v>0.6989728937026168</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2255554950370227</v>
+        <v>0.1386156771720631</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.04082407431021817</v>
+        <v>0.07660249002882889</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2266187828138561</v>
+        <v>0.05228679883672806</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1890821077041054</v>
+        <v>0.07660249002882889</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2271970827813571</v>
+        <v>0.05228679883672806</v>
       </c>
       <c r="L208" t="n">
-        <v>0.5047266805669491</v>
+        <v>0.4376613074829397</v>
       </c>
       <c r="M208" t="n">
-        <v>0.227206570810164</v>
+        <v>0.1396644567230505</v>
       </c>
       <c r="N208" t="n">
-        <v>0.8187846648139021</v>
+        <v>0.6950790858587885</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2271439140161567</v>
+        <v>0.1395918439127114</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03986392739305929</v>
+        <v>0.07557395530838242</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2282035295468201</v>
+        <v>0.05228653030826404</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1880697537874972</v>
+        <v>0.07557395530838242</v>
       </c>
       <c r="K209" t="n">
-        <v>0.228785873570038</v>
+        <v>0.05228653030826404</v>
       </c>
       <c r="L209" t="n">
-        <v>0.5022259292962801</v>
+        <v>0.4381501062385518</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2287954279486966</v>
+        <v>0.1406411312455893</v>
       </c>
       <c r="N209" t="n">
-        <v>0.8127943757239375</v>
+        <v>0.6887384771742157</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2287323329952906</v>
+        <v>0.1405680106533598</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.039900917112487</v>
+        <v>0.07457388870950361</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2297882762797841</v>
+        <v>0.05228626177980002</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1890440398879357</v>
+        <v>0.07457388870950361</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2303746643587188</v>
+        <v>0.05228626177980002</v>
       </c>
       <c r="L210" t="n">
-        <v>0.5046896378980311</v>
+        <v>0.4358646634034705</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2303842850872292</v>
+        <v>0.1416178057681281</v>
       </c>
       <c r="N210" t="n">
-        <v>0.8135463890769468</v>
+        <v>0.6817815134482326</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2303207519744246</v>
+        <v>0.1415441773940081</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0379350112573389</v>
+        <v>0.0736029779357729</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2313730230127482</v>
+        <v>0.052285993251336</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1901048150916326</v>
+        <v>0.0736029779357729</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2319634551473996</v>
+        <v>0.052285993251336</v>
       </c>
       <c r="L211" t="n">
-        <v>0.5035174048852807</v>
+        <v>0.4354115667217929</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2319731422257618</v>
+        <v>0.1425944802906669</v>
       </c>
       <c r="N211" t="n">
-        <v>0.8160400533710743</v>
+        <v>0.6808386404801736</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2319091709535586</v>
+        <v>0.1425203441346564</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03996617761645262</v>
+        <v>0.07266191069085642</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2329577697457122</v>
+        <v>0.05228572472287198</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1894519284848002</v>
+        <v>0.07266191069085642</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2335522459360804</v>
+        <v>0.05228572472287198</v>
       </c>
       <c r="L212" t="n">
-        <v>0.5030088287711073</v>
+        <v>0.4312974039376163</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2335619993642944</v>
+        <v>0.1435711548132057</v>
       </c>
       <c r="N212" t="n">
-        <v>0.8174747171044638</v>
+        <v>0.673140304069373</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2334975899326925</v>
+        <v>0.1434965108753048</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03799438397866571</v>
+        <v>0.07175137467833717</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2345425164786762</v>
+        <v>0.05228545619440796</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1891852291536504</v>
+        <v>0.07175137467833717</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2351410367247612</v>
+        <v>0.05228545619440796</v>
       </c>
       <c r="L213" t="n">
-        <v>0.5028635080685889</v>
+        <v>0.4335287627950378</v>
       </c>
       <c r="M213" t="n">
-        <v>0.235150856502827</v>
+        <v>0.1445478293357446</v>
       </c>
       <c r="N213" t="n">
-        <v>0.8201497287752593</v>
+        <v>0.6701169500151645</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2350860089118265</v>
+        <v>0.1444726776159531</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.04001959813281582</v>
+        <v>0.07087205760187866</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2361272632116403</v>
+        <v>0.05228518766594395</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1901045661843953</v>
+        <v>0.07087205760187866</v>
       </c>
       <c r="K214" t="n">
-        <v>0.236729827513442</v>
+        <v>0.05228518766594395</v>
       </c>
       <c r="L214" t="n">
-        <v>0.5026810412908038</v>
+        <v>0.4338122310381549</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2367397136413597</v>
+        <v>0.1455245038582834</v>
       </c>
       <c r="N214" t="n">
-        <v>0.8233644368816051</v>
+        <v>0.6702990241168827</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2366744278909604</v>
+        <v>0.1454488443566014</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0370417878677405</v>
+        <v>0.07087205760187866</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2377120099446043</v>
+        <v>0.05228518766594395</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1901097886632469</v>
+        <v>0.07087205760187866</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2383186183021229</v>
+        <v>0.05228518766594395</v>
       </c>
       <c r="L215" t="n">
-        <v>0.5071610269508304</v>
+        <v>0.4304543964110645</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2383285707798923</v>
+        <v>0.1465011783808222</v>
       </c>
       <c r="N215" t="n">
-        <v>0.8197181899216452</v>
+        <v>0.6660169721738621</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2382628468700944</v>
+        <v>0.1464250110972498</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.04106092097227737</v>
+        <v>0.06917519434594718</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2392967566775683</v>
+        <v>0.05227769679082975</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1892007456764173</v>
+        <v>0.06917519434594718</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2399074090908037</v>
+        <v>0.05227769679082975</v>
       </c>
       <c r="L216" t="n">
-        <v>0.5035030635617465</v>
+        <v>0.4296618466578641</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2399174279184249</v>
+        <v>0.147477852903361</v>
       </c>
       <c r="N216" t="n">
-        <v>0.8190103363935231</v>
+        <v>0.6631012399854362</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2398512658492283</v>
+        <v>0.1474011778378981</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03907696523526402</v>
+        <v>0.06749126477181064</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2408815034105324</v>
+        <v>0.05227020591571555</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1902772863101185</v>
+        <v>0.06749126477181064</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2414961998794845</v>
+        <v>0.05227020591571555</v>
       </c>
       <c r="L217" t="n">
-        <v>0.5069067496366308</v>
+        <v>0.4306411695226509</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2415062850569575</v>
+        <v>0.1484545274258998</v>
       </c>
       <c r="N217" t="n">
-        <v>0.820640224795383</v>
+        <v>0.6640822733509401</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2414396848283623</v>
+        <v>0.1483773445785464</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03808988844553805</v>
+        <v>0.06582050835186953</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2424662501434964</v>
+        <v>0.05226271504060134</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1895392596505625</v>
+        <v>0.06582050835186953</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2430849906681653</v>
+        <v>0.05226271504060134</v>
       </c>
       <c r="L218" t="n">
-        <v>0.5039716836885613</v>
+        <v>0.427798952749522</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2430951421954901</v>
+        <v>0.1494312019484386</v>
       </c>
       <c r="N218" t="n">
-        <v>0.8246072036253693</v>
+        <v>0.6619905180697072</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2430281038074963</v>
+        <v>0.1493535113191947</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03709965839193707</v>
+        <v>0.06416316455852837</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2440509968764604</v>
+        <v>0.05225522416548713</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1894865147839615</v>
+        <v>0.06416316455852837</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2446737814568462</v>
+        <v>0.05225522416548713</v>
       </c>
       <c r="L219" t="n">
-        <v>0.5041974642306164</v>
+        <v>0.4302417840825746</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2446839993340228</v>
+        <v>0.1504078764709774</v>
       </c>
       <c r="N219" t="n">
-        <v>0.8230106213816257</v>
+        <v>0.6650564199410721</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2446165227866302</v>
+        <v>0.1503296780598431</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.04010624286329866</v>
+        <v>0.06251947286418767</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2456357436094244</v>
+        <v>0.05224773329037293</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1905189007965273</v>
+        <v>0.06251947286418767</v>
       </c>
       <c r="K220" t="n">
-        <v>0.246262572245527</v>
+        <v>0.05224773329037293</v>
       </c>
       <c r="L220" t="n">
-        <v>0.5071836897758742</v>
+        <v>0.4247762512659061</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2462728564725554</v>
+        <v>0.1513845509935162</v>
       </c>
       <c r="N220" t="n">
-        <v>0.8191498265622961</v>
+        <v>0.658710424764369</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2462049417657642</v>
+        <v>0.1513058448004914</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0381096096484604</v>
+        <v>0.0608896727412493</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2472204903423885</v>
+        <v>0.05224024241525873</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1911362667744722</v>
+        <v>0.0608896727412493</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2478513630342078</v>
+        <v>0.05224024241525873</v>
       </c>
       <c r="L221" t="n">
-        <v>0.5076299588374131</v>
+        <v>0.4262899105791315</v>
       </c>
       <c r="M221" t="n">
-        <v>0.247861713611088</v>
+        <v>0.1523612255160551</v>
       </c>
       <c r="N221" t="n">
-        <v>0.8243241676655249</v>
+        <v>0.6617752398755417</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2477933607448982</v>
+        <v>0.1522820115411397</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.04009912517193367</v>
+        <v>0.05927400366211512</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2488052370753525</v>
+        <v>0.05223275154014453</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1910092132502572</v>
+        <v>0.05927400366211512</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2494401538228886</v>
+        <v>0.05223275154014453</v>
       </c>
       <c r="L222" t="n">
-        <v>0.5039588283812734</v>
+        <v>0.4257116020590873</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2494505707496206</v>
+        <v>0.1533379000385939</v>
       </c>
       <c r="N222" t="n">
-        <v>0.8185996026408264</v>
+        <v>0.6628757552532311</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2493817797240321</v>
+        <v>0.1532581782817881</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03900456088501396</v>
+        <v>0.05767270509918572</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2503899838083165</v>
+        <v>0.05222526066503032</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1888149510359672</v>
+        <v>0.05767270509918572</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2510289446115694</v>
+        <v>0.05222526066503032</v>
       </c>
       <c r="L223" t="n">
-        <v>0.5042120740610269</v>
+        <v>0.4240342839804208</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2510394278881532</v>
+        <v>0.1543145745611327</v>
       </c>
       <c r="N223" t="n">
-        <v>0.8226781851085574</v>
+        <v>0.6644775005717878</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2509701987031661</v>
+        <v>0.1542343450224364</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03682130692896173</v>
+        <v>0.05608601652486547</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2519747305412806</v>
+        <v>0.05221776978991612</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1880013132510939</v>
+        <v>0.05608601652486547</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2526177354002502</v>
+        <v>0.05221776978991612</v>
       </c>
       <c r="L224" t="n">
-        <v>0.5024494567191909</v>
+        <v>0.4241584510111657</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2526282850266858</v>
+        <v>0.1552912490836715</v>
       </c>
       <c r="N224" t="n">
-        <v>0.8124478290894794</v>
+        <v>0.6568812285203537</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2525586176823</v>
+        <v>0.1552105117630847</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.04055940492049892</v>
+        <v>0.054514177411555</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2535594772742446</v>
+        <v>0.05221027891480192</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1876153462703625</v>
+        <v>0.054514177411555</v>
       </c>
       <c r="K225" t="n">
-        <v>0.254206526188931</v>
+        <v>0.05221027891480192</v>
       </c>
       <c r="L225" t="n">
-        <v>0.4978961372467864</v>
+        <v>0.4226845978193567</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2542171421652184</v>
+        <v>0.1562679236062103</v>
       </c>
       <c r="N225" t="n">
-        <v>0.8099116359758878</v>
+        <v>0.6631876917880716</v>
       </c>
       <c r="O225" t="n">
-        <v>0.254147036661434</v>
+        <v>0.1561866785037331</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03922889647634754</v>
+        <v>0.05295742723165608</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2551442240072087</v>
+        <v>0.05220278803968772</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1867040964684979</v>
+        <v>0.05295742723165608</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2557953169776119</v>
+        <v>0.05220278803968772</v>
       </c>
       <c r="L226" t="n">
-        <v>0.4947772765348334</v>
+        <v>0.4243132190730278</v>
       </c>
       <c r="M226" t="n">
-        <v>0.255805999303751</v>
+        <v>0.1572445981287492</v>
       </c>
       <c r="N226" t="n">
-        <v>0.8077727071600782</v>
+        <v>0.6592976430640832</v>
       </c>
       <c r="O226" t="n">
-        <v>0.255735455640568</v>
+        <v>0.1571628452443814</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03783982321322954</v>
+        <v>0.05141600545757068</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2567289707401726</v>
+        <v>0.05219529716457352</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1841146102202252</v>
+        <v>0.05141600545757068</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2573841077662927</v>
+        <v>0.05219529716457352</v>
       </c>
       <c r="L227" t="n">
-        <v>0.4905180354743526</v>
+        <v>0.423144809440213</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2573948564422837</v>
+        <v>0.158221272651288</v>
       </c>
       <c r="N227" t="n">
-        <v>0.796934144034346</v>
+        <v>0.6582118350375312</v>
       </c>
       <c r="O227" t="n">
-        <v>0.257323874619702</v>
+        <v>0.1581390119850297</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03740222674786686</v>
+        <v>0.04989015156169938</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2583137174731367</v>
+        <v>0.05218780628945931</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1816939339002696</v>
+        <v>0.04989015156169938</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2589728985549735</v>
+        <v>0.05218780628945931</v>
       </c>
       <c r="L228" t="n">
-        <v>0.4858435749563649</v>
+        <v>0.424479863588947</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2589837135808162</v>
+        <v>0.1591979471738268</v>
       </c>
       <c r="N228" t="n">
-        <v>0.7885990479909868</v>
+        <v>0.6642310203975577</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2589122935988359</v>
+        <v>0.1591151787256781</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03792614869698147</v>
+        <v>0.04838010501644645</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2598984642061007</v>
+        <v>0.0521803154143451</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1796891138833561</v>
+        <v>0.04838010501644645</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2605616893436544</v>
+        <v>0.0521803154143451</v>
       </c>
       <c r="L229" t="n">
-        <v>0.4808790558718907</v>
+        <v>0.4239188761872635</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2605725707193489</v>
+        <v>0.1601746216963656</v>
       </c>
       <c r="N229" t="n">
-        <v>0.7792705204222963</v>
+        <v>0.6618559518333047</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2605007125779699</v>
+        <v>0.1600913454663264</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03642163067729533</v>
+        <v>0.04688610529421257</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2614832109390647</v>
+        <v>0.0521728245392309</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1770471965442096</v>
+        <v>0.04688610529421257</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2621504801323352</v>
+        <v>0.0521728245392309</v>
       </c>
       <c r="L230" t="n">
-        <v>0.4722496391119504</v>
+        <v>0.4218623419031969</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2621614278578815</v>
+        <v>0.1611512962189044</v>
       </c>
       <c r="N230" t="n">
-        <v>0.7717516627205703</v>
+        <v>0.656787382033915</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2620891315571038</v>
+        <v>0.1610675122069747</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03789871430553041</v>
+        <v>0.04540839186739956</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2630679576720287</v>
+        <v>0.0521653336641167</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1749152282575555</v>
+        <v>0.04540839186739956</v>
       </c>
       <c r="K231" t="n">
-        <v>0.263739270921016</v>
+        <v>0.0521653336641167</v>
       </c>
       <c r="L231" t="n">
-        <v>0.4645804855675649</v>
+        <v>0.4197107554047816</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2637502849964141</v>
+        <v>0.1621279707414432</v>
       </c>
       <c r="N231" t="n">
-        <v>0.7620455762781035</v>
+        <v>0.6623260636885305</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2636775505362378</v>
+        <v>0.1620436789476231</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03536744119840864</v>
+        <v>0.04394720420840928</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2646527044049928</v>
+        <v>0.0521578427890025</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1729402553981185</v>
+        <v>0.04394720420840928</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2653280617096968</v>
+        <v>0.0521578427890025</v>
       </c>
       <c r="L232" t="n">
-        <v>0.4624967561297548</v>
+        <v>0.4193646113600517</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2653391421349467</v>
+        <v>0.163104645263982</v>
       </c>
       <c r="N232" t="n">
-        <v>0.7495553624871925</v>
+        <v>0.6586727494862936</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2652659695153717</v>
+        <v>0.1630198456882714</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03683785297265202</v>
+        <v>0.04250278178964251</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2662374511379568</v>
+        <v>0.05215035191388829</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1701693243406239</v>
+        <v>0.04250278178964251</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2669168524983777</v>
+        <v>0.05215035191388829</v>
       </c>
       <c r="L233" t="n">
-        <v>0.4532236116895404</v>
+        <v>0.4229244044370413</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2669279992734794</v>
+        <v>0.1640813197865209</v>
       </c>
       <c r="N233" t="n">
-        <v>0.7387841227401321</v>
+        <v>0.6605281921163466</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2668543884945057</v>
+        <v>0.1639960124289197</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03631999124498247</v>
+        <v>0.04107536408350329</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2678221978709208</v>
+        <v>0.05214286103877409</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1676494814597968</v>
+        <v>0.04107536408350329</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2685056432870584</v>
+        <v>0.05214286103877409</v>
       </c>
       <c r="L234" t="n">
-        <v>0.4458862131379426</v>
+        <v>0.4180906293037846</v>
       </c>
       <c r="M234" t="n">
-        <v>0.268516856412012</v>
+        <v>0.1650579943090597</v>
       </c>
       <c r="N234" t="n">
-        <v>0.7292349584292181</v>
+        <v>0.6644931442678317</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2684428074736397</v>
+        <v>0.1649721791695681</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03482389763212199</v>
+        <v>0.0396651905623924</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2694069446038849</v>
+        <v>0.05213537016365988</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1662277731303621</v>
+        <v>0.0396651905623924</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2700944340757392</v>
+        <v>0.05213537016365988</v>
       </c>
       <c r="L235" t="n">
-        <v>0.4390097213659818</v>
+        <v>0.418663780628316</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2701057135505446</v>
+        <v>0.1660346688315985</v>
       </c>
       <c r="N235" t="n">
-        <v>0.7155109709467463</v>
+        <v>0.664168358629891</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2700312264527737</v>
+        <v>0.1659483459102164</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03135961375079252</v>
+        <v>0.03827250069871165</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2709916913368489</v>
+        <v>0.05212787928854568</v>
       </c>
       <c r="J236" t="n">
-        <v>0.164051245727045</v>
+        <v>0.03827250069871165</v>
       </c>
       <c r="K236" t="n">
-        <v>0.27168322486442</v>
+        <v>0.05212787928854568</v>
       </c>
       <c r="L236" t="n">
-        <v>0.4332192972646788</v>
+        <v>0.4191443530786696</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2716945706890772</v>
+        <v>0.1670113433541373</v>
       </c>
       <c r="N236" t="n">
-        <v>0.7101152616850124</v>
+        <v>0.6647545878916671</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2716196454319076</v>
+        <v>0.1669245126508647</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03093372990186717</v>
+        <v>0.03689753396486294</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2725764380698129</v>
+        <v>0.05212038841343148</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1613563916664943</v>
+        <v>0.03689753396486294</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2732720156531009</v>
+        <v>0.05212038841343148</v>
       </c>
       <c r="L237" t="n">
-        <v>0.4295122415831494</v>
+        <v>0.4206328413228796</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2732834278276098</v>
+        <v>0.1679880178766761</v>
       </c>
       <c r="N237" t="n">
-        <v>0.6989033672661112</v>
+        <v>0.662252584742302</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2732080644110416</v>
+        <v>0.1679006793915131</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03051583154512137</v>
+        <v>0.03554052983324704</v>
       </c>
       <c r="G238" t="n">
-        <v>0.274161184802777</v>
+        <v>0.05211289753831727</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1591089145774747</v>
+        <v>0.03554052983324704</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2748608064417817</v>
+        <v>0.05211289753831727</v>
       </c>
       <c r="L238" t="n">
-        <v>0.4237316803612589</v>
+        <v>0.4202297400289804</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2748722849661424</v>
+        <v>0.1689646923992149</v>
       </c>
       <c r="N238" t="n">
-        <v>0.6879918908458412</v>
+        <v>0.6622631018709381</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2747964833901755</v>
+        <v>0.1688768461321614</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.0330963961811685</v>
+        <v>0.03420172777626794</v>
       </c>
       <c r="G239" t="n">
-        <v>0.275745931535741</v>
+        <v>0.05210540666320307</v>
       </c>
       <c r="J239" t="n">
-        <v>0.157754262100782</v>
+        <v>0.03420172777626794</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2764495972304625</v>
+        <v>0.05210540666320307</v>
       </c>
       <c r="L239" t="n">
-        <v>0.418532031052972</v>
+        <v>0.4171355438650057</v>
       </c>
       <c r="M239" t="n">
-        <v>0.276461142104675</v>
+        <v>0.1699413669217537</v>
       </c>
       <c r="N239" t="n">
-        <v>0.6827494277634628</v>
+        <v>0.6634868919667176</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2763849023693095</v>
+        <v>0.1698530128728097</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03167540002104616</v>
+        <v>0.0328803894206855</v>
       </c>
       <c r="G240" t="n">
-        <v>0.277330678268705</v>
+        <v>0.05209791578808887</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1561923227818101</v>
+        <v>0.0328803894206855</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2780383880191433</v>
+        <v>0.05209791578808887</v>
       </c>
       <c r="L240" t="n">
-        <v>0.4124129971474964</v>
+        <v>0.4170507474989902</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2780499992432077</v>
+        <v>0.1709180414442926</v>
       </c>
       <c r="N240" t="n">
-        <v>0.6708754968642453</v>
+        <v>0.6577247077187829</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2779733213484434</v>
+        <v>0.1708291796134581</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03225281927579193</v>
+        <v>0.03157088716505616</v>
       </c>
       <c r="G241" t="n">
-        <v>0.278915425001669</v>
+        <v>0.05209042491297466</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1530229851659525</v>
+        <v>0.03157088716505616</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2796271788078242</v>
+        <v>0.05209042491297466</v>
       </c>
       <c r="L241" t="n">
-        <v>0.4088742821340396</v>
+        <v>0.419375845598968</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2796388563817402</v>
+        <v>0.1718947159668314</v>
       </c>
       <c r="N241" t="n">
-        <v>0.6677696169934587</v>
+        <v>0.659877301816276</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2795617403275774</v>
+        <v>0.1718053463541064</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03282863015644347</v>
+        <v>0.0302724826361398</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2805001717346331</v>
+        <v>0.05208293403786046</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1517461377986029</v>
+        <v>0.0302724826361398</v>
       </c>
       <c r="K242" t="n">
-        <v>0.281215969596505</v>
+        <v>0.05208293403786046</v>
       </c>
       <c r="L242" t="n">
-        <v>0.4057155895018099</v>
+        <v>0.4188113328329733</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2812277135202729</v>
+        <v>0.1728713904893702</v>
       </c>
       <c r="N242" t="n">
-        <v>0.6566313069963735</v>
+        <v>0.6639454269483395</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2811501593067113</v>
+        <v>0.1727815130947547</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02940280887403834</v>
+        <v>0.02898541530634033</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2820849184675971</v>
+        <v>0.05207544316274625</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1489616692251549</v>
+        <v>0.02898541530634033</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2828047603851858</v>
+        <v>0.05207544316274625</v>
       </c>
       <c r="L243" t="n">
-        <v>0.3962366227400148</v>
+        <v>0.4163577038690404</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2828165706588055</v>
+        <v>0.173848065011909</v>
       </c>
       <c r="N243" t="n">
-        <v>0.643760085718259</v>
+        <v>0.6589298358041155</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2827385782858453</v>
+        <v>0.1737576798354031</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03197533163961416</v>
+        <v>0.02770992464805858</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2836696652005611</v>
+        <v>0.05206795228763205</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1483694679910021</v>
+        <v>0.02770992464805858</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2843935511738667</v>
+        <v>0.05206795228763205</v>
       </c>
       <c r="L244" t="n">
-        <v>0.3908370853378622</v>
+        <v>0.4142154533752032</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2844054277973381</v>
+        <v>0.1748247395344478</v>
       </c>
       <c r="N244" t="n">
-        <v>0.6395554720043853</v>
+        <v>0.6604312810727462</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2843269972649793</v>
+        <v>0.1747338465760514</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02954617466420854</v>
+        <v>0.02644625013369641</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2852544119335252</v>
+        <v>0.05206046141251785</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1457694226415382</v>
+        <v>0.02644625013369641</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2859823419625475</v>
+        <v>0.05206046141251785</v>
       </c>
       <c r="L245" t="n">
-        <v>0.3886166807845598</v>
+        <v>0.4161850760194962</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2859942849358708</v>
+        <v>0.1758014140569866</v>
       </c>
       <c r="N245" t="n">
-        <v>0.6307169847000227</v>
+        <v>0.666250515443374</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2859154162441133</v>
+        <v>0.1757100133166997</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02711531415885909</v>
+        <v>0.02519463123565567</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2868391586664892</v>
+        <v>0.05205297053740365</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1430614217221569</v>
+        <v>0.02519463123565567</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2875711327512283</v>
+        <v>0.05205297053740365</v>
       </c>
       <c r="L246" t="n">
-        <v>0.3845751125693153</v>
+        <v>0.4152670664699535</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2875831420744033</v>
+        <v>0.1767780885795254</v>
       </c>
       <c r="N246" t="n">
-        <v>0.621644142650441</v>
+        <v>0.6599882916051409</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2875038352232472</v>
+        <v>0.176686180057348</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02868272633460344</v>
+        <v>0.02395530742633725</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2884239053994532</v>
+        <v>0.05204547966228944</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1415453537782516</v>
+        <v>0.02395530742633725</v>
       </c>
       <c r="K247" t="n">
-        <v>0.289159923539909</v>
+        <v>0.05204547966228944</v>
       </c>
       <c r="L247" t="n">
-        <v>0.3780120841813364</v>
+        <v>0.4139619193946092</v>
       </c>
       <c r="M247" t="n">
-        <v>0.289171999212936</v>
+        <v>0.1777547631020643</v>
       </c>
       <c r="N247" t="n">
-        <v>0.6125364647009098</v>
+        <v>0.6636453622471897</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2890922542023812</v>
+        <v>0.1776623467979964</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02724838740247914</v>
+        <v>0.02272851817814496</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2900086521324172</v>
+        <v>0.05203798878717524</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1399211073552161</v>
+        <v>0.02272851817814496</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2907487143285899</v>
+        <v>0.05203798878717524</v>
       </c>
       <c r="L248" t="n">
-        <v>0.3711272991098311</v>
+        <v>0.4134701294614979</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2907608563514686</v>
+        <v>0.1787314376246031</v>
       </c>
       <c r="N248" t="n">
-        <v>0.6010934696966993</v>
+        <v>0.6607224800586622</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2906806731815152</v>
+        <v>0.1786385135386447</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02681227357352385</v>
+        <v>0.02151450296347968</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2915933988653813</v>
+        <v>0.05203049791206103</v>
       </c>
       <c r="J249" t="n">
-        <v>0.137588570998444</v>
+        <v>0.02151450296347968</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2923375051172707</v>
+        <v>0.05203049791206103</v>
       </c>
       <c r="L249" t="n">
-        <v>0.3642204608440072</v>
+        <v>0.4168921913386533</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2923497134900012</v>
+        <v>0.1797081121471419</v>
       </c>
       <c r="N249" t="n">
-        <v>0.5985146764830795</v>
+        <v>0.6648203977287006</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2922690921606491</v>
+        <v>0.1796146802792931</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02737436105877515</v>
+        <v>0.02031350125474324</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2931781455983453</v>
+        <v>0.05202300703694683</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1360476332533289</v>
+        <v>0.02031350125474324</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2939262959059515</v>
+        <v>0.05202300703694683</v>
       </c>
       <c r="L250" t="n">
-        <v>0.3584912728730721</v>
+        <v>0.4126285996941099</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2939385706285338</v>
+        <v>0.1806847866696807</v>
       </c>
       <c r="N250" t="n">
-        <v>0.5854996039053203</v>
+        <v>0.6603398679464476</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2938575111397831</v>
+        <v>0.1805908470199414</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02793462606927066</v>
+        <v>0.01912575252433751</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2947628923313093</v>
+        <v>0.05201551616183263</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1339981826652645</v>
+        <v>0.01912575252433751</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2955150866946323</v>
+        <v>0.05201551616183263</v>
       </c>
       <c r="L251" t="n">
-        <v>0.3571394386862339</v>
+        <v>0.4125798491959021</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2955274277670664</v>
+        <v>0.1816614611922195</v>
       </c>
       <c r="N251" t="n">
-        <v>0.5812477708086917</v>
+        <v>0.6672816434010451</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2954459301189171</v>
+        <v>0.1815670137605897</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02849304481604798</v>
+        <v>0.01795149624466345</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2963476390642734</v>
+        <v>0.05200802528671842</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1319401077796444</v>
+        <v>0.01795149624466345</v>
       </c>
       <c r="K252" t="n">
-        <v>0.2971038774833132</v>
+        <v>0.05200802528671842</v>
       </c>
       <c r="L252" t="n">
-        <v>0.3476646617727003</v>
+        <v>0.4137464345120638</v>
       </c>
       <c r="M252" t="n">
-        <v>0.297116284905599</v>
+        <v>0.1826381357147583</v>
       </c>
       <c r="N252" t="n">
-        <v>0.5661586960384636</v>
+        <v>0.6622464767816357</v>
       </c>
       <c r="O252" t="n">
-        <v>0.297034349098051</v>
+        <v>0.1825431805012381</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02404959351014474</v>
+        <v>0.01679097188812474</v>
       </c>
       <c r="G253" t="n">
-        <v>0.2979323857972374</v>
+        <v>0.05200053441160422</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1301732971418622</v>
+        <v>0.01679097188812474</v>
       </c>
       <c r="K253" t="n">
-        <v>0.298692668271994</v>
+        <v>0.05200053441160422</v>
       </c>
       <c r="L253" t="n">
-        <v>0.3445666456216789</v>
+        <v>0.4160288503106292</v>
       </c>
       <c r="M253" t="n">
-        <v>0.2987051420441316</v>
+        <v>0.1836148102372971</v>
       </c>
       <c r="N253" t="n">
-        <v>0.5577318984399058</v>
+        <v>0.6611351207773613</v>
       </c>
       <c r="O253" t="n">
-        <v>0.298622768077185</v>
+        <v>0.1835193472418864</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02560424836259851</v>
+        <v>0.0156444189271223</v>
       </c>
       <c r="G254" t="n">
-        <v>0.2995171325302014</v>
+        <v>0.05199304353649001</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1269976392973116</v>
+        <v>0.0156444189271223</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3002814590606748</v>
+        <v>0.05199304353649001</v>
       </c>
       <c r="L254" t="n">
-        <v>0.3407450937223775</v>
+        <v>0.4154275912596327</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3002939991826643</v>
+        <v>0.1845914847598359</v>
       </c>
       <c r="N254" t="n">
-        <v>0.5486668968582882</v>
+        <v>0.6650483280773645</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3002111870563189</v>
+        <v>0.1844955139825347</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02615698558444692</v>
+        <v>0.01451207683405799</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3011018792631655</v>
+        <v>0.05198555266137581</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1247130227913862</v>
+        <v>0.01451207683405799</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3018702498493557</v>
+        <v>0.05198555266137581</v>
       </c>
       <c r="L255" t="n">
-        <v>0.3331997095640042</v>
+        <v>0.4115431520271083</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3018828563211969</v>
+        <v>0.1855681592823748</v>
       </c>
       <c r="N255" t="n">
-        <v>0.538563210138881</v>
+        <v>0.6649868513707872</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3017996060354529</v>
+        <v>0.185471680723183</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02470778138672757</v>
+        <v>0.01339418508133368</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3026866259961295</v>
+        <v>0.05197806178626161</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1228193361694796</v>
+        <v>0.01339418508133368</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3034590406380365</v>
+        <v>0.05197806178626161</v>
       </c>
       <c r="L256" t="n">
-        <v>0.3263301966357667</v>
+        <v>0.4113760272810905</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3034717134597295</v>
+        <v>0.1865448338049136</v>
       </c>
       <c r="N256" t="n">
-        <v>0.5305203571269543</v>
+        <v>0.663351443346772</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3033880250145868</v>
+        <v>0.1864478474638314</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02525661198047808</v>
+        <v>0.01229098314135037</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3042713727290935</v>
+        <v>0.05197057091114741</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1213164679769855</v>
+        <v>0.01229098314135037</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3050478314267173</v>
+        <v>0.05197057091114741</v>
       </c>
       <c r="L257" t="n">
-        <v>0.3207362584268724</v>
+        <v>0.4141267116896131</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3050605705982621</v>
+        <v>0.1875215083274524</v>
       </c>
       <c r="N257" t="n">
-        <v>0.5264378566677776</v>
+        <v>0.664242856694461</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3049764439937208</v>
+        <v>0.1874240142044797</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02380345357673605</v>
+        <v>0.01120271048651161</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3058561194620575</v>
+        <v>0.05196308003603321</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1195043067592976</v>
+        <v>0.01120271048651161</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3066366222153981</v>
+        <v>0.05196308003603321</v>
       </c>
       <c r="L258" t="n">
-        <v>0.3141175984265294</v>
+        <v>0.411595699920711</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3066494277367948</v>
+        <v>0.1884981828499912</v>
       </c>
       <c r="N258" t="n">
-        <v>0.513915227606621</v>
+        <v>0.6660618441029965</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3065648629728548</v>
+        <v>0.188400180945128</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02134828238653907</v>
+        <v>0.01012960658921842</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3074408661950216</v>
+        <v>0.051955589160919</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1171827410618092</v>
+        <v>0.01012960658921842</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3082254130040789</v>
+        <v>0.051955589160919</v>
       </c>
       <c r="L259" t="n">
-        <v>0.3108739201239453</v>
+        <v>0.4110834866424176</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3082382848753273</v>
+        <v>0.18947485737253</v>
       </c>
       <c r="N259" t="n">
-        <v>0.5088519887887547</v>
+        <v>0.6691091582615207</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3081532819519887</v>
+        <v>0.1893763476857764</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0208910746209248</v>
+        <v>0.009071910921872636</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3090256129279856</v>
+        <v>0.0519480982858048</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1147516594299143</v>
+        <v>0.009071910921872636</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3098142037927597</v>
+        <v>0.0519480982858048</v>
       </c>
       <c r="L260" t="n">
-        <v>0.3034049270083279</v>
+        <v>0.4140905665227674</v>
       </c>
       <c r="M260" t="n">
-        <v>0.30982714201386</v>
+        <v>0.1904515318950689</v>
       </c>
       <c r="N260" t="n">
-        <v>0.4941476590594482</v>
+        <v>0.671385551859176</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3097417009311227</v>
+        <v>0.1903525144264247</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02243180649093078</v>
+        <v>0.008029862956876126</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3106103596609496</v>
+        <v>0.0519406074106906</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1123109504090064</v>
+        <v>0.008029862956876126</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3114029945814406</v>
+        <v>0.0519406074106906</v>
       </c>
       <c r="L261" t="n">
-        <v>0.3013103225688852</v>
+        <v>0.4153174342297951</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3114159991523926</v>
+        <v>0.1914282064176077</v>
       </c>
       <c r="N261" t="n">
-        <v>0.4869017572639717</v>
+        <v>0.6697917775851047</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3113301199102567</v>
+        <v>0.191328681167073</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01997045420759466</v>
+        <v>0.007003702166629946</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3121951063939137</v>
+        <v>0.05193311653557639</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1098605025444791</v>
+        <v>0.007003702166629946</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3129917853701213</v>
+        <v>0.05193311653557639</v>
       </c>
       <c r="L262" t="n">
-        <v>0.2962898102948247</v>
+        <v>0.4144645844315341</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3130048562909252</v>
+        <v>0.1924048809401465</v>
       </c>
       <c r="N262" t="n">
-        <v>0.4746138022475951</v>
+        <v>0.6684285881284489</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3129185388893906</v>
+        <v>0.1923048479077213</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02050699398195405</v>
+        <v>0.005993668023537554</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3137798531268777</v>
+        <v>0.05192562566046219</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1089002043817261</v>
+        <v>0.005993668023537554</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3145805761588022</v>
+        <v>0.05192562566046219</v>
       </c>
       <c r="L263" t="n">
-        <v>0.2891430936753541</v>
+        <v>0.4111325117960192</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3145937134294578</v>
+        <v>0.1933815554626853</v>
       </c>
       <c r="N263" t="n">
-        <v>0.4663833128555886</v>
+        <v>0.6669967361783509</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3145069578685246</v>
+        <v>0.1932810146483697</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02004140202504653</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3153645998598417</v>
+        <v>0.05191813478534799</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1058299444661409</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="K264" t="n">
-        <v>0.316169366947483</v>
+        <v>0.05191813478534799</v>
       </c>
       <c r="L264" t="n">
-        <v>0.2847698761996814</v>
+        <v>0.4154217109912844</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3161825705679904</v>
+        <v>0.1943582299852241</v>
       </c>
       <c r="N264" t="n">
-        <v>0.4573098079332217</v>
+        <v>0.671696974423953</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3160953768476585</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.194257181389018</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05190497689061115</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.05190497689061115</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.006654775661712541</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05190524541907516</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.006654775661712541</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.05190524541907516</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.008303692447868556</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05190551394753918</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.008303692447868556</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.05190551394753918</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.009946713013241022</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05190578247600319</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.009946713013241022</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.05190578247600319</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.01158380001274621</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05190605100446721</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.01158380001274621</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.05190605100446721</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.01321491610115763</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05190631953293123</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.01321491610115763</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.05190631953293123</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.01484002393339098</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05190658806139525</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.01484002393339098</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.05190658806139525</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01645908616422037</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05190685658985926</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.01645908616422037</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.05190685658985926</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01807206544856094</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05190712511832328</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.01807206544856094</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.05190712511832328</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01967892444118731</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05190739364678729</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.01967892444118731</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.05190739364678729</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.02127962579701412</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05190766217525131</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.02127962579701412</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.05190766217525131</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.02287413217081649</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05190793070371533</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.02287413217081649</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.05190793070371533</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.02446240621750856</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05190819923217935</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.02446240621750856</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.05190819923217935</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.02604441059186598</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05190846776064337</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.02604441059186598</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.05190846776064337</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.02762010794880231</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05190873628910739</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.02762010794880231</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.05190873628910739</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.02918946094309376</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.0519090048175714</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.02918946094309376</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.0519090048175714</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.03075243222965339</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05190927334603542</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.03075243222965339</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.05190927334603542</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.03230898446325792</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05190954187449943</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.03230898446325792</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.05190954187449943</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.03385908029878619</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05190981040296345</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.03385908029878619</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.05190981040296345</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.03540268239111649</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05191007893142747</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.03540268239111649</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.05191007893142747</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.03693975339502638</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05191034745989148</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.03693975339502638</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.05191034745989148</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.03847025596542752</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.0519106159883555</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.03847025596542752</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.0519106159883555</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.03999415275709806</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05191088451681952</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.03999415275709806</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.05191088451681952</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.04151140642494903</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05191115304528354</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.04151140642494903</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.05191115304528354</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.04302197962375923</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05191142157374756</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.04302197962375923</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.05191142157374756</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.04452598750115636</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05191169010221158</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.04452598750115636</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.05191169010221158</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.04602430766822319</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05191195863067559</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.04602430766822319</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.05191195863067559</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.04751705527258694</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05191222715913961</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.04751705527258694</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.05191222715913961</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.04900419296902744</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05191249568760362</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.04900419296902744</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.05191249568760362</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.05048568341245416</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05191276421606764</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.05048568341245416</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.05191276421606764</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.05196148925764735</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05191303274453166</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.05196148925764735</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.05191303274453166</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.05343157315951599</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05191330127299568</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.05343157315951599</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.05191330127299568</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.05489589777284089</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05191356980145969</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.05489589777284089</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.05191356980145969</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.05635442575249884</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05191383832992371</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.05635442575249884</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.05191383832992371</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.05780711975336615</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05191410685838773</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.05780711975336615</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.05191410685838773</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.05925394243022433</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05191437538685174</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.05925394243022433</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.05191437538685174</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.06069485643798114</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05191464391531576</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.06069485643798114</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.05191464391531576</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.0621298244314186</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05191491244377978</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.0621298244314186</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.05191491244377978</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.06355880906544394</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.0519151809722438</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.06355880906544394</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.0519151809722438</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.06498177299483969</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05191544950070781</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.06498177299483969</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.05191544950070781</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.06639867887451255</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05191571802917183</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.06639867887451255</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.05191571802917183</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.06780948935924561</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05191598655763584</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.06780948935924561</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.05191598655763584</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.06921416710394503</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05191625508609986</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.06921416710394503</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.05191625508609986</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.07061267476339443</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05191652361456388</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.07061267476339443</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.05191652361456388</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.07200497499249942</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.0519167921430279</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.07200497499249942</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.0519167921430279</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.07339103044604418</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05191706067149191</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.07339103044604418</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.05191706067149191</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.07477080377893378</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05191732919995593</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.07477080377893378</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.05191732919995593</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.07614425764595291</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05191759772841995</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.07614425764595291</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.05191759772841995</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.07751135470200614</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05191786625688397</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.07751135470200614</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.05191786625688397</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.0788720576018787</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05191813478534799</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.0788720576018787</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.05191813478534799</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.07887205760187867</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05190497689061115</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.07887205760187867</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.05190497689061115</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.08045447534915733</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05191300482265338</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.08045447534915733</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.05191300482265338</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.08202708194476065</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05192103275469562</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.08202708194476065</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.05192103275469562</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.08358974647122282</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05192906068673785</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.08358974647122282</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.05192906068673785</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.08514233801107936</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.0519370886187801</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.08514233801107936</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.0519370886187801</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.08668472564686226</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05194511655082233</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.08668472564686226</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.05194511655082233</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.088216778461107</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05195314448286457</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.088216778461107</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.05195314448286457</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.08973836553634786</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05196117241490681</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.08973836553634786</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.05196117241490681</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.09124935595511911</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05196920034694905</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.09124935595511911</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.05196920034694905</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.09274961879995512</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05197722827899128</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.09274961879995512</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.05197722827899128</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.09423902315339015</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05198525621103352</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.09423902315339015</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.05198525621103352</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.09571743809795961</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05199328414307576</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.09571743809795961</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.05199328414307576</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.09718473271619561</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.052001312075118</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.09718473271619561</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.052001312075118</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.09864077609063353</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05200934000716023</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.09864077609063353</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.05200934000716023</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.1000854373038077</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05201736793920247</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.1000854373038077</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.05201736793920247</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.1015185854382524</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05202539587124471</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.1015185854382524</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.05202539587124471</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.102940089576502</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05203342380328695</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.102940089576502</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.05203342380328695</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.1043498188010907</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05204145173532918</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.1043498188010907</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.05204145173532918</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.1057476421945539</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05204947966737142</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.1057476421945539</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.05204947966737142</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.1071334288394239</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05205750759941366</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.1071334288394239</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.05205750759941366</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.1085070478182359</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.0520655355314559</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.1085070478182359</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.0520655355314559</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.1098683682135243</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05207356346349814</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.1098683682135243</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.05207356346349814</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.1112172591078233</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05208159139554037</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.1112172591078233</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.05208159139554037</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.1125535895836672</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05208961932758261</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.1125535895836672</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.05208961932758261</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.1138772287235906</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05209764725962485</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.1138772287235906</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.05209764725962485</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.1151885801897799</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05210567519166709</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.1151885801897799</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.05210567519166709</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.1164907205426774</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05211370312370932</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.1164907205426774</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.05211370312370932</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.1177840534444699</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05212173105575156</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.1177840534444699</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.05212173105575156</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.1190684479776916</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0521297589877938</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.1190684479776916</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.0521297589877938</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.1203437732248768</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05213778691983604</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.1203437732248768</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.05213778691983604</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.1216098982685599</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05214581485187827</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.1216098982685599</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.05214581485187827</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.1228666921912752</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05215384278392051</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.1228666921912752</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.05215384278392051</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.1241140240755578</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05216187071596275</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.1241140240755578</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.05216187071596275</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.1253517630039403</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05216989864800499</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.1253517630039403</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.05216989864800499</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.1265797780589578</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05217792658004723</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.1265797780589578</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.05217792658004723</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.1277979383231448</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05218595451208946</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.1277979383231448</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.05218595451208946</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.1290061128790354</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.0521939824441317</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.1290061128790354</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.0521939824441317</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.130204170809164</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05220201037617394</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.130204170809164</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.05220201037617394</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.1313919811960648</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05221003830821618</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.1313919811960648</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.05221003830821618</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.1325694131222732</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05221806624025842</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.1325694131222732</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.05221806624025842</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.1337363356703215</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05222609417230065</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.1337363356703215</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.05222609417230065</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.134892617922745</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05223412210434289</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.134892617922745</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.05223412210434289</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.136038128962078</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05224215003638513</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.136038128962078</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.05224215003638513</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.1371727378708549</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05225017796842737</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.1371727378708549</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.05225017796842737</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.1382963137316098</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.0522582059004696</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.1382963137316098</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.0522582059004696</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.1394087256268771</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05226623383251184</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.1394087256268771</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.05226623383251184</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.1405098426391919</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05227426176455408</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.1405098426391919</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.05227426176455408</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.141599533851087</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05228228969659632</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.141599533851087</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.05228228969659632</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.1426776683450974</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05229031762863855</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.1426776683450974</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.05229031762863855</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.1437441152037573</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05229834556068079</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.1437441152037573</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.05229834556068079</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.1437441152037573</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05229834556068079</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.1437441152037573</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.05229834556068079</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.1412311875445647</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05547877190933988</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.1412311875445647</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.05547877190933988</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.1390072755228952</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05865919825799898</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.1390072755228952</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.05865919825799898</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.1370558359678112</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06183962460665808</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.1370558359678112</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.06183962460665808</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.1353603257083756</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06502005095531718</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.1353603257083756</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.06502005095531718</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.1339042015736511</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06820047730397627</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.1339042015736511</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.06820047730397627</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.1326709203927001</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07138090365263536</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.1326709203927001</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.07138090365263536</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.1316439389945855</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07456133000129446</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.1316439389945855</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.07456133000129446</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.1308067142083698</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07774175634995356</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.1308067142083698</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.07774175634995356</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.1301427028631157</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08092218269861266</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.1301427028631157</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.08092218269861266</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.1296353617878859</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08410260904727175</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.1296353617878859</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.08410260904727175</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.1292681478117431</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08728303539593085</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.1292681478117431</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.08728303539593085</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.1290245177637498</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.09046346174458995</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.1290245177637498</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.09046346174458995</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.1288879284729689</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.09364388809324904</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.1288879284729689</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.09364388809324904</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.1288418367684628</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09682431444190813</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.1288418367684628</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.09682431444190813</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.1292635864195285</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1000047407905672</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.1292635864195285</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.1000047407905672</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.1305259983239552</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1031851671392263</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.1305259983239552</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.1031851671392263</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.1323576679970363</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1063655934878854</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.1323576679970363</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.1063655934878854</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.1344833069376158</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1095460198365445</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.1344833069376158</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.1095460198365445</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.1366276266445377</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1127264461852036</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.1366276266445377</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1127264461852036</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.1385153386166459</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1159068725338627</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.1385153386166459</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1159068725338627</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.1398711543527844</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1190872988825218</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.1398711543527844</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1190872988825218</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.1404197853517969</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1222677252311809</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.1404197853517969</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1222677252311809</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.1401753731137959</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.12544815157984</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.1401753731137959</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.12544815157984</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.1394169698752002</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1286285779284991</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.1394169698752002</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1286285779284991</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.1381924139934368</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1318090042771582</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.1381924139934368</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1318090042771582</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.1365489069197473</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1349894306258173</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.1365489069197473</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1349894306258173</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.1345336501053726</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1381698569744764</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.1345336501053726</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1381698569744764</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.1321938450015542</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1413502833231355</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.1321938450015542</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1413502833231355</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.1295766930595332</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1445307096717946</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.1295766930595332</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1445307096717946</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.126729395730551</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1477111360204537</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.126729395730551</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1477111360204537</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.1236991544658489</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.1236991544658489</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.120533170716668</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1540719887177719</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.120533170716668</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1540719887177719</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.1172786459342496</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.157252415066431</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.1172786459342496</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.157252415066431</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.1136953642434732</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1604328414150901</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.1136953642434732</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.1604328414150901</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.1075239673400097</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1636132677637492</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.1075239673400097</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1636132677637492</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.1006314117399681</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1667936941124083</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.1006314117399681</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1667936941124083</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.09597473544130929</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1699741204610674</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.09597473544130929</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1699741204610674</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.09540104289377017</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1731545468097264</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.09540104289377017</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1731545468097264</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.09543571205737385</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1763349731583855</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.09543571205737385</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1763349731583855</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.09550536775037509</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1795153995070446</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.09550536775037509</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1795153995070446</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.09561239404645221</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1826958258557037</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.09561239404645221</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1826958258557037</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.09575917501928351</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1858762522043628</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.09575917501928351</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1858762522043628</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.09594809474254724</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1890566785530219</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.09594809474254724</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.1890566785530219</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.09618153728992181</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.192237104901681</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.09618153728992181</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.192237104901681</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.09646188673508542</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1954175312503401</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.09646188673508542</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.1954175312503401</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.09697883056968402</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1985979575989992</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.09697883056968402</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.1985979575989992</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.09942071963462269</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.2017783839476583</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.09942071963462269</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.2017783839476583</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.1028470938743078</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2049588102963174</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.1028470938743078</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.2049588102963174</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.1055817350650755</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2081392366449765</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.1055817350650755</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.2081392366449765</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.1075419139331514</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2113196629936356</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.1075419139331514</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2113196629936356</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.1093097242553064</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2145000893422947</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.1093097242553064</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2145000893422947</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.1109386237013219</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2176805156909538</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.1109386237013219</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2176805156909538</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.1124820699409796</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2208609420396129</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.1124820699409796</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2208609420396129</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.113993520644061</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.224041368388272</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.113993520644061</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.224041368388272</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.1155062729271022</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2272217947369311</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.1155062729271022</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2272217947369311</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.1168551320546796</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2304022210855902</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.1168551320546796</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2304022210855902</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.1181340518421789</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2335826474342493</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.1181340518421789</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2335826474342493</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.119524331831215</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2367630737829084</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.119524331831215</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2367630737829084</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.1212072715634029</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2399435001315674</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.1212072715634029</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2399435001315674</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.1234798332296051</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2431239264802265</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.1234798332296051</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2431239264802265</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.126476849874027</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2463043528288856</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.126476849874027</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2463043528288856</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.1301001587934659</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2494847791775447</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.1301001587934659</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2494847791775447</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.1342513711672003</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2526652055262038</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.1342513711672003</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2526652055262038</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.1388320981745082</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2558456318748629</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.1388320981745082</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2558456318748629</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.143743950994668</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.259026058223522</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.143743950994668</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.259026058223522</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.1488885408069581</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2622064845721811</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.1488885408069581</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2622064845721811</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.1541674787906567</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2653869109208402</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.1541674787906567</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2653869109208402</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.159482376125042</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2685673372694993</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.159482376125042</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2685673372694993</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.1647348439893924</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2717477636181584</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.1647348439893924</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2717477636181584</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.169826493562986</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2749281899668175</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.169826493562986</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2749281899668175</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.1746589360251013</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2781086163154766</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.1746589360251013</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2781086163154766</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.1791337825550164</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2812890426641357</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.1791337825550164</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2812890426641357</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.1831526443320098</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2844694690127948</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.1831526443320098</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2844694690127948</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.1866171325353595</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2876498953614539</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.1866171325353595</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2876498953614539</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.1894288583443439</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2908303217101129</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.1894288583443439</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2908303217101129</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.1914894329382413</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.294010748058772</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.1914894329382413</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.294010748058772</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.1929921536050097</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2971911744074311</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.1929921536050097</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2971911744074311</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.1927878481347852</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.3003716007560902</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.1927878481347852</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.3003716007560902</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.187829945455291</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3035520271047493</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.187829945455291</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.3035520271047493</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.1776036642318902</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3067324534534084</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.1776036642318902</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.3067324534534084</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.1639247207293515</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3099128798020676</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.1639247207293515</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3099128798020676</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.1486088312124439</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3130933061507266</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.1486088312124439</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3130933061507266</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.1334717119459362</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3162737324993857</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.1334717119459362</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3162737324993857</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.120329079194597</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3194541588480448</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.120329079194597</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3194541588480448</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.1109966492231953</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3226345851967039</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.1109966492231953</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3226345851967039</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.105970480848873</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.325815011545363</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.105970480848873</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.325815011545363</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.1015112695773366</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3289954378940221</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.1015112695773366</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3289954378940221</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.09725636825590787</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3321758642426812</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.09725636825590787</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3321758642426812</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.09323230129612088</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3353562905913403</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.09323230129612088</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3353562905913403</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.08946559310950954</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3385367169399994</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.08946559310950954</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3385367169399994</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.08598276810760787</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3417171432886585</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.08598276810760787</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3417171432886585</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.08281035070194974</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3448975696373176</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.08281035070194974</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3448975696373176</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.07997486530406921</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3480779959859767</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.07997486530406921</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3480779959859767</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.07750283632550019</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3512584223346358</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.07750283632550019</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3512584223346358</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.07542078817777666</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3544388486832949</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.07542078817777666</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3544388486832949</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.07375524527243256</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.357619275031954</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.07375524527243256</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.357619275031954</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.07253273202100188</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3607997013806131</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.07253273202100188</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3607997013806131</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.07177977283501859</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3639801277292721</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.07177977283501859</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3639801277292721</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.07152289212601658</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3671605540779312</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.07152289212601658</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3671605540779312</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
